--- a/src/data-processing/overlap_sample.xlsx
+++ b/src/data-processing/overlap_sample.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1101" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="989" uniqueCount="339">
   <si>
     <t>Similarity_Score</t>
   </si>
@@ -58,282 +58,285 @@
     <t>keywords2</t>
   </si>
   <si>
+    <t>Partij die 'gratis bier' uitdeelt, valt snel door de mand; campagne liberalen hun klimaatplannen in het verkiezingsprogramma niet laten doorrekenen . De VVD vindt de rekenmodellen te gemankeerd, maar volgens andere partijen duikt de partij van Mark Rutte. Bijna nergens ter wereld gebeurt het, en in sommige landen zijn ze maar wat jaloers op deze langjarige Nederlandse traditie het doorrekenen van de verkiezingsprogramma's. Vandaag is het weer zover en net als bij eerdere edities ging er weer een hoop gesteggel aan vooraf. Ook dat is traditie. Eerst een stap terug in de tijd al sinds 1986 biedt het Centraal Planbureau CPB politieke partijen de mogelijkheid om uit te rekenen wat de plannen in hun programma nou precies kosten en of ze bijdragen aan onze welvaart. En sinds 1994 berekent het Planbureau voor de Leefomgeving PBL, en haar voorgangers, wat het effect is op ons milieu. De waarde van deze sommen is vooral dat partijen worden gedwongen om hun plannen concreet te maken, waardoor een vergelijking van programma's mogelijk wordt. Zo valt in n oogopslag te zien welke partij het meest hecht aan investeringen in onderwijs, zorg of infrastructuur. ,, Het is toch belangrijk dat er een onafhankelijke scheidsrechter is, zegt D66-Kamerlid Joost Sneller.</t>
+  </si>
+  <si>
+    <t>In Haarlem Alle politici zijn standwerkers, maar Thierry Baudet houdt dus ineens van Nederlandstalige rap; VERSLAGGEVERSCOLUMN Thierry Baudet draagt een pet en houdt van Nederlandstalige rap sommige dingen veranderen sneller en onverwachter dan de winter in de lente. Zijn Latijn is ingeruild voor de taal van rapper Duncan, die in het voorprogramma staat van alweer een event ondanks de coronaregels houdt Forum voor Democratie tweemaal daags een verkiezingsoptreden bij u in de buurt, dat bij de betreffende autoriteiten is aangemeld als demonstratie. Duncan rapt Niemand trekt z'n bek open ik doe dit voor de mensen die opstaan en het durven te zeggen er is hier veel te veel mis maar niemand wilt 't beseffen. Thierry Baudet, de ooit over z'n vleugel gevouwen politicus die de prelude van Parsifal prefereerde en een afschuw had van het moderne, nodigde rapper Duncan uit in de Tweede Kamer en zo ontstond de single Vrijheid, doorregen met samples van Thierry Baudet en zijn nieuwe bestie, Wybren van Haga, ook geen man bij wie je een passie voor hiphop vermoedt. Ze zeggen nu dat ik een gekkie ben maar deze lockdown is niet praktisch en niet effici nt.</t>
+  </si>
+  <si>
+    <t>Ondernemers in de race voor de Tweede Kamer; Er zijn maar weinig zelfstandig ondernemers die kans maken in de Tweede Kamer te komen . IJsmaker Romke de Jong D66 vertelt in het eerste deel van een serie portretten over wat hem drijft volksvertegenwoordiger te willen worden. Je moet draagvlak cre ren voor wat je wilt bereiken. Dat doet een politicus, maar dat doet een ondernemer ook. Die neemt zijn medewerkers en zijn klanten mee met waar hij naartoe wil met zijn onderneming.</t>
+  </si>
+  <si>
+    <t>Het geld van de gemeenten raakt op, en dat gaat iedereen merken; Gemeentefinanci n Slechts twaalf gemeenten staan onder curatele, maar uit 336 toezichtbrieven blijkt dat vrijwel alle gemeenten financi le problemen hebben.,Wat is het nieuws? 120 van de 355 gemeenten hebben geen sluitende begroting voor 2021 kunnen maken. Vrijwel alle andere gemeenten hebben moeten bezuinigen of de lasten moeten verhogen om tot 2024 sluitende begrotingen te maken. 12 gemeenten staan onder curatele van de provincie. Maar dat cijfer verhult volgens provinciale en gemeentelijke politici de problemen van veel lokale overheden. Provincies waarschuwen dat gemeenten extra kosten moeten maken vanwege de coronacrisis. Ook voor nieuw beleid zoals het klimaatakkoord hebben gemeenten geld nodig. Lees het volledige nieuwsbericht Derde van gemeenten in geldnood Speeltuinen, bibliotheken, zwembaden, de muziekschool en het enige theater in de regio. Johan Hamster, wethouder Financi n ChristenUnie van Stadskanaal, bezuinigt al tien jaar op alles wat los en vast zit. Ook over de eigen ambtenaren en het welzijnswerk is de kaasschaaf gegaan, vertelt hij. Alleen door de lasten voor inwoners te verzwaren, lukte het de gemeente voorzieningen open te houden. Tot dit jaar. Het ging de gemeenteraad te ver.</t>
+  </si>
+  <si>
+    <t>Vondelpark opnieuw dicht; Het Vondelpark is vanwege te grote drukte opnieuw gesloten . Dat meldt de gemeente Amsterdam op Twitter. Woensdag werd het park ontruimd, omdat er een feestende massa in het park aanwezig was. Daarop werd besloten vanaf donderdag de zij-ingangen te sluiten en de toestroom naar het park te controleren. Als dat niet voldoende effect zou hebben kon het park ook worden gesloten, meldde de gemeente. Dat is nu al drie dagen op rij gebeurd. In andere gemeenten waar het woensdag te druk was, zoals Utrecht en Tilburg, lijkt de drukte vandaag mee te vallen.</t>
+  </si>
+  <si>
+    <t>Kaag versus Wilders: U met uw zielige Zwarte Piet!; Kaag ergert zich aan de opmerking van PVV-leider Wilders over Zwarte Piet en vindt dat het belangrijk is om discriminatie hard aan te pakken. Dan begint u weer met die zielige Zwarte Piet, bijt ze hem toe. Rutte probeert ook Wilders uit zijn tent te lokken door hem te herinneren aan zijn complimenten over het werk van Kamervoorzitter Arib, die van Marokkaanse afkomst is. Wilders wil wel een nieuwe Kamervoorzitter, omdat hij wil dat zijn partijgenoot Bosma het wordt.</t>
+  </si>
+  <si>
+    <t>GL: onderzoek naar zaak-Graus; De Tweede Kamer moet onderzoek doen naar beschuldigingen dat PVV-Kamerlid Dion Graus zijn ex-vrouw heeft aangezet tot seks met zijn beveiligers. Dat zegt fractieleider Jesse Klaver van GroenLinks. Graus is 13de op de PVV-kieslijst.</t>
+  </si>
+  <si>
+    <t>Politie beëindigt actie Museumplein; Een demonstratie tegen de coronamaatregelen, gisteren op het Museumplein in Amsterdam, is door de politie ontbonden. Volgens de gemeente is een noodbevel van kracht en is het niet toegestaan om nog op het Museumplein te zijn. Ook in Nijmegen is op last van burgemeester Bruls gisterochtend een verkiezingsbijeenkomst van Forum voor Democratie be indigd wegens het overtreden van de coronaregels. Een onbekend aantal mensen heeft een bekeuring gekregen omdat zij bij het uitdelen van folders de anderhalvemeterregel negeerden. Twee mannen zijn gearresteerd wegens opruiing. De bijeenkomst van FvD op het Kelfkensbos trok ook tegendemonstranten, waardoor het te druk werd. Bruls besloot daarop de straat te laten ontruimen.</t>
+  </si>
+  <si>
+    <t>Klaver wil onderzoek naar beschuldigingen van seksueel misbruik tegen Graus ; GroenLinks-leider Jesse Klaver wil dat het bestuur van de Tweede Kamer onderzoek doet naar de beschuldigingen van seksueel misbruik aan het adres van PVV-Kamerlid Dion Graus. In het programma Buitenhof zei hij dat hij het 100 procent eens is met zijn vertrekkende fractiegenoot Kathalijne Buitenweg, die donderdag als eerste voor zo'n onderzoek pleitte. NRC schreef twee weken geleden dat Graus gedurende meerdere jaren zijn toenmalige vrouw en fractiemedewerker aanzette tot seks met zijn particuliere beveiligers. Die gedwongen seks zou ook hebben plaatsgevonden in het gebouw van de Tweede Kamer. De krant schreef het stuk op basis van een dossier dat wordt onderzocht door de Rijksrecherche. Politici wilden er niet op reageren, tot Buitenweg donderdag op Facebook het stilzwijgen doorbrak. Buitenweg zei dat met die stilte geen goed signaal werd afgegeven aan mensen die zich hierin herkennen. We kunnen seksueel geweld alleen effectief bestrijden als we heel duidelijk maken dat het onaanvaardbaar is. Signaal Klaver schaarde zich vanmiddag achter Buitenweg. Welk signaal geven wij aan de rest van Nederland als wij niet opkomen voor het slachtoffer? Het presidium moet hier echt goed naar kijken.</t>
+  </si>
+  <si>
+    <t>Opstand begin van corona-uitbraak; Opstand begin van corona-uitbraak In de gevangenis van Ter Apel ging het goed mis. Volgens de FNV had het voorkomen kunnen worden. Foto ’s ANP/HH Volgens Sander Dekker heeft de PI Ter Apel zich niet aan de interne DJI-richtlijn gehouden. Veel kritiek op beleid gevangenis Ter Apel door Koen Nederlof TER APEL Een opstand in de gevangenis van Ter Apel lijkt het begin te zijn geweest van een corona-uitbraak waarbij bijna de helft van de gedetineerden en tientallen medewerkers ziek werden. Maar dat kon alleen gebeuren door een maandenlang beleid vol fouten, zeggen betrokkenen. En nog altijd maakt het personeel zich zorgen een nieuwe uitbraak ligt volgens hen op de loer. Door de uitbraak raakten bijna 200 mensen besmet, onder wie zo ’n 50 personeelsleden. De Telegraaf ploos uit hoe het zo mis kon gaan. De sleutel ligt bij een opstand op 3 januari, zegt Roy, een medewerker die onder een andere naam zijn verhaal doet. Die opstand werd vreedzaam be indigd, onder meer door het Intern Bijstands Team IBT. Vermoedelijk waarde het coronavirus toen al rond binnen de muren van de bajes, zegt Roy.</t>
+  </si>
+  <si>
+    <t>Makers van vaccins redden de mens, niet de belegger; Cor de Horde Wie farmaceut zegt, zegt overwinsten althans, in sommige kringen. Gewapend met een betonnen octrooiwetgeving kunnen pillendraaiers vragen wat ze willen voor levensreddende medicijnen, is de teneur van de critici. Inderdaad zijn er voorbeelden die het imago van de branche geen goed hebben gedaan. Het sappigste verhaal is van Martin Shkreli, die in 2015 zijn Turing Pharmaceuticals de productierechten liet kopen van het medicijn Daraprim. Prompt ging de prijs van $ 13,50 naar $ 750 per pil. Deze actie leverde Shkreli inmiddels gedetineerd, trouwens de bijnaam meest gehate man van Amerika op. In deze tijden van pandemie zijn de kritische volgers van deze bedrijfstak opnieuw alert. Er gaan al stemmen op om het patent op de diverse vaccins tegen het coronavirus opzij te schuiven. GroenLinks breekt een lans voor dwanglicenties, waaronder de fabrikanten verplicht zijn hun kennis te delen met concurrenten. De fabrikanten met patenten misbruiken hun positie om extra winst te boeken, is de redenering. GroenLinks is niet de enige die kritisch is. Afgelopen week werden de bazen van de grote vaccinfabrikanten stevig aan de tand gevoeld in het Europees Parlement.</t>
+  </si>
+  <si>
+    <t>FvD'ers houden afstand in Oss, maar ondernemers voelen toch ongemak; Forum voor Democratie-leider Baudet hield vanochtend een verkiezingsbijeenkomst in Oss en haalde daar zoals vaker hard uit naar het coronabeleid van het kabinet. Waar het in Urk mis leek te gaan en Baudet en zijn aanhangers zich niet aan de coronaregels hielden, bleven de zo'n 150 aanwezigen nu op voldoende afstand van elkaar. Ook al zijn verkiezingsmanifestaties toegestaan, burgemeester Wobine Buijs-Glaudemans van Oss houdt toch een ongemakkelijk gevoel over aan de bijeenkomst. De uitbundigheid van de manifestatie voelt niet goed in relatie tot onze dagelijkse covid-werkelijkheid, zegt ze tegen Omroep Brabant. Het voelt als een dikke middelvinger naar de ondernemers, reageert Wouter Weeberg van het centrummanagement Oss. Het is gewoon een klein evenement en als dat dan op anderhalve meter met lijnen en kruizen toch mag, waarom mogen horecazaken dan niet de terrassen buiten hebben staan op voldoende afstand? Baudet trok al snel weer door. In de middag stond zijn verkiezingskaravaan in Den Bosch.</t>
+  </si>
+  <si>
+    <t>De laatste, over integriteit; Hilde Sennema Ze stuurde een foto van haar tuin vol krokussen, blij dat ze de lente nog meemaakt. Een tumor in haar hoofd zorgt dat ze niet meer kan lezen en dat ze er binnenkort niet meer is. Ze verontschuldigde zich bij mijn ouders dat ze mijn columns niet meer volgde. Geeft niks, antwoordde mijn moeder, wij lezen ze ook niet altijd. Dat hun vriendin zelf kiest wanneer ze sterft, is iets waar mijn ouders niet aan kunnen wennen. God geeft het leven en neemt het, geloven ze. Maar net zoals ze nu echt wel eens televisiekijken op zondag, zijn ze ook hierover milder geworden. Steeds beter weten ze de wereld buiten de kerk tegemoet te treden. Zonder van hun geloof te vallen sloten ze vriendschappen buiten de zuil, en spreken ze nu met hun humanistische vriendin over goed sterven. Dat vermogen om oude waarden en overtuigingen hun plaats te laten vinden in een nieuwe werkelijkheid is hard nodig op het moment. Je moet, kortom, integreren een woord, besefte ik laatst, dat veel mooier is dan hedendaags gebruik vaak suggereert.</t>
+  </si>
+  <si>
+    <t>Planbureau: vertrek bedrijven reëel risico bij ambitieuze klimaatplannen; De scherpere milieuregels voor de industrie waarmee politieke partijen klimaatwinst hopen te boeken, leiden tot re le risico's dat bedrijven uit Nederland vertrekken. De mondiale broeikasgasuitstoot wordt dan nauwelijks minder. Daarvoor waarschuwt het Planbureau voor de Leefomgeving PBL maandag. De kans op dit zogeheten weglekeffect is het grootst bij de klimaatvoorstellen die de SP, GroenLinks, D66 en in mindere mate de PvdA doen, zegt het PBL. Bij de ChristenUnie en het CDA speelt dit risico minder. Het PBL heeft de verkiezingsprogramma's van deze politieke partijen geanalyseerd op effecten voor klimaat en milieu. De resultaten daarvan werden maandagochtend gepresenteerd. Het PBL rekent dit door op verzoek van de partijen zelf. De grote afwezige was de VVD, die het klimaatdeel van zijn partijprogramma niet liet doorrekenen. In industrie meeste klimaatwinst Uit de analyse blijkt dat alle politieke partijen grote klimaatwinst hopen te halen in de industri le sector. De vermeden uitstoot in 2030 is daar dan ook het grootst met 16 miljoen ton CO2 in de CDA-plannen tot 32 miljoen ton CO2 in de GroenLinks-plannen.</t>
+  </si>
+  <si>
+    <t>Nu rondkomen als student? Let op je aanvullende beurs, huur, \xc3\xa9n ga stemmen; Koop groenten op de markt, shop tweedehands online zijn er genoeg lijstjes met tips om het studentenleven financieel vol te houden. Studeren kost kisten vol geld. Op de kleintjes letten is dus goed, maar welke adviezen maken nu echt het verschil? Uit onderzoek van het Centraal planbureau CPB blijkt dat een kwart van de eerstejaarsstudenten in het hoger onderwijs die recht hebben op een aanvullende beurs, er geen gebruik van maken. Zij lopen daarmee maandelijks gemiddeld 175 euro mis. DUO-woordvoerder Martijn Grimmius weet niet waarom het gebeurt Dit wordt momenteel onderzocht. Wij communiceren het nu nog beter. Zo geven we het duidelijk op onze website aan en zijn we in januari gestart om de campagne bijna achttien op middelbare scholen te verspreiden. In deze campagne leren toekomstige studenten wat studiefinanciering is en wat je financieel nodig hebt om je gewenste opleiding te gaan volgen. Daarin geven we ook aan check altijd of je recht hebt op een aanvullende beurs.</t>
+  </si>
+  <si>
+    <t>Ed Nijpels: 'VVD had klimaatplannen moeten laten doorrekenen'; VVD-coryfee en voorzitter van het Klimaatberaad Ed Nijpels vindt het een gemiste kans dat zijn partij de klimaatparagraaf van haar verkiezingsprogramma niet heeft laten doorrekenen door het PBL. Andere grote politieke partijen deden dat wel. Wij hebben al in 2013 tijdens de onderhandelingen voor het Energieakkoord besloten dat het PBL onze onafhankelijke rekenmeester is, of de uitslag ons nou bevalt of niet, zegt Nijpels tegen het FD. Soms pakt de uitslag goed uit en soms slecht. Er mag niet getwijfeld worden aan die onafhankelijkheid. Het is jammer dat de VVD het verkiezingsprogramma niet gewoon aan het PBL heeft gegeven, ook voor de kiezer is dat noodzakelijk. Het PBL rekende het Klimaatakkoord, dat in 2019 werd gesloten door politiek en maatschappelijke organisaties, al door. Voor de VVD is dat reden om af te zien van een doorrekening van de klimaatparagraaf in het eigen verkiezingsprogramma, zei premier Mark Rutte zondagavond tijdens een tv-debat van RTL Nieuws. Voor Nijpels kwam het besluit van zijn partij als een verrassing. Het was sterker geweest als ze dit wel had gedaan. Hier deed de VVD wel aan mee.</t>
+  </si>
+  <si>
+    <t>Precies een jaar sinds de eerste positieve test: zo begon de crisis; Nederland leeft zaterdag al precies een jaar met het coronavirus . Op 27 februari 2020 maakt toenmalig minister Bruno Bruins Medische Zorg bekend dat voor het eerst een besmetting is geconstateerd. De pati nt is niet heel ziek, maar uit voorzorg opgenomen in het ziekenhuis in Tilburg. Een terugblik op het begin van de crisis die daarna losbarstte. De Nederlandse overheid gaat er begin 2020 nog van uit dat SARS-CoV-2 de offici le naam van het virus helemaal niet zo gevaarlijk is. Het harde ingrijpen van de Chinese autoriteiten in Wuhan, waar de eerste grote uitbraak was, wordt in het westen vaak in verband gebracht met de autoritaire regeerstijl van de Chinese communistische partij. Niet zo heel besmettelijk Geruststellende woorden overheersen. Zo meldt het RIVM eind januari De ziekte lijkt, met wat er nu bekend is, niet zo heel besmettelijk. Halverwege februari brengt het instituut een kort filmpje naar buiten waarin het uitlegt waarom we ons geen zorgen hoeven te maken over COVID-19. Een dag voordat het nieuws over de eerste pati nt naar buiten komt, benadrukt ook de GGD dat paniek niet nodig is. Dat wordt echter pas maanden later duidelijk.</t>
+  </si>
+  <si>
+    <t>Baudet beschuldigd van kiezersbedrog door komst windmolens; De lijsttrekker van Forum voor Democratie, Thierry Baudet voelt zich niet aangesproken dat zijn partij in Brabant beschuldigd wordt van kiezersbedrog. Als we genoeg zetels hadden gehad, hadden we de boel om kunnen gooien, zegt de zelfverklaarde partijkartelbestrijder. In Noord-Brabant werd FvD de n na grootste partij en maakt er deel uit van het provinciebestuur, samen met CDA en VVD. Maar Brabander Pascal Spelier is teleurgesteld. Hij is voorzitter van de actiegroep Groen in Zicht met 600 leden en vecht windturbines in Brabant aan. We hebben Forum voor Democratie beticht van kiezersbedrog, omdat ze van windturbines, waar ze tegen zouden zijn, een groot punt hebben gemaakt in het verkiezingsprogramma. In het Brabantse coalitieakkoord zegt FvD een betrouwbare partner van het klimaatakkoord te zijn en ontkomen we niet aan het plaatsen van windmolens op Brabants grondgebied om die doelstellingen te halen. En dus komen er naar het zich laat aanzien een vijftigtal windturbines van zo'n 200 meter hoog tussen Oss en Den Bosch. Spelier Bij nader inzien blijkt de stelligheid waarmee FvD zich uitspreekt tegen windturbines vooral verkiezingsretoriek te zijn geweest.</t>
+  </si>
+  <si>
+    <t>Kabinet spreekt alsnog waardering uit voor Stay Behind-verzetsgroep; Nazaten van drie oud-leden van de organisatie uitten in 2017 in de Volkskrant hun frustratie over het gebrek aan openheid en erkenning van de regering. Het geheime werk van hun vaders had voor veel spanning en vragen gezorgd. Zij verenigden zich, verzochten om het openen van archieven en spraken in december met minister Ank Bijleveld van Defensie. Demissionair premier Mark Rutte en Bijleveld spreken nu namens het kabinet erkentelijkheid en grote waardering uit voor de oud-leden en hun nabestaanden. Gedurende de vele jaren dat zij deel uitmaakten van de Stay Behind-organisatie hebben de leden zich, vanuit een hoge mate van vaderlandsliefde, voor een deel belangeloos en uiterst consci ntieus en professioneel op hun verantwoordelijke en moeilijke taak voorbereid in het belang van ons koninkrijk. Dit heeft in meerdere gezinnen aanzienlijke spanningen teweeggebracht en beperkingen opgelegd in de familie- en persoonlijke levenssfeer. De inzet verdient de allerhoogste waardering, schrijven Bijleveld en Rutte. Het is voor het eerst dat de Nederlandse regering publiekelijk de Stay Behind-organisatie prijst. Eerste stap Onder hen Peter Vermeulen schuilnaam en Gerard Pelt, die van 1953 tot 1983 hoofd sabotage was.</t>
+  </si>
+  <si>
     <t>Gods politiek; Stevo Akkerman Zonder enige waarschuwing vooraf plaatste politiek historicus Ewout Klei vorige week een verkiezingsaffiche uit 1952 op twitter. Kiezers, stond er in grote letters, een heilloze politiek voert ons zienderogen naar de ondergang! Een pakkende leuze, afkomstig van het Gereformeerd Politiek Verbond GPV, dat 48 jaar later zou opgaan in de ChristenUnie. Het GPV deed in 1952 voor het eerst mee lijst 12, voor handhaving van gezag en vrijheid beide, kandidaat A. Zijlstra. Het was die naam waardoor ik wakker schrok. In mijn boekenkast staat het boekje Albertus Zijlstra, leven en arbeid, een biografie, geschreven door S. Akkerman, mijn grootvader. En voltooid door dr. C. Smits, omdat mijn grootvader overleed voordat het manuscript gereed was. Ik heb het nooit durven lezen, bang voor een overdosis vrijgemaaktheid. Maar nu ik er toch in begon te bladeren, was ik snel verkocht. Oh, de onwrikbare geloofsartikelen van die tijd, waarvoor men bereid was te lijden en anderen te laten lijden. De eigen taal, mij tegelijkertijd zo vertrouwd en zo vreemd Andere tijden.</t>
   </si>
   <si>
+    <t>Excuses van de koning voor slavernij zijn onafwendbaar; Slavernijverleden Ruttes weigering om excuses te maken voor de slavernijgeschiedenis, is nu al onhoudbaar, betoogt Tineke Bennema. Weigeren is niet alleen ahistorisch, maar ook hovaardig.,De grote Perzische koningen uit de Oudheid lieten zichzelf graag in stenen reli fs afbeelden, zittend op een eenvoudige houten troon met een scepter in de hand. Maar die simpele stoel stond hoog boven op verschillende lagen van mensen die met geheven armen de vloer onder hem stutten. Als je door je oogharen kijkt, zouden zij boeken kunnen zijn in een boekenkast bestaand uit planken. Wie niet beter weet, denkt goh, sympathieke geste, erkenning van het werk van zijn burgers. Maar de koningen keken neer op hun onderdanen en hun bestuur was absoluut, en vaak wreed. Tineke Bennema is historicus. De Amerikaanse vicepresident Kamala Harris maakte gebruik van dezelfde metafoor van mensen die dragen, opofferen en samen meer kracht doorgeven. Nederig stelde ze in haar overwinningsspeech dat zij op de schouders stond van haar moeder, grootmoeder en al die vrouwen voor haar die ertoe bijdroegen dat zij als eerste zwarte Amerikaanse vrouw het vicepresidentschap kon bekleden.</t>
+  </si>
+  <si>
     <t>Volgens helft FVD-kiezers is corona een complot; De helft van de Forum voor Democratie-kiezers denkt dat het coronavirus is ontwikkeld om burgers wereldwijd te onderdrukken. Dat blijkt uit onderzoek van Ipsos, in opdracht van Nieuwsuur. 51 procent denkt dat het coronavirus een biologisch wapen is dat in een laboratorium is ontwikkeld. De gemiddelde Nederlander en stemmers op andere partijen delen die opvattingen niet. Onder alle Nederlanders gelooft 11 procent dat het virus bewust is ontwikkeld en 13 procent dat het een biologisch wapen is.</t>
   </si>
   <si>
+    <t>Stemwijzer; Stemwijzer Nog twee weken tot de verkiezingen en ik verheug me enorm op de komende tijd. Het lijkt me heerlijk om even in die bubbel te kruipen waar je niets anders hoort dan het kloppende hart van onze democratie, in plaats van het amechtig gehijg van een land dat na een jaar corona op apegapen ligt. Op televisie en in de weekeindebijlages van de kranten werd bijna gretig teruggeblikt op het jaar, vanaf het moment dat toenmalig minister van Volksgezondheid Bruno Bruins het briefje in zijn hand kreeg gedrukt waarmee voor ons de crisis begon, tot aan de eensluidende conclusie van iedereen die er verstand van heeft corona is een blijvertje. We zullen ermee moeten leren leven. Maar nu even niet. Doe mij voorlopig alleen verkiezingsnieuws. De komende twee weken gaat het om de poppetjes, want dat is onze verkiezingstraditie in campagnetijd zijn de poppetjes, vreemd genoeg, belangrijker dan de inhoud. Het is eigenlijk bizar dat het vooral om de beeldvorming draait. Maar toch doe mij poppetjes in plaats van corona. oud-premier dat ooit letterlijk deed door van een skateboard te vallen. ik zweef.</t>
+  </si>
+  <si>
+    <t>'Schrikbarende' lastenverzwaring op komst voor bedrijfsleven; Bedrijven schrikken van de lastenverzwaringen die een nieuwe coalitie van welke signatuur ook in petto heeft. Uit doorrekeningen van het Centraal Planbureau CPB blijkt dat alle partijen extra uitgaven willen financieren door vermogen en winst zwaarder te belasten. Werkgeversorganisatie VNO-NCW waarschuwt dat investeringen daardoor in het gedrang komen. De PvdA gaat het verst, met bijna € 42 mrd aan lastenverzwaringen. De huidige favoriet van de kiezer, de VVD van Mark Rutte, komt ook met een extra rekening van € 3,6 mrd bovenop de € 2 mrd die al in het vat zat. Gemiddeld zou de huidige coalitie op bijna € 9 mrd lastenverzwaring uitkomen, doordat D66 en ChristenUnie de bedrijfslasten met respectievelijk € 15,4 mrd en € 11,4 mrd verhogen en het CDA met € 5,4 mrd. Schrikbarend en zorgelijk Schrikbarend, zegt VNO-NCW in een eerste reactie. En zorgelijk voor Nederland, want zo blijft er minder geld over om te investeren. Dit schaadt de creatie van nieuwe banen en investeringen in klimaat en innovatie, waarschuwen de werkgevers die al zwaar gebukt zeggen te gaan onder de coronacrisis en in te teren op reserves.</t>
+  </si>
+  <si>
+    <t>Lijsttrekkers: alle ballen op Rutte; Lijsttrekkers alle ballen op Rutte V.l.n.r . Wopke Hoekstra CDA, Mark Rutte VVD, Geert Wilders PVV, Lilian Marijnissen SP, Jesse Klaver GL en Sigrid Kaag D66 voorafgaand aan het RTL Verkiezingsdebat. Foto ANP/HH Premier doelwit concurrenten in RTL-debat Van onze parlementaire redactie Den Haag Alle ballen op Mark Rutte. Dat lijkt in aanloop naar de verkiezingen de strategie te zijn van veel politieke partijen. Ook bij het verkiezingsdebat van RTL Nieuws kozen veel lijsttrekkers zondagavond voor die koers. Meteen al bij de eerste stelling over corona en de druk op ziekenhuizen gaan PVV, SP en D66 voor de schenen van de premier. In die vliegende tackle wordt meteen CDA meegenomen. Geert Wilders PVV verwijt het zijn twee grootste concurrenten dat zij de zorg hebben verwaarloosd, net als Lilian Marijnissen SP die eveneens treurt om de staat van de zorg. Sigrid Kaag D66 gooit het over een andere boeg en wijst er fijntjes op dat VVD en CDA ooit hebben overwogen om de politiek te laten besluiten wat er moet gebeuren als coronapati nten de ic ’s overspoelen. Zenuwen Het debat van RTL Nieuws liep niet bepaald vlekkeloos. Mark Rutte Zo vreemd.</t>
+  </si>
+  <si>
+    <t>Loonkloof is nog altijd niet gedicht; Stond het dichten van de loonkloof in het onderwijs bij de vorige verkiezingen nog in geen enkel partijprogramma, nu noemen zeven partijen het expliciet. Maar grote regeringspartijen als VVD en CDA doen geen beloftes. De salarissen van leraren die lesgeven op een basisschool gelijktrekken met hun collega's die op een middelbare school werken, kost geld. Veel geld. Als het eindsalaris van een leraar op de basisschool hetzelfde wordt als van een collega op de middelbare school, kost dat de overheid een half miljard euro per jaar. Maar ga je lles gelijktrekken zelfde salarisschalen, eindejaarsuitkering en vakantiegeld loopt dat op tot een kleine 1 miljard euro per jaar. D66 en GroenLinks hebben al laten weten 900 miljoen euro per jaar te willen uittrekken om de loonkloof te dichten. Startsalaris Hoewel het startsalaris fors lager ligt, verdiende een fulltime basisschoolleraar in 2020 gemiddeld 4470 euro bruto per maand exclusief eenmalige uitkeringen en een docent op een middelbare school 5330 euro, stelt het ministerie van Onderwijs. Een gat van 860 euro per maand. Als het aan de SP ligt, gebeurt dat dit jaar w l.</t>
+  </si>
+  <si>
+    <t>Een sterkere EU graag, maar nu is dat even bijzaak; verkiezingen 2021 de campagne Het klimaat, de strijd tegen het virus, de erfenis van het Trump-tijdperk de redenen om als Europese lidstaten nauwer samen te werken, liggen voor het oprapen. De meeste partijen erkennen in hun verkiezingsprogramma's daarom volop de noodzaak van een sterkere Europese Unie. Slechts twee partijen zijn voor een nexit, de PVV en FvD JA21 streeft naar een kleinere Europese Unie. Toch spelen Europa en de Europese Unie nauwelijks een rol van betekenis in de verkiezingscampagne. Zelfs het pro-Europese D66 valt koploper VVD vooral aan op het coronabeleid. Een voor de hand liggende verklaring is dat alle aandacht en inzet voor de virusbestrijding de andere onderwerpen overvleugelt. Maar het is juist ook de pandemie die het besef afgelopen jaar deed doordringen dat Europa hard moet werken aan haar strategische autonomie, bijvoorbeeld door zelfvoorzienend te zijn in geneesmiddelen en vaccins. De bikkelharde strijd om beschermingsmiddelen als mondkapjes van afgelopen voorjaar is nog niet vergeten. De pandemie is bovendien de eerste mondiale crisis zonder duidelijke leiding van de Verenigde Staten, terwijl China die rol nadrukkelijk wel zoekt. Dat komt deels door de coronacrisis.</t>
+  </si>
+  <si>
+    <t>'Draagvlak creëren voor wat je wilt bereiken'; Romke de Jong, D66, plaats 24, derde generatie ijsmaker in Gorredijk Foto Marijn Fidder voor het Financieele Dagblad Als ondernemer beslis je vandaag iets en morgen gebeurt het. Als politicus kun je jaren ergens mee bezig zijn voordat er iets gebeurt, en soms gebeurt er zelfs helemaal niets. Maar toch zijn de eigenschappen die je nodig hebt, niet echt anders. Je moet draagvlak cre ren voor wat je wilt bereiken. Dat doet een politicus, maar dat doet een ondernemer ook. Die neemt zijn medewerkers en zijn klanten mee met waar hij naartoe wil met zijn onderneming. De komende regeerperiode staan we echt op een splitsing voor waar we met de Nederlandse economie naartoe gaan. Ik wil dat we de keuze maken voor echt duurzaam ondernemen. We kunnen als Nederland vooroplopen met circulair, duurzaam en maatschappelijk verantwoord ondernemen en daar een unique sellingpoint van maken, ook voor onze export. Daar is een markt voor, omdat het tegenwoordig niet meer alleen om de laagste prijs draait. Onze ijsfabriek is de meest energiezuinige van Nederland. We zijn niet klimaatneutraal, maar klimaatnegatief.</t>
+  </si>
+  <si>
+    <t>Ziekenhuisbezetting daalt met 55; De bezetting in de ziekenhuizen is de afgelopen dag afgenomen . Er lagen in totaal 1809 coronapati nten in het ziekenhuis, van wie 518 op de IC. Gisteren waren die aantallen 1864 en 525. In de afgelopen dag werden er ook 4993 nieuwe positieve coronagevallen gemeld bij het RIVM. Het gemiddeld aantal besmettingen per dag in de zeven voorgaande dagen stijgt daarmee van 4547 naar 4605.</t>
+  </si>
+  <si>
+    <t>CPB-doorrekening: lasten bedrijven en jonge generaties fors omhoog; Alle partijen willen de lasten van bedrijven de komende kabinetsperiode verhogen om extra uitgaven mogelijk te maken. De mate waarin partijen dat doen, verschilt aanzienlijk. De PvdA wil de lasten voor bedrijven met bijna € 42 mrd verhogen. Bij de VVD stijgen ze met € 3,6 mrd. Dat blijkt uit een doorrekening van de verkiezingsprogramma's die het Centraal Planbureau CPB, maandag heeft gepubliceerd. Onder het huidige beleid zouden de lasten van bedrijven ook al stijgen, maar met slechts € 1,9 mrd. Meer overheid Alle partijen willen de komende jaren de overheidsuitgaven structureel fors verhogen. Na correctie voor de incidentele extra corona-uitgaven dit jaar, gaan ze bij de zuinigste partijen VVD en SGP met ruim € 14 mrd respectievelijk € 10 mrd omhoog en bij de gulste partijen SP en PvdA met € 49 mrd en € 45 mrd. Populaire bestemmingen voor extra geld zijn zorg, onderwijs en sociale zekerheid. Boven op de structurele stijging van de zorguitgaven komen bij veel partijen extra loonsverhogingen. Defensie, openbaar bestuur en veiligheid komen er bij de meeste partijen bekaaid vanaf.</t>
+  </si>
+  <si>
+    <t>Lezersbrieven; EEN JAAR CORONA | Ik hoop dat we het nu niet langer afdoen als griep Een jaar verder... AD 28-2. Terwijl de tranen lopen lees ik dit mooi geschreven, aangrijpende artikel en wens de familie veel sterkte. Ik hoop dat de heren Baudet, Engel en volgelingen, mijns inziens meelopers zonder verstand, dit lezen en deze vreselijke ziekte niet langer afdoen als een griepje. Een belediging aan de nabestaanden. Ineke Pappers-Roodenrijs, Vlaardingen. EEN JAAR CORONA II | Ik denk aan de woorden van directeur Marcel Levi Wat een indrukwekkend overzicht over n jaar corona. En wat fijn om de mening van ethicus Theo Boer te lezen over de beeldvorming over ouderen. Hij zegt terecht Er is een merkwaardige focus dat als je een bepaalde leeftijd hebt, je er goed aan doet om eruit te stappen. Ik ben met hem eens dat het alarmerend is dat dit zo vaak geventileerd wordt en moet denken aan de woorden van de Nederlandse ziekenhuisdirecteur in Londen, Marcel Levi Een beschaafde samenleving kenmerkt zich door solidariteit. Diane Thomson, Strijensas.</t>
+  </si>
+  <si>
+    <t>Verkiezingsdebat trapt af met corona; Moet de reguliere zorg weer voorrang krijgen over de coronazorg, ook al zou dat leiden tot meer coronadoden? Met die ethische vraag trapte het RTL-verkiezingsdebat zondag af. Na een jaar pandemie dreigen nog steeds overvolle ic's, terwijl steeds meer stemmen opgaan om de coronarestricties te versoepelen. Maar die stelling leverde weinig vuurwerk op oppositie en coalitiepartners waren het met elkaar eens de politiek mag niet op de stoel van de arts gaan zitten. Veel ongemakkelijker waren de een-op-een ontmoetingen met kiezers. Zo moest D66-lijsttrekker Sigrid Kaag aan een melkveehouder uitleggen waarom de veestapel volgens haar partij moet worden gehalveerd, terwijl CDA'er Wopke Hoekstra een welhaast failliete caf baas en zijn vrouw geen zekerheid kon geven over hun financi le toekomst. Premier Mark Rutte kwam tegenover een gedupeerde ouder in de toeslagenaffaire te staan. Traditioneel geldt het eerste tv-debat tussen de lijsttrekkers van de grote partijen als het startsein voor kiezers om te gaan nadenken op wie zij hun stem willen uitbrengen, vaak met grote electorale verschuivingen tot gevolg.</t>
+  </si>
+  <si>
+    <t>Verkiezingsdebat: Jetten zegt niet op wie hij stemt; D66-fractieleider Rob Jetten gaat stemmen op een kandidaat die heel creatief campagne heeft gevoerd . Dat is een oproep aan alle D66-kandidaten dat ze mijn stem nog kunnen winnen. Hij zei dit in het verkiezingsdebat van WNL in antwoord op de vraag van presentator Rick Nieman of hij op zichzelf of op lijsttrekker Sigrid Kaag gaat stemmen. Nieman zei pas op, dat zei Ruud Lubbers ook. Hij verwees daarmee naar de uitspraak van oud-premier Lubbers in de verkiezingscampagne van 1994 dat hij niet op CDA-lijsttrekker Brinkman ging stemmen, een moment dat de leiderschapscrisis in het CDA scherp aan het licht bracht. Jetten vond die vergelijking niet van toepassing. Hij zei er alle vertrouwen in te hebben dat Kaag op eigen kracht voldoende stemmen zal halen. Wij zien deze campagne ook echt als teamwork. Bij WNL op Zondag was vanochtend het eerste tv-verkiezingsdebat. De nummers 2 van de VVD Van Ark, de PVV Fleur Agema, het CDA Pieter Omtzigt, D66 Rob Jetten en de SP Renske Leijten en de nummer 3 van de PvdA Henk Nijboer traden met elkaar in het strijdperk. Iedere partij bracht een stelling in en mocht die als eerste een minuut verdedigen.</t>
+  </si>
+  <si>
+    <t>D66 pleit voor vaccinatiebewijs; D66-lijsttrekker Sigrid Kaag wil mensen die gevaccineerd zijn meer toegang geven tot het openbare leven . Daarvoor moet een vaccinatiebewijs worden ingevoerd, vindt de partij. Dezelfde vrijheden als voor inge nte mensen moeten ook gelden voor mensen die een negatieve coronatestuitslag kunnen laten zien. Er lijkt een taboe te liggen op het woord vaccinatiebewijs. Maar toch is dat precies wat we nodig zullen hebben, zei Kaag in een toespraak op het online partijcongres. Uiteraard met de garantie van tijdelijkheid, privacyvoorwaarden en het liefst op Europees niveau. D66 vindt het niet terecht dat gevaccineerde mensen moeten wachten met leven tot iedereen is gevaccineerd. Laten we als Nederland een voorbeeld nemen aan Isra l, waar gevaccineerde mensen weer toegang krijgen tot het maatschappelijk leven, zegt Kaag. Tussen de Europese landen lopen al gesprekken over een vaccinatiepaspoort. Demissionair premier Rutte heeft namens Nederland gezegd op voorhand geen principi le bezwaren te hebben. Wel moet kritisch gekeken worden naar de uitvoering, zei hij. Ook Duitsland en Oostenrijk zijn voorstander. De Gezondheidsraad heeft in Nederland geadviseerd erg terughoudend te zijn met een vaccinatiebewijs.</t>
+  </si>
+  <si>
+    <t>Misstanden in Qatar al jaren aan de gang; Misstanden in Qatar al jaren aan de gang Optreden tegen Greenpeace . foto anp/hh Vanaf 2016 wisten we al over de arbeidsomstandigheden in Qatar en nu, drie weken voor de verkiezingen, zijn er politici die wakker worden en ons gaan vertellen dat we de wereldkampioenschappen moeten boycotten. Hoe geloofwaardig zijn ze nog, terwijl iedere dag een groot vrachtvliegtuig uit Qatar over mijn huis vliegt? Frans Bohlander Voetbalwereld 6500 doden tijdens de bouw van voetbalstadions in Qatar, tot nu toe. En Nederland overweegt nog steeds om daar te gaan voetballen. Bespottelijk en onbestaanbaar. Ook Johan Derksen vindt dat Nederland moet afhaken. Ronald de Boer vindt dat weer overdreven en nuanceert dat door te zeggen Het zijn er iets minder. Ok, het waren er maar 5000. Ronduit schandalig. Rob de Jonge Westervoort Vergoeding Hugo de Jonge smeekt de horeca om geduld en de terrassen niet open te gooien. Tel. 27/2. Dat is makkelijk te regelen, als de horeca een eerlijke beloning krijgt ter compensatie, iets waar de horeca al tijden om smeekt! R. den Hartog, Utrecht Restaurant We worden overspoeld met berichten dat de terrassen hoe dan ook open moeten.</t>
+  </si>
+  <si>
+    <t>De uitzending van 27 februari: Verkiezingsspecial: in gesprek met Thierry Baudet / Corona-uitbraak onder kleuters; In gesprek met Thierry Baudet Saai is het nooit, als het over Forum voor Democratie gaat. De partij kwam met donderend geraas het politieke bestel binnen, behaalde een historische overwinning bij de Provinciale Statenverkiezingen in 2019, maar nadien gebeurde er van alles. In onze serie interviews met de 13 belangrijkste lijsttrekkers kijken we hoe de partij ervoor staat, ruim twee weken voor de verkiezingen. Te gast vanavond Thierry Baudet. Corona-uitbraak onder kleuters Maandag beginnen de basisscholen weer in het midden en noorden van het land, met alle speciale coronaregels die daarbij horen. Maar een opvallende uitbraak op een Amsterdamse basisschool, vorige week, maakt schoolleiders en leraren toch bezorgd. We spreken de Onderwijsbond.</t>
+  </si>
+  <si>
+    <t>Manifestatie FvD afgebroken, aanhangers bekeurd voor flyeren zonder afstand; In Nijmegen is een campagnebijeenkomst van Forum voor Democratie met Thierry Baudet eerder be indigd . Dat gebeurde op last van burgemeester Bruls, meldt Omroep Gelderland. Het was op de bijeenkomst te druk, ook omdat er tegendemonstranten op afkwamen. De gemeente kwam daarop met een noodbevel. De politie heeft ook een onbekend aantal mensen bekeurd omdat zij folders uitdeelden zonder daarbij 1,5 meter afstand te houden. Flyeren mag volgens de politie alleen als de folders niet van de ene hand in de andere worden gegeven. Twee mannen zijn opgepakt wegens opruiing.</t>
+  </si>
+  <si>
+    <t>Ondernemers in de race voor de Tweede Kamer; Ze zijn zo ongeveer op de vingers van n hand te tellen, zelfstandige ondernemers die kans maken om in de Tweede Kamer te komen. Wat drijft hen om volksvertegenwoordiger te willen worden? Vier ondernemers vertellen. Je moet draagvlak cre ren voor wat je wilt bereiken Romke de Jong D66, plaats 24 Derde generatie ijsmaker in Gorredijk Als ondernemer beslis je vandaag iets en morgen gebeurt het. Als politicus kun je jaren ergens mee bezig zijn voordat er iets gebeurt, en soms gebeurt er zelfs helemaal niets. Maar toch zijn de eigenschappen die je nodig hebt, niet echt anders. Je moet draagvlak cre ren voor wat je wilt bereiken. Dat doet een politicus maar dat doet een ondernemer ook. Die neemt zijn medewerkers en zijn klanten mee met waar hij naartoe wil met zijn onderneming. De komende regeerperiode staan we echt op een splitsing voor waar we met de Nederlandse economie naartoe gaan. Ik wil dat we de keuze maken voor echt duurzaam ondernemen. We kunnen als Nederland vooroplopen met circulair, duurzaam en maatschappelijk verantwoord ondernemen en daar een unique sellingpoint van maken.</t>
+  </si>
+  <si>
+    <t>Eindhoven: kom niet naar de koning op 27 april; De koning bezoekt dit jaar op zijn verjaardag Eindhoven , in het kader van Koningsdag . De gemeente roept mensen echter op niet datzelfde te doen. Dit jaar vieren we het grootste Oranjefeest thuis, zegt de gemeente. Anders dan anders, maar wel live, interactief en veelzijdig. Ontdek wat Eindhoven te bieden heeft en vier het feest met ons mee! Eind maart wordt het volledige programma bekendgemaakt. Vorig jaar zou Koningsdag in Maastricht gevierd worden, maar dat ging vanwege de coronapandemie niet door. Ook koning Willem-Alexander bleef toen thuis. De Limburgse stad wilde niet dit jaar alsnog Koningsdag organiseren, maar wacht liever op een jaar waarin er geen beperkingen meer gelden.</t>
+  </si>
+  <si>
+    <t>Niet een lijsttrekker, maar een kiezer brengt Mark Rutte bij RTL in het nauw; Eerste TV-Debat Het format van het verkiezingsdebat op RTL4 ontregelde premier Mark Rutte VVD, die normaliter sto cijns debatten voert.,Een tv-format kan een beslissende rol spelen in een lijsttrekkersdebat. Vooral demissionair premier Mark Rutte VVD zal die les geleerd hebben. De lijsttrekkers naast Rutte ook Geert Wilders PVV, Wopke Hoekstra CDA, Sigrid Kaag D66 , Lilian Marijnissen SP en Jesse Klaver GroenLinks moesten zondagavond in het RTL-debat niet alleen met elkaar in debat, maar ook met een kiezer. De lijsttrekkers kenden het onderwerp niet in het geval van Rutte was dat de Toeslagenaffaire. Ook wisten ze niet wie ze tegenover zich zouden krijgen. Rutte had tot dan toe een vrij eenvoudig debat. Hij kent zijn tegenstanders, debatteert zich behendig onder hun beschuldigingen uit, en gaat onbewogen door. Maar het gesprek met de kiezer had een totaal ander effect. Rutte werd tegenover Kristie Rongen geplaatst. Zij is gedupeerde in de Toeslagenaffaire, die had geleid tot de val van het derde kabinet-Rutte. Wij zaten als ratten in de val. U bent daar ook schuldig aan, zei ze. U niet.</t>
+  </si>
+  <si>
+    <t>Makers van vaccins redden de mens, niet de belegger; Wie farmaceut zegt , zegt overwinsten althans , in sommige kringen . Gewapend met een betonnen octrooiwetgeving kunnen pillendraaiers vragen wat ze willen voor levensreddende medicijnen, is de teneur van de critici. Inderdaad zijn er voorbeelden die het imago van de branche geen goed hebben gedaan. Het sappigste verhaal is van Martin Shkreli, die in 2015 zijn Turing Pharmaceuticals de productierechten liet kopen van het medicijn Daraprim. Prompt ging de prijs van $ 13,50 naar $ 750 per pil. Deze actie leverde Shkreli inmiddels gedetineerd, trouwens de bijnaam meest gehate man van Amerika op. GroenLinks In deze tijden van pandemie zijn de kritische volgers van deze bedrijfstak opnieuw alert. Er gaan al stemmen op om het patent op de diverse vaccins tegen het coronavirus opzij te schuiven. GroenLinks breekt een lans voor dwanglicenties, waaronder de fabrikanten verplicht zijn hun kennis te delen met concurrenten. De fabrikanten met patenten misbruiken hun positie om extra winst te boeken, is de redenering. GroenLinks is niet de enige die kritisch is. Afgelopen week werden de bazen van de grote vaccinfabrikanten stevig aan de tand gevoeld in het Europees Parlement. AstraZeneca minus 3%.</t>
+  </si>
+  <si>
+    <t>Scholen vragen zich af: waar blijven de sneltests?; Met de opening van de basisscholen drie weken geleden zouden ook sneltests beschikbaar komen voor de veiligheid van het personeel. Maar waar blijven ze? CNV Onderwijs vindt dat scholen aan het lijntje worden gehouden. Vandaag beginnen pilots op basisscholen met sneltests, maar het gaat nog maanden duren voor de resultaten daarvan beschikbaar zijn. In december werden deze tests ons al beloofd, zegt een woordvoerder van de vakbond. In dit tempo wordt het niks. De tijd tikt door. Zeker nu vorige week bekend werd dat op basisschool Oostelijke Eilanden in Amsterdam 40 leerlingen en 12 medewerkers besmet raakten, en dat het hierbij vooral kleuters en hun leerkrachten betrof, neemt de onrust op basisscholen toe. Kleuters werden als de meest risicoloze leerlingen beschouwd als het gaat om coronabesmettingen. Zij mochten aanvankelijk zelfs met snottebellen naar school komen. Of de Amsterdamse leerlingen besmet zijn met de meer besmettelijke Britse variant is nog niet bekend. Behalve CNV Onderwijs vinden ook lerarenvakbond AOb en de Algemene Vereniging Schoolleiders AVS dat er nu echt tempo gemaakt moet worden met gewone en kindvriendelijke sneltesten, maar ook met vaccinatie van leerkrachten.</t>
+  </si>
+  <si>
+    <t>Meeste partijen maken vliegen paar honderd miljoen euro duurder; Vliegen moet duurder worden, vinden de meeste politieke partijen die hun verkiezingsprogramma hebben laten doorrekenen door het Centraal Planbureau CPB. Een handvol partijen wil via de autobelastingen minder of groener rijden stimuleren. De plannen om vliegen duurder te maken vari ren van een verdubbeling van de vliegbelasting bij het CDA, tot een combinatie van een gedifferentieerde vliegtaks en een CO₂-heffing voor luchtvaartmaatschappijen bij D66. Alleen VVD en 50Plus laten de luchtvaartindustrie helemaal met rust. Volgens de doorrekening van het CPB draait vooral het bedrijfsleven op voor het duurdere vliegticket. Korte en lange vluchten Sinds 1 januari betalen passagiers die vertrekken vanaf een Nederlandse luchthaven een heffing van € 7,85. De verdubbeling die het CDA voorstelt leidt voor gezinnen tot een verwaarloosbare lastenverzwaring, aldus het CPB. Bedrijven zijn per jaar € 100 mln extra kwijt aan vliegen. D66 wil het tarief voor korte vluchten verhogen naar € 20 en voor lange vluchten naar € 15. Ook vinden de democraten dat overstappende passagiers niet moeten worden uitgezonderd van de vliegtaks. Bescheiden begin Zo'n gedragseffect brengt het planbureau wel in kaart voor de kilometerheffing.</t>
+  </si>
+  <si>
+    <t>Stelling 3: Om de klimaatdoelen te halen moet Nederland nieuwe kerncentrales bouwen; Het gaat nu over het klimaat . Rutte zegt stellig We hebben echt kernenergie nodig. Want de wind waait niet altijd, de zon schijnt niet altijd en de VVD wil niet afhankelijk zijn van het gas van Poetin in Rusland. Rutte denkt aan een kerncentrale in Groningen.</t>
+  </si>
+  <si>
+    <t>Recht op reparatie van apparatuur komt steeds dichterbij; REPAIR CAF S Jeroen Groot en Caitlin Stooker Philip Leenman 68 wijst naar een Senseo. Het koffiezetapparaat van Philips staat in half gedemonteerde toestand op de werkbank in zijn werkkamer in Naarden. Voor het ongeoefende oog valt er weinig te zien aan het binnenste van het apparaat, maar Leenman weet precies wat er mis is. In dit geval betreft het de boiler om het water op temperatuur te brengen. Als het verwarmingselement wordt aangezet terwijl er geen water in zit, gaat het binnen zes seconden stuk, zegt de gepensioneerde ICT'er. Een kapot huishoudelijk apparaat belandt vaak bij het afval, omdat de kosten van reparatie door een professionele reparateur niet in verhouding staan tot de prijs van een nieuwe. Zonde, stelt het al in 2009 opgerichte Repair Caf. Hier zetten dan ook duizenden vrijwilligers zich in om huis-tuin-en-keukenspullen te repareren. Onder wie Leenman. Normaliter komen consumenten langs bij de Repair Caf s, waar vrijwilligers de kapotte spullen beoordelen en indien mogelijk ter plaatse repareren. Maar vanwege het coronavirus werken ook de reparateurs vanuit huis. Inmiddels zijn er in Nederland meer dan 500 Repair Caf s. Caf s, in 36 landen.</t>
+  </si>
+  <si>
     <t>Van eerste besmetting tot avondklok: het coronajaar in foto&amp;#39;s; De impact die het coronavirus heeft op de Nederlandse maatschappij is het afgelopen jaar uitgebreid in beeld gebracht. NU.nl maakte een chronologische selectie van opvallende en typerende beelden. Op 27 februari 2020 wordt de eerste offici le Nederlandse coronabesmetting vastgesteld. Het virus werd geconstateerd bij een 56-jarige man uit het Brabantse Loon op Zand. De dag erna wordt de pers te woord gestaan in het stadhuis van Tilburg. Op 9 maart 2020 kondigt premier Mark Rutte aan dat handen schudden tijdelijk tot het verleden behoort, iets wat hij zelf per ongeluk na de persconferentie doet. Daarna volgen de maatregelen om het coronavirus te bestrijden in een sneltreinvaart. Zo wordt thuiswerken de norm. Ondertussen wordt het beeld van ziekenhuismedewerkers in beschermende kleding steeds bekender. Omdat de druk op Brabantse ziekenhuizen te groot wordt, worden coronapati nten naar ziekenhuizen buiten de regio verplaatst. Vanwege de enorme druk waar ziekenhuispersoneel mee te maken krijgt, klapt Nederland voor de zorg. Op 18 maart wordt minister van Medische Zorg Bruno Bruins onwel in de Tweede Kamer. Ondertussen komen steden met steeds slimmere maatregelen om de coronaregels te stimuleren.</t>
   </si>
   <si>
+    <t>Esther Ouwehand had niets met de plek waar ze opgroeide; De bouw is typisch eind jaren 70, toen in heel Nederland buiten de oude woonkernen nieuwe wijken verschenen nog ver voordat in 1991 het begrip Vinex zou ontstaan. Rijtjeswoningen op vaak doodlopende woonerven aan smalle, slingerende straten waar de auto's niet te hard kunnen rijden. Huizen in verschillende stijlen, per wijk veranderend. Groene parken en perken, met een beetje geluk wat water. Een school, een winkelcentrum. En dan de straatnamen. Esther Ouwehand kwam met haar broer, zus en ouders terecht in een buurt waar de straten Mars, Pallas, Uranus en Neptunus heten. In de volgende buurt luisteren ze naar de namen Pollux, Castor en Orion. Iets meer richting zee ligt een wijk waar de mensen wonen aan Weegschaal, Boogschutter en Waterman. En bij het sportpark heten ze Krab, Kreeft en Koraal. Welkom in Rijnsoever, ofwel Katwijk-Noord, de wijk die naast Katwijk aan Zee en Katwijk aan de Rijn in de Hoornespolder vanaf die jaren 70 de derde grote woonkern van het Zuid-Hollandse dorp zou worden. Behalve in Katwijk.</t>
+  </si>
+  <si>
+    <t>Een vraag van een slachtoffer van de toeslagenaffaire aan VVD-lijsttrekker en demissionair premier Rutte; Hoe wil Rutte het vertrouwen terugwinnen ? vraagt Kristie. U heeft mij in de steek gelaten. Rutte zegt begrip te hebben voor de situatie waar de ouders in terechtgekomen zijn. Hij noemt het een schandvlek en een debacle. Maar hij vraagt toch om vertrouwen dat hij de problemen gaat oplossen. Jullie zijn geen fraudeurs, dat wil ik hier gezegd hebben, zegt Rutte. Kristie zegt dat zij geen goede rechtshulp heeft gekregen omdat daarop is bezuinigd door het kabinet. Rutte zegt dat die zaken geen verband houden. De ouders is onrecht aangedaan, zegt hij. Jullie krijgen alle advocatenhulp die er nodig is, is zijn toezegging.</t>
+  </si>
+  <si>
+    <t>Het RTL-debat zal hoogstens herinnerd worden om het ‘ik stop u even’ van Kristie Rongen ; Zap In het verkiezingsdebat van RTL gaven de lijsttrekkers vooral vooraf ingestudeerde antwoorden. Het werd pas spannend toen een slachtoffer van de Toeslagenaffaire de premier ondervroeg. , Als een verkiezingsdebat, zoals de kenners zeggen, in de analyse wordt gewonnen, was het rechtsleunende gezelschap waarmee Eva Jinek het RTL-debat nabeschouwde misschien een stemadvies. Er zaten een journalist van De Telegraaf, een goede vriend van de lijsttrekker van de VVD, een van de organisatoren van het debat en na een tijdje kwam de lijsttrekker van het CDA binnen. Jort Kelder het wordt eentonig dat programma ’s altijd bij hem uitkomen als ze een vriend van Mark Rutte aan tafel willen zei vooraf dat Rutte kwetsbaar was en alleen maar kon verliezen. Na afloop concludeerde hij dat Rutte overeind was gebleven en ook Wouter de Winther had gezien dat Rutte alle ballen uit het doel had gehouden. Ik weet niet of Kristie Rongen dat ook zo zag. Zij was een van de zes gewone burgers die door RTL waren uitgenodigd om de lijsttrekkers een vraag te stellen.</t>
+  </si>
+  <si>
+    <t>Eigenaar vraagt SP-leider om met zzp'ers te kunnen blijven werken; Een eigenaar die games ontwerpt wil graag met zzp'ers blijven werken en is bang dat de SP dit soort contracten helemaal wil verbannen. Marijnissen wil dat helemaal niet, zegt ze. Haar partij komt volgens haar vooral op voor werknemers die gedwongen worden om als zzp'er te werken, zoals koeriers van eten en pakketjes.</t>
+  </si>
+  <si>
+    <t>Na de doorrekeningen is iedere partij klimaatkampioen; Een juichtweet van D66'er Tjeerd de Groot maandagochtend. D66 meest natuurvriendelijke verkiezingsprogramma pakt stikstofcrisis het beste aan!, aldus het Tweede Kamerlid dat najaar 2019 nog een boerenopstand had ontketend met zijn oproep de veestapel te halveren. Om in een volgende zin direct een snoeiharde recensie te geven van de prestaties van twee voormalige coalitiepartijen. CDA/ChristenUnie onvoldoende. Dat kon het CDA natuurlijk niet over zijn kant laten gaan. Een paar uur later twitterde CDA-Kamerlid Jaco Geurts 1 koe minder in Nederland is 4 koeien in Afrika erbij. Geurts haalde het Planbureau voor de Leefomgeving PBL aan, dat zou waarschuwen voor zogeheten weglekeffecten. Een krimp van de veestapel in Nederland zou elders leiden tot een groei van het aantal dieren. Daarom, zei Geurts, is het veel verstandiger om het stikstofprobleem op te lossen met technische innovaties. Selectief winkelen Maandag presenteerden het Centraal Planbureau CPB en het PBL doorrekeningen van de verkiezingsprogramma's. Het CPB keek naar macro-economische effecten van de plannen, het PBL naar gevolgen voor klimaat en natuur. Over de eigen plannen niets dan lof, terwijl van de electorale opponenten vooral de minpunten werden benoemd.</t>
+  </si>
+  <si>
+    <t>Kernenergie in de verkiezingsprogramma's ; Even de verkiezingsprogramma's erop nageslagen . Hier de standpunten op een rij VVD Nakomen van internationale klimaatafspraken uit het Verdrag van Parijs, voor het bereiken van deze doelen geen technieken uitsluiten en kernenergie dus ook niet. PVV Kerncentrales bouwen is een goede oplossing. Thoriumcentrales zijn een optie voor de toekomst. CDA Kernenergie na 2030 is serieuze optie. D66 Kernenergie, op voorwaarde dat het duurzaam, betrouwbaar en betaalbaar kan. GL Kernenergie is geen optie. SP Kernenergie is niet veilig en schoon. De kolencentrales worden gesloten, net als de kerncentrale bij Borssele.</t>
+  </si>
+  <si>
+    <t>Stelling 4: de rekening van de coronacrisis moet bij de best verdienende Nederlanders terechtkomen; VVD-lijsttrekker Rutte zou het niet raar vinden als de rekening ook bij de hogere inkomens terechtkomt. SP-lijsttrekker Marijnissen vindt dat de inkomensongelijkheid in Nederland veel te groot is geworden. Dat vraagt om een ander belastingstelsel, zegt zij. Rutte is het er niet mee eens dat Hoekstra van het CDA de rekening ook bij de grote supermarkten wil leggen. Ik snap het wel, want zij hebben geprofiteerd van de crisis, maar ze zorgen ook voor veel banen. Hoekstra valt Rutte aan op het financi le beleid. Marijnissen noemt dat een vertoning. Dat juist deze twee consultants van het bedrijfsleven elkaar de maat nemen, zegt zij. Uiteindelijk is het een discussie tussen twee rechtse heren. Als we het aan hen overlaten komt het niet goed. GroenLinks-leider Klaver begrijpt het ook niet. In het verkiezingsprogramma van de VVD staat iets heel anders, zegt hij. Wat is nu waar? In ieder geval zijn Rutte en Hoekstra het met de twee linkse lijsttrekkers eens dat het minimumloon omhoog moet.</t>
+  </si>
+  <si>
+    <t>Laatste coronanieuws: 4729 nieuwe besmettingen, hoger dan weekgemiddelde; 18.50 uur | Aantal nieuwe coronabesmettingen licht gedaald Tot 10.00 uur zondagochtend zijn bij het RIVM 4729 nieuwe coronabesmettingen gemeld. Dat zijn er 237 minder dan gisteren. Wel is het aantal nieuwe coronabesmettingen hoger dan het gemiddelde van vorige week. Toen werden per dag gemiddeld 4605 mensen positief getest, aldus het RIVM. In de ziekenhuizen is het aantal mensen met corona zondag toegenomen, zo meldt het Landelijk Co rdinatiecentrum Pati nten Spreiding 1848 pati nten tegen 1809 op zaterdag. Van hen lagen er zondag 526 op de intensive care tegen 518 op zaterdag. Verder maakte het RIVM bekend dat er 21 overleden covid-patiënten zijn gemeld tegen 41 op zaterdag. Over de afgelopen zeven dagen telde het RIVM gemiddeld vijftig coronadoden per dag, tegen gemiddeld 58 doden per dag een week eerder. Dat cijfer wordt volgens het RIVM mede bepaald door het aantal besmettingen in verpleeghuizen. Er zijn nu 417 verpleeghuizen waar de afgelopen twee weken minimaal n coronabesmetting is geregistreerd tegen 468 een week geleden. 18.45 uur | Opnieuw lockdown in Braziliaanse hoofdstad Zo mag er vanaf acht uur 's avonds geen alcohol meer worden verkocht. 16.</t>
+  </si>
+  <si>
     <t>Moet er meer in de zorg geïnvesteerd worden?; Hoekstra CDA zegt dat er meer ge nvesteerd moet worden in de behandeling van kanker, obesitas en andere ziekten waar veel mensen aan lijden. Marijnissen van de SP vindt het schaamteloos dat de lijsttrekkers van de huidige regeringspartijen zeggen dat er meer geld in de zorg moet worden ge nvesteerd. Zij stemden steeds tegen, zegt zij. GroenLinks-lijsttrekker Klaver wil niet in harde woorden over dit onderwerp debatteren. We hebben elkaar juist nodig, zegt hij. De lijsttrekkers zijn het in ieder geval eens over de invloed die artsen moeten hebben bij dit vraagstuk.</t>
   </si>
   <si>
-    <t>Laatste coronanieuws: 4729 nieuwe besmettingen, hoger dan weekgemiddelde; 18.50 uur | Aantal nieuwe coronabesmettingen licht gedaald Tot 10.00 uur zondagochtend zijn bij het RIVM 4729 nieuwe coronabesmettingen gemeld. Dat zijn er 237 minder dan gisteren. Wel is het aantal nieuwe coronabesmettingen hoger dan het gemiddelde van vorige week. Toen werden per dag gemiddeld 4605 mensen positief getest, aldus het RIVM. In de ziekenhuizen is het aantal mensen met corona zondag toegenomen, zo meldt het Landelijk Co rdinatiecentrum Pati nten Spreiding 1848 pati nten tegen 1809 op zaterdag. Van hen lagen er zondag 526 op de intensive care tegen 518 op zaterdag. Verder maakte het RIVM bekend dat er 21 overleden covid-patiënten zijn gemeld tegen 41 op zaterdag. Over de afgelopen zeven dagen telde het RIVM gemiddeld vijftig coronadoden per dag, tegen gemiddeld 58 doden per dag een week eerder. Dat cijfer wordt volgens het RIVM mede bepaald door het aantal besmettingen in verpleeghuizen. Er zijn nu 417 verpleeghuizen waar de afgelopen twee weken minimaal n coronabesmetting is geregistreerd tegen 468 een week geleden. 18.45 uur | Opnieuw lockdown in Braziliaanse hoofdstad Zo mag er vanaf acht uur 's avonds geen alcohol meer worden verkocht. 16.</t>
+    <t>De uitzending van 28 februari: Leerachterstanden / Trump de 'onbetwiste leider' / Verkiezingsdebat; De worsteling met leerachterstanden Morgen gaan ook in het midden en het noorden van het land de basisscholen weer open. De scholen krijgen 180.000 euro van het kabinet, om de kinderen te helpen bij het inlopen van hun achterstand, na al die maanden thuisonderwijs. Nieuwsuur kijkt op twee zeer verschillende scholen hoe de leerlingen er voor staan. Trump nog steeds de onbetwiste leider Trump 2024-petjes, America First-mondkapjes en zelfs een gouden standbeeld van Donald Trump. Het is allemaal te zien bij de Conservatieve Politieke Actie Conferentie CPAC het jaarlijkse feestje voor conservatief Amerika. Het evenement in Florida ademt de idee n van voormalig president Donald Trump. We zijn aanwezig en spreken met enkele prominente Trump-aanhangers. Het tweede grote verkiezingsdebat De partijleiders van de VVD, PVV, CDA, D66, SP en GroenLinks staan vanavond tegenover elkaar in het RTL-verkiezingsdebat. Wordt het alle ballen op de tot dusver haast onoverwinnelijke Rutte? En hebben zijn tegenstanders daarbij ook een andere strategie voor ogen dan de afgelopen tijd? We schakelen met politiek duider Nynke de Zoeten.</t>
+  </si>
+  <si>
+    <t>Naast groen en digitaal nu ook sociaal; Deze week op de EU-agenda Mathijs Schiffers Sinds de Europese Commissie onder leiding van Ursula von der Leyen in december 2019 van start ging, horen we bijna wekelijks over groene plannen, digitale transformatie en de mate waarin de EU zich kan bedruipen op het wereldtoneel, oftewel strategische autonomie. Het zijn de drie pijlers waar bijna alle initiatieven van Brussel bij onder te schuiven zijn. Volksgezondheid is er door de coronacrisis natuurlijk bij gekomen. En er is er nog eentje en die staat komende week centraal sociaal beleid. Woensdag presenteert Eurocommissaris Nicolas Schmit banen en sociale rechten een actieplan voor de implementatie van de Europese pijler voor sociale rechten die alweer uit 2017 dateert. Die pijler bevat twintig beginselen die lopen van toegang tot onderwijs naar toegang tot sociale woningen, gepaste opvang van daklozen en eerlijk loon. Het actieplan wordt door velen in Brussel gezien als een noodzaak. Er is groeiende ongelijkheid in de samenleving. Door de opmars van de platformwerkers is er steeds minder baanzekerheid en de kosten voor huisvesting rijzen de pan uit en worden voor steeds meer mensen ondraaglijk. Denk anders nog maar eens aan de afloop van het Britse brexitreferendum.</t>
+  </si>
+  <si>
+    <t>Vraag van de eigenaresse van een couscousbar aan PVV-lijsttrekker Wilders; Nadia wil van Wilders weten hoe zij het aan haar zoon moet uitleggen dat hij als tweederangsburger, geboren en getogen in Nederland, wordt weggezet. Wilders bestrijdt dat hij dat doet. Het gaat hem om de instroom van niet-westerse allochtonen, zegt hij. Nadia en Wilders komen in een heftige discussie terecht, over de islam en over de invloed van andere culturen. Wilders Nederlanders zijn vreemden in hun eigen land geworden. De invloed van de politieke islam is onwenselijk. Nadia Bent u ineens theoloog of zo? Ze nodigt hem uit voor couscous. Dat hoeft voor Wilders niet, maar hij wil wel met haar in gesprek.</t>
+  </si>
+  <si>
+    <t>Helft potentiële Forumstemmers vermoedt wereldwijd complot achter coronacrisis; De helft van de kiesgerechtigden die van plan zijn Forum voor Democratie te stemmen bij de verkiezingen in maart, denkt dat de coronapandemie een complot is. Dit blijkt uit onderzoek van Ipsos, in opdracht van Nieuwsuur. Van de ondervraagde Forum-stemmers gelooft een op de twee dat het coronavirus is ontwikkeld om burgers wereldwijd te onderdrukken. Ook denkt de helft dat het virus uit een laboratorium afkomstig is. Die opvattingen wijken behoorlijk af van die van de gemiddelde Nederlander en van stemmers op andere partijen. 11 procent van alle Nederlanders gelooft dat het virus bewust is ontwikkeld en 13 procent gelooft dat het een biologisch wapen is. Vrijdag werd bekend dat justitie een onderzoek instelt naar mogelijke overtreding van de coronaregels door FvD-leider Baudet bij een bezoek aan Urk, eerder deze week.</t>
+  </si>
+  <si>
+    <t>kruiswoordtest 5898; Horizontaal 1deze Europeanen boeken massaal mediterrane vakanties na 17 mei, meldde Trouw vorige week 7 5hoeveel spelers blijven er over als een voetbalelftal waarvan de oudste drie 27 zijn, buiten gaat sporten? 4 10voor welk horlogemerk maakt Roger Federer voor miljoenen euro's per jaar reclame? 5 11zeerovers leiders van een partij die zeggen dat ze socialer zijn dan de SP en liberaler dan de VVD 7 12godin van de wraak of, figuurlijk, de wrekende gerechtigheid 7, anagram van nee, miss 14minister aan wie Nederland de Mammoetwet dankt 4 16verbeterde of geactualiseerde versie leenwoord uit het Engels, 6 18couplet, strofe achtregelig, met rijmschema abababcc 6, anagr. Ans zat 20..... et avoir, Franse film uit 2002 over een dorpsschooltje 4 21onderzoek van 't parlement, naar 't toeslagenschandaal bijvoorbeeld 7 24begraafplaats taalkundige die op YouTube zeventiende-eeuws Hollands laat horen 7 25taal van de band Altin G n die de oprichter ervan zelf niet verstaat 5 27leesteken dat in krantenkoppen meestal ontbreekt 4 28hoe oud worden Serena Williams en Roger Federer dit jaar? 7. Connie Breukhoven 5 23(1 prik tegen 4 ziekten afk. Oplossing 5897.</t>
+  </si>
+  <si>
+    <t>Jozef Deleu: ‘Iets onder woorden brengen gaat sneller in een gedicht’; Wat maakt het leven de moeite waard ? Jozef Deleu 83, dichter, gedichtenverzamelaar en verbinder van de Vlaams-Nederlandse cultuur, ziet Nederland zelfzuchtiger worden. Na discussie geef je elkaar waar je recht op hebt. Mij hindert de hooghartigheid en dat toenemende gebrek aan generositeit.”,Hij is bejaard en mag niet ontvangen, zodat wij elkaar niet van aanschijn tot aanschijn kunnen ontmoeten, zegt Jozef Deleu. Maar aan de telefoon beschrijft hij graag het uitzicht door het grote raam van zijn werkkamer, op het zuiden, richting Frankrijk de grens loopt aan het eind van het weiland. Het is modderig, de sneeuw smelt. In de verte klimt het land een beetje en de lucht erboven is grauw. Lyrisch kan ik er niet over zijn, maar het blijft hier een leuke plek om te wonen. Hier is Rekkem, een dorp in West-Vlaanderen, halverwege het Belgische Kortrijk en het Franse Lille, letterlijk op de taalgrens. Deleu 83 schrijver, dichter, bloemlezer, uitgever, cultureel bestuurder woont en werkt er al zijn hele leven. Over deze serie We leven, zo goed en zo kwaad als het gaat.</t>
+  </si>
+  <si>
+    <t>Wekdienst 1/3: Verkiezingsprogramma's doorgerekend • Mbo-studenten naar school; Goedemorgen ! De verkiezingsprogramma's zijn doorgerekend, wat komt daar uit? En mbo-studenten en middelbare scholieren mogen vanaf vandaag weer naar school. Het weer vanochtend start de dag op veel plaatsen grijs met mist en lage bewolking. In de loop van de dag breekt de zon soms door, maar het noorden houdt lang last van hardnekkige wolkenvelden. De temperatuur ligt tussen 8 graden in het noorden en 12 graden in het zuidoosten. Daarbij staat een zwakke tot matige oostelijke wind. Later op de dag en in de nacht is het vooral in het noorden weer grijs. In het zuiden kunnen mistbanken ontstaan bij temperaturen rond het vriespunt. Ga je de weg op? Hier vind je het overzicht van de werkzaamheden. Check hier de dienstregeling voor het spoor. Wat kun je vandaag verwachten? Het Centraal Planbureau en Planbureau voor de Leefomgeving presenteren hun analyse en doorrekening van de verkiezingsprogramma's wat zijn de gevolgen voor de overheidsfinanci n en voor de klimaatdoelen? Alle mbo-studenten mogen vandaag weer n dag per week naar school voor lessen. Ook middelbare scholen gaan weer fysiek lesgeven. FvD-leider Baudet is de eerste.</t>
+  </si>
+  <si>
+    <t>Partijen willen hogere lasten voor bedrijven, blijkt uit doorrekeningen CPB; Tien partijen kiezen voor flinke lastenverzwaring voor bedrijven . De mate waarin loopt wel sterk uiteen, blijkt uit de doorrekeningen van de verkiezingsprogramma's door het Centraal Planbureau. VVD en SGP laten de lasten voor het bedrijfsleven stijgen met 3,5 miljard euro in 2025, de PvdA met bijna 42 miljard euro. Het CPB heeft de programma's van tien partijen doorgerekend VVD, CDA, D66, GroenLinks, SP, PvdA, ChristenUnie, SGP, Denk en 50Plus. In totaal zijn het 2000 maatregelen. Partijen als PVV, Partij voor de Dieren en Forum voor Democratie hebben hun programma's om uiteenlopende redenen niet laten doorrekenen. De meeste partijen willen de komende periode meer geld uitgeven. Ook daarbij zijn grote verschillen te zien. Het verschil tussen de partij die de overheidsuitgaven het minst laat stijgen in 2025, de SGP, en de partij die ze het meest laat stijgen, de SP, is 35 miljard euro. Ondernemersvereniging VNO-NCW noemt het buitengewoon zorgelijk dat de lasten voor het bedrijfsleven van enkele miljarden tot in theorie 42 miljard euro PvdA kunnen oplopen. Deze les lijkt men snel vergeten. De andere partijen blijven daar allemaal onder.</t>
+  </si>
+  <si>
+    <t>De kiezer verkeert in onzekerheid, maar de opiniepeiler heeft het ook niet gemakkelijk; column Helaas moet ik het in deze column nog stellen zonder de informatie die het RTL-verkiezingsdebat heeft opgeleverd. Maar ik durf hier toch wel te beweren dat we nog rare dingen gaan beleven, nu de campagne eindelijk is begonnen en het nog maar zestien dagen duurt tot de verkiezingen. Misschien is er bij RTL een keiharde gamechanger of een beslissende oneliner langsgekomen, de afgelopen dagen hebben we die in campagnehistorische beschouwingen genoeg gehoord. Maar meer dan een slimme uithaal maakt iets anders de verkiezingen onvoorspelbaar. Het worden namelijk de coronaverkiezingen. Zoiets als dit hebben we nog nooit meegemaakt, zei politiek strateeg Kay van de Linde zondag bij Buitenhof. Tegenover hem zat campagnestrateeg Hans Anker, en die wist het ook niet. Beiden haalden hun betreurde vriend en politieke junky Erik van Bruggen aan Een campagne is onvoorspelbaar. En dat was dus v r corona een campagne nog onvoorspelbaarder maakt dan die per definitie toch al is. De verkiezingen zijn ook geen evaluatie van het coronabeleid, wat je daar verder ook van vond. Dat oordeel zal binnen afzienbare tijd worden geveld in een parlementaire enqu te.</t>
+  </si>
+  <si>
+    <t>Pittig RTL-debat over klimaat, discriminatie en corona, maar zonder 'gamechanger'; De zes partijen zijn in het RTL-verkiezingsdebat een aantal keer stevig met elkaar in botsing gekomen. D66-leider Kaag viel uit naar PVV-leider Wilders over discriminatie en Zwarte Piet. GroenLinks-leider Klaver vond dat VVD-leider Rutte niet eerlijk was over kernenergie. Ook zei CDA-leider Hoekstra dat hij Rutte echt ongeloofwaardig vond toen hij had gezegd dat ook de VVD vond dat de rijksten meer belasting moesten betalen. U heeft het hardst gevochten voor de slechtste onderwerpen, aldus Hoekstra. Rutte was het er niet mee eens. Het beleid hebben we met elkaar gedaan. Voorrang gevaccineerden Kaag kreeg in het debat geen enkele bijval met haar plan om gevaccineerden voorrang te geven bij het loslaten van de coronamaatregelen, zoals ze gisteren voorstelde. PVV-lijsttrekker Wilders en SP-lijsttrekker Marijnissen zijn tegen voordeeltjes voor gevaccineerden en dwang of drang naar burgers toe. Marijnissen zegt dat dat leidt tot een tweedeling in de samenleving, terwijl burgers niet de keus hebben om zich snel te laten vaccineren. VVD-lijsttrekker Rutte is ook tegen, omdat het nog niet duidelijk is of mensen die zijn inge nt niet toch het virus verspreiden.</t>
+  </si>
+  <si>
+    <t>De Berlinale gaat van start: geen sterren, rode lopers of publiek, wél een competitie; Jaloersmakend . Er z jn mensen die de komende dagen in een bioscoop zitten tijdens de 71ste Berlinale, een van de belangrijkste filmfestivals ter wereld. Dat zijn vier van de zes filmmakers die dit jaar bepalen welke film wordt bekroond met de Gouden Beer. De juryleden worden dagelijks getest, vertelt uitvoerend directeur Mariette Rissenbeek, en ze vormen de komende dagen een soort familie. Als wij contact moeten hebben, doen we dat buiten. De overige twee juryleden kijken thuis. Nadav Lapid kan Isra l niet uit omdat de luchthaven gesloten is vanwege corona de Iraanse filmmaker Mohammad Rasoulof staat al jaren onder huisarrest. Het is behelpen, in Berlijn. Het grootste filmfestival ter wereld dat k voor publiek toegankelijk is valt de komende vijf dagen slechts digitaal te bezoeken, alleen door filmprofessionals en journalisten. Geen rode loper, geen sterren, geen persconferenties. In juni volgen twee festivalweken waarin corona volente het publiek de films kan bewonderen. Waarom een festival, waarbij juist persoonlijke contacten belangrijk zijn, laten doorgaan? Omdat de filmbranche erom vroeg, aldus Rissenbeek.</t>
+  </si>
+  <si>
+    <t>De doorrekening van de verkiezingsprogramma's, waar moet je op letten?; Welke partij trekt het meeste geld uit voor onderwijs ? Welk effect hebben de plannen van partijen op de overheidsfinanci n? Welke partijen halen de klimaatdoelen en wie betaalt die rekening? Ook deze verkiezingen komen het Centraal Planbureau en Planbureau voor de Leefomgeving met een doorrekening van de verkiezingsprogramma's. Die presenteren ze vandaag om 10.30 uur. De persconferentie is live te volgen op NOS.nl. Wat berekenen ze? De doorrekeningen geven inzicht in waar politieke partijen echt geld voor willen uittrekken, hoe ze hun beloftes waarmaken en wat de langetermijneffecten van hun plannen zijn. Waar partijen in verkiezingsprogramma's kiezers nog kunnen bedienen van vage termen als vergroening, duurzaamheid of een eerlijker systeem, moeten ze aan de planbureaus concreet laten weten hoe ze dat daadwerkelijk willen bereiken. Dat is een proces van maanden waarin de partijen steeds aanvullende vragen van de bureaus beantwoorden. Met de doorrekeningen in de hand kunnen kiezers de partijprogramma's beter vergelijken. De investeringen en effecten van alle plannen, die totaal verschillend kunnen zijn, worden allemaal op dezelfde manier doorgerekend. Zo valt straks te lezen waar partijen het meeste geld aan willen uitgeven.</t>
+  </si>
+  <si>
+    <t>CDA en VVD hebben kritiek op planbureaus; Het is een ijkpunt in de verkiezingscampagne de doorrekeningen van de verkiezingsprogramma's door het Planbureau voor de Leefomgeving en het Centraal Planbureau. De analyses die de planbureaus vandaag naar buiten brengen, geven partijen gelegenheid om te pronken met de eigen zuinigheid of duurzaamheid en om de concurrentie aan te wrijven dat die spilziek of vervuilend is. De VVD heeft besloten om de klimaatparagraaf van het verkiezingsprogramma ditmaal niet te laten doorrekenen door het PBL. Dat komt niet omdat het de liberalen aan groene ambities ontbreekt, zegt Kamerlid Mark Harbers. In ons programma staat dat wij vastberaden zijn om de doelen van het nationale klimaatakkoord en van Parijs te halen. Maar de VVD wil inzetten op kernenergie, en dat rekent het PBL niet door. Overigens zal kernenergie pas echt een rol kunnen spelen na 2030 en het PBL rekent tot 2030, maar het gaat de VVD om het principe De Europese dimensie Belangrijker voor de VVD is dat die partij het klimaatprobleem vooral Europees wil oplossen. Harbers De Europese Commissie wil het Europese klimaatdoel ophogen. Dat willen wij ondervangen door het Europese emissierechtensysteem aan te scherpen.</t>
+  </si>
+  <si>
+    <t>De uitzending van 1 maart: Gasvrij duurder dan verwacht / IC's vol in Hoorn / Genomineerden Libris Literatuurprijs / Doorrekening verkiezingsprogramma's; Wat kost woning aardgasvrij maken ? Het gaat er deze campagne nog nauwelijks over, maar Nederland staat aan het begin van een ongekende verbouwing. Alle negen miljoen woningen en gebouwen moeten van het gas af, voor het klimaat. In de wijken waar men er als proef al mee begonnen is, is nu voor het eerst gedetailleerd gekeken naar het kostenplaatje. Die blijken veel hoger dan verwacht en zullen de komende jaren bovendien amper dalen. Nieuwsuur spreekt met de onderzoeker van het nieuwe rapport en ging naar het Friese Garijp waar ze de hoge kosten herkennen. IC's liggen vol in Hoorn Terwijl de roep om verdere versoepelingen hard klinkt, zijn de besmettingen in de veiligheidsregio Noord-Holland Noord juist heel erg toegenomen de afgelopen dagen, met name in Hoorn. In de eerste golf werd die regio niet hard getroffen, maar er werden gisteren 133 mensen positief getest. Minister de Jonge riep vandaag lijsttrekkers dan ook op behoedzaam te zijn met uitspraken over versoepelingen. Hij verwees daarbij naar de kop van Noord-Holland. We gaan langs in het Dijklander ziekenhuis en we spreken burgemeester Jan Nieuwenburg.</t>
+  </si>
+  <si>
+    <t>'Opvallend en veelzeggend dat VVD en CDA hier niet staan'; Een aantal partijen heeft op een persconferentie gereageerd op de doorrekeningen van het CPB en de PBL. En op het feit dat CDA en VVD n et op de persconferentie waren. Vooral de progressieve partijen staan hier, zei GroenLinks-leider Klaver. Opvallend en veelzeggend dat VVD en CDA hier niet staan. Hun programma's zijn sociaal slecht en brengen economische rampspoed, stelt PvdA-Kamerlid Nijboer. Dus ik snap wel dat ze hier niet staan. D66 benadrukt dat blijkt dat Nederland sterker en groener uit de crisis komt, als hun partijprogramma wordt uitgevoerd. De crux is dus dat het wel kan, veel ambities hebben en de economie een steun in de rug geven, zei Kamerlid Van Weyenberg. D66 heeft de CO2-reductie op 60 procent staan in 2030. Dat is relatief ambitieus, maar GroenLinks gaat er nog overheen. Wij komen uit op 63 procent, zei Klaver. Dat is belangrijk, want de uitvoering blijft altijd achter, daarom heb je overshoot nodig.</t>
+  </si>
+  <si>
+    <t>Stelling 2:  minimaal 10 procent van de bewindslieden moet van kleur zijn; De offici le tekst van de stelling luidt Als mijn partij meedoet aan het volgende kabinet zal minimaal 10 procent van de bewindslieden van kleur zijn of een niet-westerse migratieachtergrond hebben. GroenLinks, SP en D66 zijn hiervoor. PVV-lijsttrekker Wilders houdt niet van zulke stellingen. De eerste persoon van kleur die ik zou willen verdedigen is Zwarte Piet. Rutte drukt op rood Ik wil niet dat iemand dan in mijn kabinet zit en denkt ik zit hier alleen omdat Rutte bij Frits Wester op groen heeft gedrukt. Hij ziet ook dat er sprake is van een trend dat het beter gaat met mensen aan de top van een niet-westerse achtergrond. Jesse Klaver begint over Ronald Koeman die trainer is van het Nederlandse elftal en dat leidt tot hilariteit op Twitter.</t>
+  </si>
+  <si>
+    <t>Kaag (D66) wil meer vrijheden toestaan met vaccinatiebewijs; Kaag deed haar uitspraken zaterdagmiddag op een D66-congres in Veldhoven.,, Laten we als Nederland een voorbeeld nemen aan Isra l, waar gevaccineerde mensen weer toegang krijgen tot het maatschappelijk leven, zei ze.,, En geef degene die het vaccin nog niet heeft gehad dezelfde vrijheid met een negatieve test in de achterzak. Kaag,, Er lijkt bijna een taboe te liggen op het woord vaccinatiebewijs. Maar toch is dat precies wat we nodig zullen hebben. Een moderne versie van, wie kent het niet, het gele boekje. Uiteraard met de garantie van tijdelijkheid, privacyvoorwaarden en het liefst op Europees niveau. Ook wil Kaag dat de overheid gratis snel- en zelftesten verstrekt. ,, We kunnen het leven veilig weer op gang brengen voor al die jongeren en volwassenen die nog niet aan de beurt zijn geweest. Met gratis snel- en zelftesten kunnen hogescholen, universiteiten, sportstadions, restaurants, caf s en winkels weer opengaan. Dit moet volgens Kaag gebeuren als het vaccinatietempo op orde is. De Europese Commissie komt in maart met voorstellen voor een vaccinatiecertificaat.</t>
   </si>
   <si>
     <t>Forum voor Democratie Jacht  op extra stemmen; Waar andere partijen zich nauwelijks op straat wagen toert Forum voor Democratie stad en land af. Die optredens trekken niet alleen de aandacht van kiezers het Openbaar Ministerie kijkt inmiddels of Baudets campagneteam niet op grote schaal de coronaregels geschonden heeft. Zo werden bij een bezoek aan Urk volgens getuigen honderden handen geschud. En dan was er nog de volmacht-rel. In een live-uitzending riep Baudet donderdag zijn kijkers op zoveel mogelijk stemmen per volmacht te regelen. Om de besmettingskansen te verkleinen mogen kiezers dit jaar niet twee maar drie volmachtsstemmen uitbrengen. Een persoon kan vier keer stemmen eigenlijk, als je maar die volmachten kunt regelen, aldus Baudet, en dat was een enorme kans. Ho, zei het ministerie van Binnenlandse Zaken dat is niet de bedoeling en mag helemaal niet. Daar leek het campagneteam van Forum toen al achter gekomen de suggestie om stemmen te regelen was door de partij schielijk uit het filmpje van Baudet geknipt. Aan een ander standpunt houdt Baudet wel openlijk vast de grote kans op verkiezingsfraude. Door anderen, uiteraard.</t>
   </si>
   <si>
-    <t>Recht op reparatie van apparatuur komt steeds dichterbij; REPAIR CAF S Jeroen Groot en Caitlin Stooker Philip Leenman 68 wijst naar een Senseo. Het koffiezetapparaat van Philips staat in half gedemonteerde toestand op de werkbank in zijn werkkamer in Naarden. Voor het ongeoefende oog valt er weinig te zien aan het binnenste van het apparaat, maar Leenman weet precies wat er mis is. In dit geval betreft het de boiler om het water op temperatuur te brengen. Als het verwarmingselement wordt aangezet terwijl er geen water in zit, gaat het binnen zes seconden stuk, zegt de gepensioneerde ICT'er. Een kapot huishoudelijk apparaat belandt vaak bij het afval, omdat de kosten van reparatie door een professionele reparateur niet in verhouding staan tot de prijs van een nieuwe. Zonde, stelt het al in 2009 opgerichte Repair Caf. Hier zetten dan ook duizenden vrijwilligers zich in om huis-tuin-en-keukenspullen te repareren. Onder wie Leenman. Normaliter komen consumenten langs bij de Repair Caf s, waar vrijwilligers de kapotte spullen beoordelen en indien mogelijk ter plaatse repareren. Maar vanwege het coronavirus werken ook de reparateurs vanuit huis. Inmiddels zijn er in Nederland meer dan 500 Repair Caf s. Caf s, in 36 landen.</t>
-  </si>
-  <si>
-    <t>Contact met de kiezer; Geen flyerende lijsttrekkers in windjacks op markten deze keer . Kandidaat-Kamerleden zoeken noodgedwongen hun contact met de kiezer online. Zoals ChristenUnie-lijsttrekker Gert-Jan Segers, hierboven afgebeeld terwijl hij vragen beantwoordt die kiezers hem op online platform Instagram stellen. Anders dan praten met de burgers zelf, praten de politici nu tegen camera's. Populair zijn ook livesessies op Facebook. Zo ging Mark Rutte dit weekend in gesprek met horeca-ondernemers en zond de VVD dat uit op Facebook. Naast de online campagne, werd er dit weekend ook ouderwets geflyerd. Maar aanbellen, dat deden de meeste campagnevoerende partijleden niet, uit angst voor verdere verspreiding van het coronavirus. Forum voor Democratie ging er als enige partij wel op uit om campagne te voeren. Met een vrijheidskaravaan deed de partij Nijmegen en Venlo aan voor een manifestatie. Toen er meer dan tweehonderd mensen langskwamen, moest burgemeester Hubert Bruls de bijeenkomst, die wel aangekondigd en aangevraagd was, voortijdig afbreken. Een bezoeker in Venlo twitterde dat met de komst van Baudet het centrale plein voor het eerst sinds carnaval vorig jaar weer vol stond.</t>
-  </si>
-  <si>
-    <t>Partijen willen hogere lasten voor bedrijven, blijkt uit doorrekeningen CPB; Tien partijen kiezen voor flinke lastenverzwaring voor bedrijven . De mate waarin loopt wel sterk uiteen, blijkt uit de doorrekeningen van de verkiezingsprogramma's door het Centraal Planbureau. VVD en SGP laten de lasten voor het bedrijfsleven stijgen met 3,5 miljard euro in 2025, de PvdA met bijna 42 miljard euro. Het CPB heeft de programma's van tien partijen doorgerekend VVD, CDA, D66, GroenLinks, SP, PvdA, ChristenUnie, SGP, Denk en 50Plus. In totaal zijn het 2000 maatregelen. Partijen als PVV, Partij voor de Dieren en Forum voor Democratie hebben hun programma's om uiteenlopende redenen niet laten doorrekenen. De meeste partijen willen de komende periode meer geld uitgeven. Ook daarbij zijn grote verschillen te zien. Het verschil tussen de partij die de overheidsuitgaven het minst laat stijgen in 2025, de SGP, en de partij die ze het meest laat stijgen, de SP, is 35 miljard euro. Ondernemersvereniging VNO-NCW noemt het buitengewoon zorgelijk dat de lasten voor het bedrijfsleven van enkele miljarden tot in theorie 42 miljard euro PvdA kunnen oplopen. Deze les lijkt men snel vergeten. De andere partijen blijven daar allemaal onder.</t>
+    <t>Derde van gemeenten in geldnood; Gemeentefinanci n De provincies constateren dat vrijwel alle gemeenten financi le tekorten hebben. , Bijna n op de drie gemeenten lukte het niet voor 2021 een sluitende begroting te maken. In totaal gaat het om 120 gemeenten die dit jaar hun begroting niet rond krijgen. De overige 216 gemeenten hebben vrijwel zonder uitzondering stevige beleidskeuzes moeten maken, fors moeten bezuinigen, hun reserves moeten aanspreken of de lasten voor de inwoners moeten verhogen om hun begrotingen tot 2024 sluitend te krijgen. Dat blijkt uit onderzoek van NRC van alle 336 toezichtbrieven die de provincies sturen in antwoord op de door de gemeenten ingediende begrotingen. Lees ook het achtergrondverhaal Het geld van de gemeenten raakt op, en dat gaat iedereen merken Negentien gemeenten werden niet meegeteld, omdat zij net zijn gefuseerd of dat komend jaar zullen doen. Twaalf van de 336 gemeenten staan onder curatele van de provincie, drie meer dan vorig jaar. Zij konden tot 2024 geen enkel begrotingsjaar sluitend krijgen en moeten de komende maanden een herstelplan inleveren. Maar het getal van twaalf maskeert het probleem, zegt Floor Vermeulen, gedeputeerde in Zuid-Holland Financi n, VVD.</t>
+  </si>
+  <si>
+    <t>Sportscholen demonstratief open: 'Bewegen is nu hard nodig'; Zaterdagochtend half negen , op het dak van Tino Hoogendijk Sport Fitness in Vlaardingen. Instructeur Marco Seij 51 zweept de boel nog eens extra op. Tikkie erbij, jongens, roept hij naar de twee sporters op hometrainers aan weerszijden van hem. De uit de kluiten gewassen mannen volgen zijn orders gedwee glimlachend op. Maar het is nog niet genoeg. Een paar tellen later Vier, drie, twee, n... J, goed zo jongens! Dit gaat goe-hoed! Over de aangrenzende, nagenoeg lege parkeerplaats galmt een housebeat. Op bescheiden volume, om de omwonenden op deze zaterdagochtend niet te storen. Na een minuut of twintig zit het pittige lesje op het dak er op en stappen de twee deelnemers hijgend van de fiets af. Er wordt gewisseld, op een manier die voldoet aan de RIVM-normen. Eerst de sporters die klaar zijn het dak af, dan de sporters die klaar staan het dak op. Nee, ideaal is het niet en een echte sportles eigenlijk ook niet. Niet eerder stonden ze hier op het dak. Hij heeft de hometrainers zelf met een kraan naar boven laten takelen.</t>
+  </si>
+  <si>
+    <t>CPB: partijen schuiven lasten door naar de toekomst; Doorrekening Zorg , onderwijs en de burger gaan er de komende jaren op vooruit . Dat blijkt uit doorrekening van tien verkiezingsprogramma s.,Hogere overheidsuitgaven in de komende kabinetsperiode, vooral in de zorg en het onderwijs, een lichte koopkrachtverbetering en doorschuiven van de financi le lasten naar toekomstige generaties. Dat zijn opvallende overeenkomsten in de doorrekening van de verkiezingsprogramma ’s door het Centraal Planbureau CPB, die maandagochtend is gepubliceerd. Het expansieve begrotingsbeleid extra investeringen om de economie aan te jagen leidt bij vrijwel alle partijen tot een verslechtering van de overheidsfinanci n in 2025. Dat uit zich met name in een hoger begrotingstekort. Van de 37 partijen die over twee weken meedoen met de Tweede Kamerverkiezingen, lieten er tien hun programma op macro-economische effecten doorrekenen. Van de huidige Tweede Kamerfracties hebben PVV, Partij voor de Dieren en Forum voor Democratie hun plannen niet bij het CPB laten toetsen. Ook het Planbureau voor de Leefomgeving PBL kwam maandag met een doorrekening van de verkiezingsprogramma ’s, op de effecten op milieu, en klimaat. Aan die toets deden maar zes partijen mee. Het CPB benadrukt dat de doorrekening van de individuele programma ’s vooral van relatieve waarde is.</t>
+  </si>
+  <si>
+    <t>PBL: politieke partijen boeken meeste klimaatwinst met industrie en verkeer; Verminderde uitstoot van broeikasgas moet de komende tien jaar vooral van de industrie en het verkeer komen. Dat blijkt uit een maandag gepresenteerde doorrekening van de verkiezingsprogramma's van CDA, D66, GroenLinks, SP, PvdA en ChristenUnie. Grote afwezige in de berekening van het Planbureau voor de Leefomgeving PBL is de VVD, die het klimaatdeel van zijn partijprogramma niet liet doorrekenen. Het PBL rekent op verzoek van de politieke partijen het effect van hun plannen door op de leefomgeving, zoals het klimaat. Uit de analyse blijkt dat partijen de meeste CO₂-reductie willen halen in de industrie, met een aanscherping van de nationale CO₂-heffing die dit jaar is ingegaan. Industrie n betalen die heffing per ton uitgestoten CO₂. Ook staan er in de verkiezingsprogramma's plannen voor meer openbaar vervoer en minder autorijden, waardoor de Nederlandse broeikasgasuitstoot zal dalen. In andere sectoren, zoals woning- en landbouw, daalt de broeikasuitstoot ook wel, maar minder dan in de industrie. Het PBL heeft daarnaast de stikstofplannen van partijen doorgerekend. Het CDA wil de veehouderij in huidige omvang behouden en gaat voor herstel van bestaande natuur.</t>
+  </si>
+  <si>
+    <t>Milieuclubs niet echt blij met doorrekeningen; Milieuorganisaties zijn teleurgesteld over de verkiezingsprogramma s. Want ze zijn niet groen genoeg, vinden ze. De op milieugebied beste coalitie die volgens peilingen een meerderheid zou hebben in beide Kamers van VVD, CDA, GroenLinks, D66 en PvdA zou niet verder komen dan 53 procent reductie van broeikasgassen in 2030, zegt Milieudefensie. Terwijl 65 procent nodig is om een eerlijke bijdrage te leveren aan het Parijsakkoord en Europa 55 procent als doel heeft. Greenpeace Nederland is evenmin te spreken over ieder verkiezingsprogramma en de nagestreefde reductie van CO2 Geen enkele partij ligt op koers om de afspraken uit het Klimaatakkoord van Parijs te halen. Deze club is echter wel blij dat D66 en GroenLinks cruciale stappen willen zetten en ziet ook dat de PvdA, ChristenUnie en SP meer doen dan de huidige klimaatwet. Maar het is volgens Greenpeace onbegrijpelijk dat het CDA achterblijft met 46 procent reductie en zelfs de klimaatwet niet nakomt. Dat de VVD geen klimaatplannen heeft laten doorrekenen is onverantwoordelijk.</t>
+  </si>
+  <si>
+    <t>Een boer versus D66-leider Kaag over de halvering van de veestapel; Blijft D66 vasthouden aan de halvering van de veestapel ? D66-leider Kaag begrijpt dat het boeren rauw op het dak valt. Wij zien halvering als heel belangrijk, maar we willen het samen met u doen, zegt ze tegen een boer die tegenover haar in de zaal staat. D66 wil dit doen om de stikstof te reduceren. Als u een beter plan heeft, wil ik dat niet van de hand wijzen. Het gaat om het bereiken van het doel, stikstofreductie, aldus Kaag. Na de verkiezingen wil Kaag langsgaan bij de boer.</t>
+  </si>
+  <si>
+    <t>En toch is Rutte erbij in verkiezingsdebat van de nummers twee; aanloop 17 maart Niet de lijsttrekkers, maar de runners up van zes partijen kruisten zondagochtend de degens in het verkiezingsdebat van WNL op Zondag. De omroep die een vrolijk rechts geluid belooft, had zich voorgenomen er ook een vrolijk debat te maken, met ludieke introducties van de deelnemers CDA'er Pieter Omtzigt werd weer eens een pitbull genoemd en de kijker weet nu dat VVD-minister Tamara van Ark koekblikken spaart en een fragment van de Amerikaanse komiek Jerry Seinfeld, die grapte dat de nummers twee eigenlijk de eerste verliezers zijn. Desondanks werd het debat bij vlagen uiterst wrevelig. Deels kwam dit door diezelfde opzet van het programma, met zes partijen VVD, PVV, CDA, D66, PvdA en SP die om aandacht moesten vechten in een free for all. Voor veel meer dan een paar snedige oneliners was vaak geen tijd. Wacht effe, dit is geen spelshow, schoot Omtzigt uit zijn slof, nadat WNL-presentator Rick Nieman hem had gemaand niet te ver af te dwalen. Ik geloof dat het best lastig is, Renske, om mij uit te laten praten....</t>
+  </si>
+  <si>
+    <t>FvD'ers beboet om negeren 1,5 meter; De politie in Nijmegen heeft gisteren een nog onbekend aantal mensen bekeurd omdat zij tijdens een bijeenkomst van Forum voor Democratie folders uitdeelden zonder daarbij 1,5 meter afstand te houden.</t>
+  </si>
+  <si>
+    <t>CPB-doorrekening: risico op maken van uitglijer groter dan stemmenwinst; Is de invloed van het CPB, een overheidsinstelling, op het politieke proces door de doorrekeningen niet te groot geworden? Jean Dohmen Amsterdam Vandaag zijn ze er weer de doorrekeningen van de partijprogramma's door het Centraal Planbureau. Extra stemmen leveren ze niet op, wel een betrouwbaar imago, zegt onderzoeker Wimar Bolhuis. Het is, naast de grote debatten, een van de spannende momenten in de verkiezingscampagne de doorrekening van de partijprogramma's door het Centraal Planbureau CPB. Dat geeft vandaag aan de hand van berekeningen antwoord op harde economische vragen als welke partijen cre ren banen, wie verhoogt de lasten, welk programma pakt het beste uit voor de koopkracht? Het Planbureau voor de Leefomgeving doet, zij het minder lang dan het CPB, een vergelijkbare exercitie, maar dan over de impact op onder meer het klimaat. Niet alle partijen laten hun plannen doorrekenen. Het CPB vertelt ook niet vooraf wie wel en niet meedoet. Deelname is vrijwillig, benadrukt Wimar Bolhuis, universitair docent in Leiden en auteur van een proefschrift over de doorrekeningen van partijprogramma's door het CPB. Dat klopt.</t>
+  </si>
+  <si>
+    <t>Lezersreacties; Vertaling Als schrijfster kan Marieke Lucas Rijneveld zich als geen ander inleven in een ander. Tot mijn verdriet geeft ze de opdracht terug voor de vertaling van het beroemd geworden gedicht The Hill We Climb Trouw, 27 februari. Uitgever, laat haar de vertaling afmaken, want ze is er al lang mee verbonden in haar hoofd of op papier. En zet een tweede kandidaat naast haar. Geef beide vertalingen naast elkaar uit en de lezer beslist welke gekozen wordt. Laten we nooit iemand buitensluiten om kleur, ras, etniciteit of wat dan ook. Toos Scheffer Tytsjerk Smet? Geen grote kop op de voorpagina nu de rechter in hoger beroep de regering alsnog in het gelijk stelt over de avondklok Trouw, 27 februari. En geen excuses voor eerdere artikelen waarin op basis van de uitspraak van de voorzieningenrechter die Viruswaarheid in het gelijk stelde, werd gesproken van de smet op het blazoen van Rutte. In plaats daarvan een wat weggestopt bericht over het hoger beroep. Frank Hendriks Nijmegen Kaag Dank voor het mooie interview met D66-lijsttrekker Sigrid Kaag Trouw, 27 februari.</t>
+  </si>
+  <si>
+    <t>Economen: hogere belastingen jagen bedrijven weg; De plannen van politieke partijen om de lasten van bedrijven te verhogen komen niet uit de lucht vallen. Maar zonder risico zijn ze niet hogere belastingen maken Nederland minder aantrekkelijk als vestigingsplaats, waarschuwen hoogleraren. Nederland stond altijd hoog in lijstjes als het ging om concurrentievermogen. Daar waren meer redenen voor, maar het fiscale klimaat speelde zeker een rol. Als je daaraan morrelt weet je dat het vestigingsklimaat verslechtert, zegt hoogleraar economie Jakob de Haan van de Rijksuniversiteit Groningen. Effect negatief De Haan Als zelfs een ondernemerspartij als de VVD voor hogere lasten voor bedrijven is, dan weet je wat een volgende coalitie gaat doen. Als je meer geld wilt uitgeven als partij, kan ik me wel voorstellen dat je hiernaar kijkt. Maar ik maak me zorgen over de mate waarin de belastingen straks stijgen. Dat het effect negatief is, staat vast. Uit de maandag gepresenteerde doorrekening blijkt dat alle partijen die hun verkiezingsplannen aan het Centraal Planbureau voorlegden, hogere lasten voor bedrijven willen. De VVD met € 3,6 mrd het minst, de PvdA met € 42 mrd het meest.</t>
+  </si>
+  <si>
+    <t>De Jonge: lijsttrekkers moeten in campagne behoedzaam zijn over corona; Minister de Jonge van Volksgezondheid vindt het logisch dat lijsttrekkers in de verkiezingscampagne spreken over wat ze graag zouden willen aan versoepelingen, maar hij vindt ook dat ze wel behoedzaam moeten zijn. Qua besmettingscijfers is de situatie nog steeds zorgelijk en er kan nu weinig, benadrukt De Jonge. Partijgenoot en CDA-lijsttrekker Hoekstra zei gisteren in het RTL-debat dat hij eerlijk moet zijn en dat het nu niet kan, maar dat hij hoopt dat de terrassen snel open kunnen. Het is logisch dat te hopen, zei De Jonge, maar zo snel als mogelijk is niet vandaag of morgen. Zo zijn er zorgen over de situatie in de kop van Noord-Holland waar erg veel pati nten zijn. In n regio code zwart ligt niet voor de hand, we moeten de pati nten goed tussen de regio's verdelen, zegt De Jonge. Maar we met moeten met zijn allen wel code zwart voorkomen.</t>
+  </si>
+  <si>
+    <t>Stelling 5: gevaccineerde burgers moeten als eersten hun vrijheid terugkrijgen; D66-lijsttrekker Kaag zei zaterdag al dat zij hiervoor is . Daarnaast moeten we inzetten op massaal sneltesten, voegt zij er vandaag aan toe. Hoekstra zegt dat ervoor gekozen is om de zwaksten als eersten te vaccineren. Maar het kan ook niet om jongeren het langst opgesloten te laten zitten, zegt hij. Daar helpen ook sneltests bij, denkt Hoekstra. PVV-lijsttrekker Wilders en SP-lijsttrekker Marijnissen zijn tegen voordeeltjes voor gevaccineerden en dwang of drang naar burgers toe. Marijnissen zegt dat dat leidt tot een tweedeling in de samenleving, terwijl burgers niet de keus hebben om zich snel te laten vaccineren. VVD-lijsttrekker Rutte is ook tegen, omdat het nog niet duidelijk is of mensen die zijn inge nt niet toch het virus verspreiden. Dus nu nog niet, zegt hij. Klaver van GroenLinks wil dat er vooral ingezet wordt op het zo snel mogelijk vaccineren van iedereen. Kaag vindt dus weinig bijval, en mag daarop reageren. Zij verdedigt haar standpunt met de stelling dat het voor jongeren nu heel erg moeilijk is dat zij thuis moeten zitten. CDA-lijsttrekker Hoekstra is het niet met haar eens. Ouderen worden eerder inge nt dan jongeren.</t>
+  </si>
+  <si>
+    <t>De confrontatie met de kiezer valt de lijsttrekkers zwaar; Meneer Rutte, als het over een jaar nog niet is opgelost, treedt u dan wel af? Halverwege het eerste grote tv-debat bij RTL is het Kristie Rongen, een van de gedupeerde ouders uit de toeslagenaffaire, die Mark Rutte voor even stil krijgt. Ze zegt het zelfs letterlijk ik stop u hier even, als Rutte aan een van zijn vaker gebruikte antwoorden wil beginnen. Wij zaten als ratten in de val, aldus Rongen met een trilling in haar stem. De kop is er af. RTL organiseerde gisteravond de eerste in een reeks tv-debatten, onder leiding van Frits Wester en Jetske Schrijver. Met de verkiezingen nog ver genoeg weg om uitglijders weer goed te kunnen maken, en dichtbij genoeg om met een sterk optreden de campagne een wending te geven. De RTL-presentatoren krijgen ondersteuning van gewone kiezers, die zich met een filmpje presenteren en vervolgens live in de studio hun vragen stellen. Dat blijkt een gouden greep van de regie, naast het toch vrij voorspelbare verbale steekspel tussen de lijsttrekkers onderling. Een debat loopt toch altijd anders dan je denkt.</t>
+  </si>
+  <si>
+    <t>Digitale campagne wordt platter én dieper; Verkiezingen Campagne voeren hoeft niet zo ingewikkeld te zijn. De VVD geeft op Instagram het voorbeeld, met een nieuwe trend, overgewaaid uit het buitenland. Trek de kiezer met grappige plaatjes. Tover een lach tevoorschijn. Wat altijd werkt zijn plaatjes van dieren. Bijvoorbeeld een foto van een kip en een roofvogel. De kip heeft verrassend genoeg de roofvogel op de grond gedwongen. Bijschrift bij de kip VVD met nieuwe plannen om de misdaad aan te pakken. Bij de beteuterde roofvogel staat Zware criminelen. Het oogt als typische internethumor, en zo is het ook bedoeld. De VVD heeft ook zulke plaatjes over kernenergie, met een pitbull en een labradorpuppy in beeld. In een paar woorden geven ze het standpunt van de partij weer. Grappen maken met ogenschijnlijk amateuristisch knip- en plakwerk is geen toeval het ontwapent. Achter de VVD-campagne steken bekende marketingbureaus, gespecialiseerd in het be nvloeden van gedrag. Wat die bureaus precies adviseren en organiseren blijft geheim, zoals bijna alle partijen in verkiezingstijd niet graag in hun keuken laten kijken. Ook de SP heeft zo'n campagne vol beeldgrappen.</t>
+  </si>
+  <si>
+    <t>Vaccinatie-paspoort; Commentaar Hans van zon Beetje bij beetje maken politici de geesten rijp voor een digitaal vaccinatiepaspoort. Na de laatste Europese top liet de Duitse kanselier Angela Merkel al doorschemeren dat iedereen akkoord was met de invoering ervan. Voor de zomer zou het een feit kunnen zijn. Premier Mark Rutte reageerde nog terughoudend. Hij was niet tegen, maar vond een besluit erover te vroeg. In een online toespraak voor het partijcongres van D66 mengt nu ook lijsttrekker Sigrid Kaag zich in de discussie. Zij vindt het oneerlijk dat gevaccineerde mensen moeten wachten met leven totdat ook anderen zijn inge nt. Met een digitaal vaccinatiepaspoort op zak moeten zij kunnen genieten van herwonnen vrijheid. Dat er grote voordelen zitten aan de invoering, staat buiten kijf. Op internationaal vlak zou de houder ervan weer onbeperkt vluchten moeten kunnen maken. Het bezit van een paspoort kan in eigen land weer toegang geven tot winkelcentra, bioscopen, restaurants en bijvoorbeeld musea. Isra l, dat door zijn snelle vaccinatie internationaal vooroploopt en daardoor een proeftuin is voor het leven na vaccinatie, werkt al een week met een groen paspoort. h.vanzon@ad.</t>
   </si>
   <si>
     <t>Kaag wil een prikbewijs, Hoekstra een 'New Deal'; Van onze redacteur Den Haag De toenemende nood bij burgers en bedrijven door de coronacrisis leidde bij D66 en CDA dit weekend tot verhoogde creativiteit om economie en samenleving een doorstart te laten maken. Nederland moet met vaccinatie- en testbewijzen weer open, vindt D66-leider Sigrid Kaag. CDA-aanvoerder Wopke Hoekstra wil vooral bedrijven helpen met een doorstart. Daarna wil hij met een New Deal het land repareren en meer investeren. Dat moet worden betaald met tijdelijke belastingverhogingen voor de hoge inkomens en bedrijven die profiteren van de coronacrisis, zoals supermarkten en webwinkels. De voorstellen werden zaterdag gelanceerd als onderdeel van het verkiezingsoffensief dat met de eerste lijsttrekkersdebatten is begonnen. Kaag stelde op het congres van haar partij voor gevaccineerde en negatief geteste burgers meer vrijheid te geven dan anderen. Je kunt toch niet van gevaccineerde mensen verwachten dat ze wachten met leven totdat de laatste prik is gezet? Kaag is ook minister in het kabinet, dat juist nog terughoudend is met onderscheid maken tussen gevaccineerden en de rest van de bevolking. De D66-lijsttrekker wil het vaccinatiebewijs combineren met door de overheid betaalde snel- en zelftests.</t>
   </si>
   <si>
-    <t>Makers van vaccins redden de mens, niet de belegger; Wie farmaceut zegt , zegt overwinsten althans , in sommige kringen . Gewapend met een betonnen octrooiwetgeving kunnen pillendraaiers vragen wat ze willen voor levensreddende medicijnen, is de teneur van de critici. Inderdaad zijn er voorbeelden die het imago van de branche geen goed hebben gedaan. Het sappigste verhaal is van Martin Shkreli, die in 2015 zijn Turing Pharmaceuticals de productierechten liet kopen van het medicijn Daraprim. Prompt ging de prijs van $ 13,50 naar $ 750 per pil. Deze actie leverde Shkreli inmiddels gedetineerd, trouwens de bijnaam meest gehate man van Amerika op. GroenLinks In deze tijden van pandemie zijn de kritische volgers van deze bedrijfstak opnieuw alert. Er gaan al stemmen op om het patent op de diverse vaccins tegen het coronavirus opzij te schuiven. GroenLinks breekt een lans voor dwanglicenties, waaronder de fabrikanten verplicht zijn hun kennis te delen met concurrenten. De fabrikanten met patenten misbruiken hun positie om extra winst te boeken, is de redenering. GroenLinks is niet de enige die kritisch is. Afgelopen week werden de bazen van de grote vaccinfabrikanten stevig aan de tand gevoeld in het Europees Parlement. AstraZeneca minus 3%.</t>
-  </si>
-  <si>
-    <t>Ziekenhuisbezetting daalt met 55; De bezetting in de ziekenhuizen is de afgelopen dag afgenomen . Er lagen in totaal 1809 coronapati nten in het ziekenhuis, van wie 518 op de IC. Gisteren waren die aantallen 1864 en 525. In de afgelopen dag werden er ook 4993 nieuwe positieve coronagevallen gemeld bij het RIVM. Het gemiddeld aantal besmettingen per dag in de zeven voorgaande dagen stijgt daarmee van 4547 naar 4605.</t>
-  </si>
-  <si>
-    <t>Helft van de Forum-stemmers ziet complot; De helft van de mensen die op Forum voor Democratie FVD willen stemmen, denkt dat het coronavirus bewust is ontwikkeld om burgers wereldwijd te onderdrukken. 51 procent denkt dat corona een biologisch wapen is dat in een laboratorium is gefabriceerd. Dat komt naar voren uit onderzoek van Ipsos, in opdracht van Nieuwsuur. De opvattingen van FVD-kiezers over complottheori n wijken behoorlijk af van die van de gemiddelde Nederlander. Onder alle Nederlanders gelooft 11 procent dat het virus bewust is ontwikkeld en 13 procent dat het een biologisch wapen is.</t>
-  </si>
-  <si>
-    <t>'Schrikbarende' lastenverzwaring op komst voor bedrijfsleven; Bedrijven schrikken van de lastenverzwaringen die een nieuwe coalitie van welke signatuur ook in petto heeft. Uit doorrekeningen van het Centraal Planbureau CPB blijkt dat alle partijen extra uitgaven willen financieren door vermogen en winst zwaarder te belasten. Werkgeversorganisatie VNO-NCW waarschuwt dat investeringen daardoor in het gedrang komen. De PvdA gaat het verst, met bijna € 42 mrd aan lastenverzwaringen. De huidige favoriet van de kiezer, de VVD van Mark Rutte, komt ook met een extra rekening van € 3,6 mrd bovenop de € 2 mrd die al in het vat zat. Gemiddeld zou de huidige coalitie op bijna € 9 mrd lastenverzwaring uitkomen, doordat D66 en ChristenUnie de bedrijfslasten met respectievelijk € 15,4 mrd en € 11,4 mrd verhogen en het CDA met € 5,4 mrd. Schrikbarend en zorgelijk Schrikbarend, zegt VNO-NCW in een eerste reactie. En zorgelijk voor Nederland, want zo blijft er minder geld over om te investeren. Dit schaadt de creatie van nieuwe banen en investeringen in klimaat en innovatie, waarschuwen de werkgevers die al zwaar gebukt zeggen te gaan onder de coronacrisis en in te teren op reserves.</t>
-  </si>
-  <si>
-    <t>Verkiezingsdebat: Jetten zegt niet op wie hij stemt; D66-fractieleider Rob Jetten gaat stemmen op een kandidaat die heel creatief campagne heeft gevoerd . Dat is een oproep aan alle D66-kandidaten dat ze mijn stem nog kunnen winnen. Hij zei dit in het verkiezingsdebat van WNL in antwoord op de vraag van presentator Rick Nieman of hij op zichzelf of op lijsttrekker Sigrid Kaag gaat stemmen. Nieman zei pas op, dat zei Ruud Lubbers ook. Hij verwees daarmee naar de uitspraak van oud-premier Lubbers in de verkiezingscampagne van 1994 dat hij niet op CDA-lijsttrekker Brinkman ging stemmen, een moment dat de leiderschapscrisis in het CDA scherp aan het licht bracht. Jetten vond die vergelijking niet van toepassing. Hij zei er alle vertrouwen in te hebben dat Kaag op eigen kracht voldoende stemmen zal halen. Wij zien deze campagne ook echt als teamwork. Bij WNL op Zondag was vanochtend het eerste tv-verkiezingsdebat. De nummers 2 van de VVD Van Ark, de PVV Fleur Agema, het CDA Pieter Omtzigt, D66 Rob Jetten en de SP Renske Leijten en de nummer 3 van de PvdA Henk Nijboer traden met elkaar in het strijdperk. Iedere partij bracht een stelling in en mocht die als eerste een minuut verdedigen.</t>
-  </si>
-  <si>
-    <t>PBL: politieke partijen boeken meeste klimaatwinst met industrie en verkeer; Verminderde uitstoot van broeikasgas moet de komende tien jaar vooral van de industrie en het verkeer komen. Dat blijkt uit een maandag gepresenteerde doorrekening van de verkiezingsprogramma's van CDA, D66, GroenLinks, SP, PvdA en ChristenUnie. Grote afwezige in de berekening van het Planbureau voor de Leefomgeving PBL is de VVD, die het klimaatdeel van zijn partijprogramma niet liet doorrekenen. Het PBL rekent op verzoek van de politieke partijen het effect van hun plannen door op de leefomgeving, zoals het klimaat. Uit de analyse blijkt dat partijen de meeste CO₂-reductie willen halen in de industrie, met een aanscherping van de nationale CO₂-heffing die dit jaar is ingegaan. Industrie n betalen die heffing per ton uitgestoten CO₂. Ook staan er in de verkiezingsprogramma's plannen voor meer openbaar vervoer en minder autorijden, waardoor de Nederlandse broeikasgasuitstoot zal dalen. In andere sectoren, zoals woning- en landbouw, daalt de broeikasuitstoot ook wel, maar minder dan in de industrie. Het PBL heeft daarnaast de stikstofplannen van partijen doorgerekend. Het CDA wil de veehouderij in huidige omvang behouden en gaat voor herstel van bestaande natuur.</t>
-  </si>
-  <si>
-    <t>Ed Nijpels: 'VVD had klimaatplannen moeten laten doorrekenen'; VVD-coryfee en voorzitter van het Klimaatberaad Ed Nijpels vindt het een gemiste kans dat zijn partij de klimaatparagraaf van haar verkiezingsprogramma niet heeft laten doorrekenen door het PBL. Andere grote politieke partijen deden dat wel. Wij hebben al in 2013 tijdens de onderhandelingen voor het Energieakkoord besloten dat het PBL onze onafhankelijke rekenmeester is, of de uitslag ons nou bevalt of niet, zegt Nijpels tegen het FD. Soms pakt de uitslag goed uit en soms slecht. Er mag niet getwijfeld worden aan die onafhankelijkheid. Het is jammer dat de VVD het verkiezingsprogramma niet gewoon aan het PBL heeft gegeven, ook voor de kiezer is dat noodzakelijk. Het PBL rekende het Klimaatakkoord, dat in 2019 werd gesloten door politiek en maatschappelijke organisaties, al door. Voor de VVD is dat reden om af te zien van een doorrekening van de klimaatparagraaf in het eigen verkiezingsprogramma, zei premier Mark Rutte zondagavond tijdens een tv-debat van RTL Nieuws. Voor Nijpels kwam het besluit van zijn partij als een verrassing. Het was sterker geweest als ze dit wel had gedaan. Hier deed de VVD wel aan mee.</t>
-  </si>
-  <si>
-    <t>GL: onderzoek naar zaak-Graus; De Tweede Kamer moet onderzoek doen naar beschuldigingen dat PVV-Kamerlid Dion Graus zijn ex-vrouw heeft aangezet tot seks met zijn beveiligers. Dat zegt fractieleider Jesse Klaver van GroenLinks. Graus is 13de op de PVV-kieslijst.</t>
-  </si>
-  <si>
-    <t>Rutte tegen Klaver: U bent aan het overtoepen! Klaver: 'Er wordt hier gelogen'; VVD-leider Rutte en GroenLinks-leider Klaver krijgen het stevig aan de stok over kernenergie en het klimaat. Rutte waarschuwt Klaver dat hij met al zijn klimaatwensen het draagvlak onder de bevolking verkleint. In Amsterdam is er bijvoorbeeld stevige discussie over de aanleg van windmolens. Er is ook onder GroenLinks-leden veel kritiek op het plan. U bent aan het overtoepen, waarschuwt Rutte. Het is tegen het zere been van Klaver. Hij vindt het slecht dat de VVD de klimaatplannen van de partij niet laat doorrekenen door het Planbureau voor de Leefomgeving. En hij vindt dat zowel Rutte als Hoekstra liegt door te doen alsof kernenergie helpt bij het bereiken van de klimaatdoelen van Parijs. Het bouwen van een kerncentrale duurt zeker wel dertig jaar en binnen tien jaar moet er iets gedaan worden aan het tegengaan van de opwarming van de aarde. Er wordt gelogen door twee leden van het kabinet, stelt Klaver. Rutte en Hoekstra zijn het daar niet mee eens.</t>
-  </si>
-  <si>
-    <t>Geweld bij antilockdowndemo in Dublin; Bij een demonstratie tegen de coronamaatregelen in Dublin zijn zeker 23 mensen opgepakt . Relschoppers raakten slaags met de Ierse politie. Drie agenten raakten gewond. De politie zegt er van tevoren al op gerekend te hebben dat het protest gewelddadig zou worden. De ongeregeldheden waren aangekondigd op sociale media. We waren ons bewust van het protest en wat de intentie was. We hebben ons erop voorbereid en waren uiteraard van plan het in toom te houden, aldus de politiecommissaris. Volgens de politie gooiden relschoppers onder meer met vuurwerk. Verschillende parken waren van tevoren afgesloten door de politie. Demonstranten hadden aangekondigd naar het St Stephen's Green-park te willen marcheren. Ondanks de verhoogde politie-inzet kwamen er toch nog honderden mensen naar het centrum van Dublin, zonder mondkapje. Met wapenstokken werden ze weggehouden van het park. Veel politici reageren met afschuw op de rellen. Vicepremier Leo Varadkar schreef op Twitter Dit gedrag van een paar ego sten ondermijnt de offers die miljoenen mensen de afgelopen twaalf maanden hebben gebracht.</t>
-  </si>
-  <si>
-    <t>'Draagvlak creëren voor wat je wilt bereiken'; Romke de Jong, D66, plaats 24, derde generatie ijsmaker in Gorredijk Foto Marijn Fidder voor het Financieele Dagblad Als ondernemer beslis je vandaag iets en morgen gebeurt het. Als politicus kun je jaren ergens mee bezig zijn voordat er iets gebeurt, en soms gebeurt er zelfs helemaal niets. Maar toch zijn de eigenschappen die je nodig hebt, niet echt anders. Je moet draagvlak cre ren voor wat je wilt bereiken. Dat doet een politicus, maar dat doet een ondernemer ook. Die neemt zijn medewerkers en zijn klanten mee met waar hij naartoe wil met zijn onderneming. De komende regeerperiode staan we echt op een splitsing voor waar we met de Nederlandse economie naartoe gaan. Ik wil dat we de keuze maken voor echt duurzaam ondernemen. We kunnen als Nederland vooroplopen met circulair, duurzaam en maatschappelijk verantwoord ondernemen en daar een unique sellingpoint van maken, ook voor onze export. Daar is een markt voor, omdat het tegenwoordig niet meer alleen om de laagste prijs draait. Onze ijsfabriek is de meest energiezuinige van Nederland. We zijn niet klimaatneutraal, maar klimaatnegatief.</t>
-  </si>
-  <si>
-    <t>Klaver wil onderzoek naar beschuldigingen van seksueel misbruik tegen Graus ; GroenLinks-leider Jesse Klaver wil dat het bestuur van de Tweede Kamer onderzoek doet naar de beschuldigingen van seksueel misbruik aan het adres van PVV-Kamerlid Dion Graus. In het programma Buitenhof zei hij dat hij het 100 procent eens is met zijn vertrekkende fractiegenoot Kathalijne Buitenweg, die donderdag als eerste voor zo'n onderzoek pleitte. NRC schreef twee weken geleden dat Graus gedurende meerdere jaren zijn toenmalige vrouw en fractiemedewerker aanzette tot seks met zijn particuliere beveiligers. Die gedwongen seks zou ook hebben plaatsgevonden in het gebouw van de Tweede Kamer. De krant schreef het stuk op basis van een dossier dat wordt onderzocht door de Rijksrecherche. Politici wilden er niet op reageren, tot Buitenweg donderdag op Facebook het stilzwijgen doorbrak. Buitenweg zei dat met die stilte geen goed signaal werd afgegeven aan mensen die zich hierin herkennen. We kunnen seksueel geweld alleen effectief bestrijden als we heel duidelijk maken dat het onaanvaardbaar is. Signaal Klaver schaarde zich vanmiddag achter Buitenweg. Welk signaal geven wij aan de rest van Nederland als wij niet opkomen voor het slachtoffer? Het presidium moet hier echt goed naar kijken.</t>
-  </si>
-  <si>
-    <t>Nu rondkomen als student? Let op je aanvullende beurs, huur, \xc3\xa9n ga stemmen; Koop groenten op de markt, shop tweedehands online zijn er genoeg lijstjes met tips om het studentenleven financieel vol te houden. Studeren kost kisten vol geld. Op de kleintjes letten is dus goed, maar welke adviezen maken nu echt het verschil? Uit onderzoek van het Centraal planbureau CPB blijkt dat een kwart van de eerstejaarsstudenten in het hoger onderwijs die recht hebben op een aanvullende beurs, er geen gebruik van maken. Zij lopen daarmee maandelijks gemiddeld 175 euro mis. DUO-woordvoerder Martijn Grimmius weet niet waarom het gebeurt Dit wordt momenteel onderzocht. Wij communiceren het nu nog beter. Zo geven we het duidelijk op onze website aan en zijn we in januari gestart om de campagne bijna achttien op middelbare scholen te verspreiden. In deze campagne leren toekomstige studenten wat studiefinanciering is en wat je financieel nodig hebt om je gewenste opleiding te gaan volgen. Daarin geven we ook aan check altijd of je recht hebt op een aanvullende beurs.</t>
-  </si>
-  <si>
-    <t>Politie beëindigt actie Museumplein; Een demonstratie tegen de coronamaatregelen, gisteren op het Museumplein in Amsterdam, is door de politie ontbonden. Volgens de gemeente is een noodbevel van kracht en is het niet toegestaan om nog op het Museumplein te zijn. Ook in Nijmegen is op last van burgemeester Bruls gisterochtend een verkiezingsbijeenkomst van Forum voor Democratie be indigd wegens het overtreden van de coronaregels. Een onbekend aantal mensen heeft een bekeuring gekregen omdat zij bij het uitdelen van folders de anderhalvemeterregel negeerden. Twee mannen zijn gearresteerd wegens opruiing. De bijeenkomst van FvD op het Kelfkensbos trok ook tegendemonstranten, waardoor het te druk werd. Bruls besloot daarop de straat te laten ontruimen.</t>
-  </si>
-  <si>
-    <t>Haagse plannen: hoe de politiek de volgende pandemie bestrijdt; Al een jaar staat alles in het teken van de coronacrisis en dat zal nog wel een tijdje zo blijven, niet in de laatste plaats voor politiek Den Haag. Toch bereiden partijen zich ondertussen ook al voor op de volgende virusuitbraak, als je de verkiezingsprogramma's mag geloven. Bijna alle dertien zittende partijen zeggen dat ze lessen willen trekken uit deze crisis om een volgende pandemie beter te bestrijden. De meeste aandacht gaat uit naar de bestrijding van de gevolgen van een uitbraak. De politiek is de chaotische taferelen van het voorjaar rond beschermingsmiddelen niet vergeten. Niet verwonderlijk, want een rits Tweede Kamerdebatten stond toen in het teken van mondkapjes, handschoenen en schorten voor zorgmedewerkers. Later kwamen daar de strubbelingen over testvloeistof en de testwattenstaafjes ook nog bij. Zwendel en woekerprijzen Dat nooit meer, is het idee. Veel partijen willen een strategische reserve, noodcapaciteit of ijzeren voorraad aanleggen van hulpmiddelen. Wie de spullen moet verzamelen, daarover lopen de meningen uiteen. Ook onder meer VVD en SP mikken erop de binnenlandse pakhuizen te vullen. Hiervoor wenden meerdere partijen hun blik naar Brussel.</t>
-  </si>
-  <si>
-    <t>De laatste, over integriteit; Hilde Sennema Ze stuurde een foto van haar tuin vol krokussen, blij dat ze de lente nog meemaakt. Een tumor in haar hoofd zorgt dat ze niet meer kan lezen en dat ze er binnenkort niet meer is. Ze verontschuldigde zich bij mijn ouders dat ze mijn columns niet meer volgde. Geeft niks, antwoordde mijn moeder, wij lezen ze ook niet altijd. Dat hun vriendin zelf kiest wanneer ze sterft, is iets waar mijn ouders niet aan kunnen wennen. God geeft het leven en neemt het, geloven ze. Maar net zoals ze nu echt wel eens televisiekijken op zondag, zijn ze ook hierover milder geworden. Steeds beter weten ze de wereld buiten de kerk tegemoet te treden. Zonder van hun geloof te vallen sloten ze vriendschappen buiten de zuil, en spreken ze nu met hun humanistische vriendin over goed sterven. Dat vermogen om oude waarden en overtuigingen hun plaats te laten vinden in een nieuwe werkelijkheid is hard nodig op het moment. Je moet, kortom, integreren een woord, besefte ik laatst, dat veel mooier is dan hedendaags gebruik vaak suggereert.</t>
-  </si>
-  <si>
-    <t>Helft FvD-kiezers: 'Corona is ontwikkeld om burgers te onderdrukken'; De helft van de mensen die op Forum voor Democratie FvD willen stemmen, denkt dat het coronavirus bewust is ontwikkeld om burgers wereldwijd te onderdrukken. 51 procent denkt dat corona een biologisch wapen is dat in een laboratorium is gefabriceerd. Dat blijkt uit onderzoek van Ipsos, in opdracht van Nieuwsuur. De opvattingen van FvD-kiezers over complottheori n wijken behoorlijk af van die van de gemiddelde Nederlander en van stemmers op andere partijen. Ter vergelijking onder alle Nederlanders gelooft 11 procent dat het virus bewust is ontwikkeld en 13 procent dat het een biologisch wapen is. Harde kern Volgens Ipsos-onderzoeker Sjoerd van Heck zijn de gematigde stemmers bij FvD verdwenen. Het percentage complotdenkers is groter geworden. Omdat ze nu een kiezersgroep over hebben die hem no matter what trouw blijven. Dit is de harde kern die overblijft. De lijsttrekker van FvD, Thierry Baudet, is een van de weinige politici die elke dag met een grote bus van stad naar stad reizen. Hij voert fysiek campagne en heeft het vooral over corona. In Urk schudde hij iedereen de hand, alsof er geen pandemie is.</t>
-  </si>
-  <si>
-    <t>Na de doorrekeningen is iedere partij klimaatkampioen; Een juichtweet van D66'er Tjeerd de Groot maandagochtend. D66 meest natuurvriendelijke verkiezingsprogramma pakt stikstofcrisis het beste aan!, aldus het Tweede Kamerlid dat najaar 2019 nog een boerenopstand had ontketend met zijn oproep de veestapel te halveren. Om in een volgende zin direct een snoeiharde recensie te geven van de prestaties van twee voormalige coalitiepartijen. CDA/ChristenUnie onvoldoende. Dat kon het CDA natuurlijk niet over zijn kant laten gaan. Een paar uur later twitterde CDA-Kamerlid Jaco Geurts 1 koe minder in Nederland is 4 koeien in Afrika erbij. Geurts haalde het Planbureau voor de Leefomgeving PBL aan, dat zou waarschuwen voor zogeheten weglekeffecten. Een krimp van de veestapel in Nederland zou elders leiden tot een groei van het aantal dieren. Daarom, zei Geurts, is het veel verstandiger om het stikstofprobleem op te lossen met technische innovaties. Selectief winkelen Maandag presenteerden het Centraal Planbureau CPB en het PBL doorrekeningen van de verkiezingsprogramma's. Het CPB keek naar macro-economische effecten van de plannen, het PBL naar gevolgen voor klimaat en natuur. Over de eigen plannen niets dan lof, terwijl van de electorale opponenten vooral de minpunten werden benoemd.</t>
-  </si>
-  <si>
-    <t>Het geld van de gemeenten raakt op, en dat gaat iedereen merken; Gemeentefinanci n Slechts twaalf gemeenten staan onder curatele, maar uit 336 toezichtbrieven blijkt dat vrijwel alle gemeenten financi le problemen hebben.,Wat is het nieuws? 120 van de 355 gemeenten hebben geen sluitende begroting voor 2021 kunnen maken. Vrijwel alle andere gemeenten hebben moeten bezuinigen of de lasten moeten verhogen om tot 2024 sluitende begrotingen te maken. 12 gemeenten staan onder curatele van de provincie. Maar dat cijfer verhult volgens provinciale en gemeentelijke politici de problemen van veel lokale overheden. Provincies waarschuwen dat gemeenten extra kosten moeten maken vanwege de coronacrisis. Ook voor nieuw beleid zoals het klimaatakkoord hebben gemeenten geld nodig. Lees het volledige nieuwsbericht Derde van gemeenten in geldnood Speeltuinen, bibliotheken, zwembaden, de muziekschool en het enige theater in de regio. Johan Hamster, wethouder Financi n ChristenUnie van Stadskanaal, bezuinigt al tien jaar op alles wat los en vast zit. Ook over de eigen ambtenaren en het welzijnswerk is de kaasschaaf gegaan, vertelt hij. Alleen door de lasten voor inwoners te verzwaren, lukte het de gemeente voorzieningen open te houden. Tot dit jaar. Het ging de gemeenteraad te ver.</t>
-  </si>
-  <si>
-    <t>Wilders in de schijnwerpers; Wilders in de schijnwerpers Den Haag Wilders tegen de rest . Dat was zondagavond de teneur bij het verkiezingsdebat van RTL. Meerdere lijsttrekkers probeerden Mark Rutte VVD te vloeren nu die in de peilingen nog steeds fier aan kop staat. Dat lukte niet. Het was vooral Wilders die opviel. Zo wist hij Sigrid Kaag D66 op de kast te krijgen met een discussie over diversiteitsquota. Dat k n toch niet, riep ze uit toen Wilders zei dat hij niet houdt van dit soort quota, maar wel graag iemand van kleur wil nomineren voor de positie van minister van Cultuur, namelijk Zwarte Piet. GL er Jesse Klaver ging onderuit door te stellen dat Ronald Koeman nog bondscoach van Oranje is. Dat hij inmiddels allang bij FC Barcelona zit, was hem kennelijk ontgaan.</t>
+    <t>Loyaal rolmodel van PostNL, maar wel 'over de rug van flexwerkers'; Profiel Herna Verhagen Herna Verhagen presenteert maandag als bestuursvoorzitter voor de negende keer de cijfers van PostNL, dat vooral profiteert van de coronacrisis. Op Valentijnsdag, ruim twee weken geleden, kreeg PostNL zelf eens een liefdesbrief, van Anna Dolanska. Deze 37-jarige Poolse werkt al negen jaar -'s nachts in het distributiecentrum van PostNL in Utrecht, zo meldde dagblad de Gelderlander onlangs. Maar ze is er niet in dienst. Ze werkt er via uitzendbureau Tempo Team, en wil dolgraag in dienst bij haar liefde PostNL. Ze grijpt dus naast de coronabonus van 250 euro, die het vaste personeel krijgt. Tweehonderd uitzendkrachten kregen een vaste baan, maar daar zat Anna Dolanska niet bij. De hartekreet van de Poolse was bedoeld voor Herna Verhagen 54, die maandag als bestuursvoorzitter alweer voor de negende keer de jaarcijfers presenteert van het beursgenoteerde post- en pakkettenbedrijf. Het wordt een bijeenkomst met twee gezichten. Financieel gaat het door de coronacrisis uitstekend met het beursgenoteerde post- en pakkettenbedrijf. De pakketjes zijn niet aan te slepen, waardoor omzet en winst sterk groeien. De beurskoers is hersteld. Verhagen een rolmodel.</t>
+  </si>
+  <si>
+    <t>Hoogste bestuursrechter liet forse steken vallen in toeslagenaffaire; Pia Lokin-Sassen CDA De affaire rond de kinderopvangtoeslagen zal nog lang blijven nadreunen. Vorige week kwam de onderzoekscommissie onder leiding van Tweede Kamerlid Andr Bosman VVD tot de conclusie dat het tussen instanties aan vertrouwen ontbreekt. En na het eerdere parlementair onderzoek haalt de Tweede Kamer ook zijn zwaarste middel, een echte parlementaire enqu te, uit de kast om in het schandaal de onderste steen boven te krijgen. Ondertussen wijst in Den Haag de ene overheidsinstantie naar de andere, om een schuldige van de ellende te benoemen. Zo ook de afdeling Bestuursrechtspraak van de Raad van State. Deze wijst, bij monde van voorzitter Bart Jan van Ettekoven, naar de wetgever, die hoofdverantwoordelijk zou zijn voor de affaire. In zijn kielzog stelt ook Herman Tjeenk Willink, voormalig vicepresident van de Raad van State, dat de Kamer als medewetgever zelf in de spiegel moet kijken. Zowel de Wet kinderopvang Wko als de Algemene wet inkomensafhankelijke regelingen Awir zouden zo dwingendrechtelijk zijn geformuleerd dat er voor de bestuursrechter geen ruimte was om te toetsen aan de beginselen van behoorlijk bestuur.</t>
   </si>
   <si>
     <t>D66-leider Kaag wil alvast open voor wie gevaccineerd is; Mensen die gevaccineerd zijn, moeten met een vaccinatiebewijs snel meer vrijheden krijgen, vindt D66-lijsttrekker Sigrid Kaag. Zij wil vaccinatie belonen door voor deze groep de coronamaatregelen te versoepelen. Voor anderen die nog wachten op een vaccin, moeten er gratis sneltesten komen. Horeca, onderwijs, winkels en voetbalstadions kunnen zo eerder en veilig open, denkt D66. Je kunt niet van gevaccineerde mensen verwachten dat ze wachten met leven totdat de laatste prik is gezet, aldus Kaag. Zij pleit ervoor om de vrijheid te omarmen die het vaccineren kan brengen, ook als dat tijdelijke maatschappelijke tweedeling met zich meebrengt, sprak ze zaterdagmiddag op het online verkiezingscongres van D66. Met het plan levert D66-lijsttrekker Kaag stevige kritiek op het coronabeleid van het kabinet, waar Kaag zelf als minister deel van uitmaakt. Het kabinet staat zeer afhoudend tegenover het idee van vaccinatiebewijzen, omdat dat betekent dat de overheid verschil gaat maken in de behandeling van mensen die wel en niet gevaccineerd zijn. Volgens Kaag zijn toch nodig. D66 gaat de campagne in door zich flink af te zetten tegen het coronabeleid van het kabinet.</t>
   </si>
   <si>
-    <t>CPB: partijen schuiven lasten door naar de toekomst; Doorrekening Zorg , onderwijs en de burger gaan er de komende jaren op vooruit . Dat blijkt uit doorrekening van tien verkiezingsprogramma s.,Hogere overheidsuitgaven in de komende kabinetsperiode, vooral in de zorg en het onderwijs, een lichte koopkrachtverbetering en doorschuiven van de financi le lasten naar toekomstige generaties. Dat zijn opvallende overeenkomsten in de doorrekening van de verkiezingsprogramma ’s door het Centraal Planbureau CPB, die maandagochtend is gepubliceerd. Het expansieve begrotingsbeleid extra investeringen om de economie aan te jagen leidt bij vrijwel alle partijen tot een verslechtering van de overheidsfinanci n in 2025. Dat uit zich met name in een hoger begrotingstekort. Van de 37 partijen die over twee weken meedoen met de Tweede Kamerverkiezingen, lieten er tien hun programma op macro-economische effecten doorrekenen. Van de huidige Tweede Kamerfracties hebben PVV, Partij voor de Dieren en Forum voor Democratie hun plannen niet bij het CPB laten toetsen. Ook het Planbureau voor de Leefomgeving PBL kwam maandag met een doorrekening van de verkiezingsprogramma ’s, op de effecten op milieu, en klimaat. Aan die toets deden maar zes partijen mee. Het CPB benadrukt dat de doorrekening van de individuele programma ’s vooral van relatieve waarde is.</t>
-  </si>
-  <si>
-    <t>Veel woede over schip met 1.800 koeien dat al twee maanden op zee dobbert; De woede van dierenrechtenorganisaties groeit over een schip met bijna achttienhonderd koeien dat al ruim twee maanden op zee dobbert. De ElBeik voer van Spanje naar Turkije, een reis van negen dagen, maar mag niet aanmeren omdat de dieren mogelijk het blauwtongvirus bij zich dragen. De dieren mochten van de Turken niet van boord. Volgens The Guardian heeft de eigenaar van het schip inmiddels geprobeerd in Libi en Egypte een andere koper te vinden, maar dit is niet gelukt. De dieren zijn al ruim twee maanden niet van het schip af geweest. Veel Europese dierenrechtenorganisaties maken zich woest over de gang van zaken en zeggen dat de koeien in de hel verkeren. Het is onduidelijk hoeveel dieren inmiddels zijn overleden door de hitte, de uitputting en de stress. De boot ligt momenteel in de haven van Famagusta, een stad aan de oostkust van Cyprus nabij de grens met Republiek Cyprus. Een ander schip met koeien keerde terug naar Spanje De ElBeik is niet het enige schip in deze situatie. Ook de Karim Allah vertrok op 18 december uit Spanje, met 895 dieren aan boord.</t>
-  </si>
-  <si>
-    <t>Kaag versus Wilders: U met uw zielige Zwarte Piet!; Kaag ergert zich aan de opmerking van PVV-leider Wilders over Zwarte Piet en vindt dat het belangrijk is om discriminatie hard aan te pakken. Dan begint u weer met die zielige Zwarte Piet, bijt ze hem toe. Rutte probeert ook Wilders uit zijn tent te lokken door hem te herinneren aan zijn complimenten over het werk van Kamervoorzitter Arib, die van Marokkaanse afkomst is. Wilders wil wel een nieuwe Kamervoorzitter, omdat hij wil dat zijn partijgenoot Bosma het wordt.</t>
-  </si>
-  <si>
-    <t>En toch is Rutte erbij in verkiezingsdebat van de nummers twee; aanloop 17 maart Niet de lijsttrekkers, maar de runners up van zes partijen kruisten zondagochtend de degens in het verkiezingsdebat van WNL op Zondag. De omroep die een vrolijk rechts geluid belooft, had zich voorgenomen er ook een vrolijk debat te maken, met ludieke introducties van de deelnemers CDA'er Pieter Omtzigt werd weer eens een pitbull genoemd en de kijker weet nu dat VVD-minister Tamara van Ark koekblikken spaart en een fragment van de Amerikaanse komiek Jerry Seinfeld, die grapte dat de nummers twee eigenlijk de eerste verliezers zijn. Desondanks werd het debat bij vlagen uiterst wrevelig. Deels kwam dit door diezelfde opzet van het programma, met zes partijen VVD, PVV, CDA, D66, PvdA en SP die om aandacht moesten vechten in een free for all. Voor veel meer dan een paar snedige oneliners was vaak geen tijd. Wacht effe, dit is geen spelshow, schoot Omtzigt uit zijn slof, nadat WNL-presentator Rick Nieman hem had gemaand niet te ver af te dwalen. Ik geloof dat het best lastig is, Renske, om mij uit te laten praten....</t>
-  </si>
-  <si>
-    <t>Naast groen en digitaal wil Brussel ook sociaal zijn; Sinds de Europese Commissie onder leiding van Ursula von der Leyen in december 2019 van start ging, horen we bijna wekelijks over groene plannen, digitale transformatie en de mate waarin de EU zichzelf kan bedruipen op het wereldtoneel, oftewel strategische autonomie. Het zijn de drie pijlers waar bijna alle initiatieven van Brussel bij onder te schuiven zijn. Volksgezondheid is er door de coronacrisis natuurlijk bijgekomen. En er is er nog eentje en die staat komende week centraal sociaal beleid. Woensdag presenteert Eurocommissaris Nicolas Schmit banen en sociale rechten een actieplan voor de implementatie van de Europese pijler voor sociale rechten die alweer uit 2017 dateert. Die pijler bevat twintig beginselen die lopen van toegang tot onderwijs naar toegang tot sociale woningen, gepaste opvang van daklozen en eerlijk loon. Het actieplan wordt door velen in Brussel gezien als een noodzaak. Er is groeiende ongelijkheid in de samenleving. Door de opmars van de platformwerkers is er steeds minder baanzekerheid en de kosten voor huisvesting rijzen de pan uit en worden voor steeds meer mensen ondraaglijk. Denk anders nog maar eens aan de afloop van het Britse brexitreferendum.</t>
-  </si>
-  <si>
-    <t>Precies een jaar sinds de eerste positieve test: zo begon de crisis; Nederland leeft zaterdag al precies een jaar met het coronavirus . Op 27 februari 2020 maakt toenmalig minister Bruno Bruins Medische Zorg bekend dat voor het eerst een besmetting is geconstateerd. De pati nt is niet heel ziek, maar uit voorzorg opgenomen in het ziekenhuis in Tilburg. Een terugblik op het begin van de crisis die daarna losbarstte. De Nederlandse overheid gaat er begin 2020 nog van uit dat SARS-CoV-2 de offici le naam van het virus helemaal niet zo gevaarlijk is. Het harde ingrijpen van de Chinese autoriteiten in Wuhan, waar de eerste grote uitbraak was, wordt in het westen vaak in verband gebracht met de autoritaire regeerstijl van de Chinese communistische partij. Niet zo heel besmettelijk Geruststellende woorden overheersen. Zo meldt het RIVM eind januari De ziekte lijkt, met wat er nu bekend is, niet zo heel besmettelijk. Halverwege februari brengt het instituut een kort filmpje naar buiten waarin het uitlegt waarom we ons geen zorgen hoeven te maken over COVID-19. Een dag voordat het nieuws over de eerste pati nt naar buiten komt, benadrukt ook de GGD dat paniek niet nodig is. Dat wordt echter pas maanden later duidelijk.</t>
-  </si>
-  <si>
-    <t>De uitzending van 28 februari: Leerachterstanden / Trump de 'onbetwiste leider' / Verkiezingsdebat; De worsteling met leerachterstanden Morgen gaan ook in het midden en het noorden van het land de basisscholen weer open. De scholen krijgen 180.000 euro van het kabinet, om de kinderen te helpen bij het inlopen van hun achterstand, na al die maanden thuisonderwijs. Nieuwsuur kijkt op twee zeer verschillende scholen hoe de leerlingen er voor staan. Trump nog steeds de onbetwiste leider Trump 2024-petjes, America First-mondkapjes en zelfs een gouden standbeeld van Donald Trump. Het is allemaal te zien bij de Conservatieve Politieke Actie Conferentie CPAC het jaarlijkse feestje voor conservatief Amerika. Het evenement in Florida ademt de idee n van voormalig president Donald Trump. We zijn aanwezig en spreken met enkele prominente Trump-aanhangers. Het tweede grote verkiezingsdebat De partijleiders van de VVD, PVV, CDA, D66, SP en GroenLinks staan vanavond tegenover elkaar in het RTL-verkiezingsdebat. Wordt het alle ballen op de tot dusver haast onoverwinnelijke Rutte? En hebben zijn tegenstanders daarbij ook een andere strategie voor ogen dan de afgelopen tijd? We schakelen met politiek duider Nynke de Zoeten.</t>
-  </si>
-  <si>
-    <t>Vraag van de eigenaresse van een couscousbar aan PVV-lijsttrekker Wilders; Nadia wil van Wilders weten hoe zij het aan haar zoon moet uitleggen dat hij als tweederangsburger, geboren en getogen in Nederland, wordt weggezet. Wilders bestrijdt dat hij dat doet. Het gaat hem om de instroom van niet-westerse allochtonen, zegt hij. Nadia en Wilders komen in een heftige discussie terecht, over de islam en over de invloed van andere culturen. Wilders Nederlanders zijn vreemden in hun eigen land geworden. De invloed van de politieke islam is onwenselijk. Nadia Bent u ineens theoloog of zo? Ze nodigt hem uit voor couscous. Dat hoeft voor Wilders niet, maar hij wil wel met haar in gesprek.</t>
-  </si>
-  <si>
-    <t>Eigenaar vraagt SP-leider om met zzp'ers te kunnen blijven werken; Een eigenaar die games ontwerpt wil graag met zzp'ers blijven werken en is bang dat de SP dit soort contracten helemaal wil verbannen. Marijnissen wil dat helemaal niet, zegt ze. Haar partij komt volgens haar vooral op voor werknemers die gedwongen worden om als zzp'er te werken, zoals koeriers van eten en pakketjes.</t>
-  </si>
-  <si>
-    <t>Eindhoven: kom niet naar de koning op 27 april; De koning bezoekt dit jaar op zijn verjaardag Eindhoven , in het kader van Koningsdag . De gemeente roept mensen echter op niet datzelfde te doen. Dit jaar vieren we het grootste Oranjefeest thuis, zegt de gemeente. Anders dan anders, maar wel live, interactief en veelzijdig. Ontdek wat Eindhoven te bieden heeft en vier het feest met ons mee! Eind maart wordt het volledige programma bekendgemaakt. Vorig jaar zou Koningsdag in Maastricht gevierd worden, maar dat ging vanwege de coronapandemie niet door. Ook koning Willem-Alexander bleef toen thuis. De Limburgse stad wilde niet dit jaar alsnog Koningsdag organiseren, maar wacht liever op een jaar waarin er geen beperkingen meer gelden.</t>
-  </si>
-  <si>
-    <t>Baudet beschuldigd van kiezersbedrog door komst windmolens; De lijsttrekker van Forum voor Democratie, Thierry Baudet voelt zich niet aangesproken dat zijn partij in Brabant beschuldigd wordt van kiezersbedrog. Als we genoeg zetels hadden gehad, hadden we de boel om kunnen gooien, zegt de zelfverklaarde partijkartelbestrijder. In Noord-Brabant werd FvD de n na grootste partij en maakt er deel uit van het provinciebestuur, samen met CDA en VVD. Maar Brabander Pascal Spelier is teleurgesteld. Hij is voorzitter van de actiegroep Groen in Zicht met 600 leden en vecht windturbines in Brabant aan. We hebben Forum voor Democratie beticht van kiezersbedrog, omdat ze van windturbines, waar ze tegen zouden zijn, een groot punt hebben gemaakt in het verkiezingsprogramma. In het Brabantse coalitieakkoord zegt FvD een betrouwbare partner van het klimaatakkoord te zijn en ontkomen we niet aan het plaatsen van windmolens op Brabants grondgebied om die doelstellingen te halen. En dus komen er naar het zich laat aanzien een vijftigtal windturbines van zo'n 200 meter hoog tussen Oss en Den Bosch. Spelier Bij nader inzien blijkt de stelligheid waarmee FvD zich uitspreekt tegen windturbines vooral verkiezingsretoriek te zijn geweest.</t>
-  </si>
-  <si>
-    <t>Dode en gewonde door zuurstofexplosie corona-afdeling Oekraïne; In een ziekenhuis in Tsjernivtsi, in het westen van Oekra ne, zijn op de corona-afdeling een dode en een gewonde gevallen door een explosie. Een zuurstofleiding ontplofte, waarna er brand ontstond. Twintig mensen konden op tijd worden ge vacueerd. Het is het tweede soortgelijke incident in korte tijd in Oekra ne. Begin deze maand overleden een dokter en drie pati nten in Zaporizja, in het zuidoosten van Oekra ne, nadat er brand was ontstaan op een IC door een zuurstoflek.</t>
-  </si>
-  <si>
-    <t>Verkiezingsdebat trapt af met corona; Moet de reguliere zorg weer voorrang krijgen over de coronazorg, ook al zou dat leiden tot meer coronadoden? Met die ethische vraag trapte het RTL-verkiezingsdebat zondag af. Na een jaar pandemie dreigen nog steeds overvolle ic's, terwijl steeds meer stemmen opgaan om de coronarestricties te versoepelen. Maar die stelling leverde weinig vuurwerk op oppositie en coalitiepartners waren het met elkaar eens de politiek mag niet op de stoel van de arts gaan zitten. Veel ongemakkelijker waren de een-op-een ontmoetingen met kiezers. Zo moest D66-lijsttrekker Sigrid Kaag aan een melkveehouder uitleggen waarom de veestapel volgens haar partij moet worden gehalveerd, terwijl CDA'er Wopke Hoekstra een welhaast failliete caf baas en zijn vrouw geen zekerheid kon geven over hun financi le toekomst. Premier Mark Rutte kwam tegenover een gedupeerde ouder in de toeslagenaffaire te staan. Traditioneel geldt het eerste tv-debat tussen de lijsttrekkers van de grote partijen als het startsein voor kiezers om te gaan nadenken op wie zij hun stem willen uitbrengen, vaak met grote electorale verschuivingen tot gevolg.</t>
-  </si>
-  <si>
-    <t>Park Breda en terras in Gelderse Laren ontruimd; Aan het begin van de avond is park Valkenberg in Breda door de politie ontruimd . Volgens de politie was dat nodig omdat de coronaregels niet werden nageleefd. De ontruiming verliep niet vlekkeloos. Vier mensen werden aangehouden omdat ze spullen naar de politie gooiden. Eerder vandaag ging het Amsterdamse Vondelpark opnieuw dicht vanwege te grote drukte. Dat leidde voor zover bekend niet tot incidenten. Ook in Laren in Gelderland greep de politie in. Een restaurant in de Dorpsstraat had mensen opgeroepen langs te komen in het kader van een actie genaamd unlock de horeca. Daar werden kaarsjes aangestoken. Volgens Omroep Gelderland werd het te druk bij het terras en werd daarom besloten tot ontruiming. E n man werd aangehouden vanwege belediging.</t>
-  </si>
-  <si>
-    <t>Sportscholen demonstratief open: 'Bewegen is nu hard nodig'; Zaterdagochtend half negen , op het dak van Tino Hoogendijk Sport Fitness in Vlaardingen. Instructeur Marco Seij 51 zweept de boel nog eens extra op. Tikkie erbij, jongens, roept hij naar de twee sporters op hometrainers aan weerszijden van hem. De uit de kluiten gewassen mannen volgen zijn orders gedwee glimlachend op. Maar het is nog niet genoeg. Een paar tellen later Vier, drie, twee, n... J, goed zo jongens! Dit gaat goe-hoed! Over de aangrenzende, nagenoeg lege parkeerplaats galmt een housebeat. Op bescheiden volume, om de omwonenden op deze zaterdagochtend niet te storen. Na een minuut of twintig zit het pittige lesje op het dak er op en stappen de twee deelnemers hijgend van de fiets af. Er wordt gewisseld, op een manier die voldoet aan de RIVM-normen. Eerst de sporters die klaar zijn het dak af, dan de sporters die klaar staan het dak op. Nee, ideaal is het niet en een echte sportles eigenlijk ook niet. Niet eerder stonden ze hier op het dak. Hij heeft de hometrainers zelf met een kraan naar boven laten takelen.</t>
-  </si>
-  <si>
-    <t>Het geheim voor een mooi leven; Het geheim voor een mooi leven Frits de Lange De laatste fase van je leven kan nog wel dertig jaar duren. Foto Jos Schuurman Hummie van der Tonnekreek. Foto Matty van Wijnbergen Yoga is een van de populaire bezigheden waardoor ouderen zich vitaal blijven voelen. Foto 123RF Oude dag Hoogleraar ethiek Wijs worden, dat kunnen we allemaal Aan de vooravond van zijn pensioen zag Frits de Lange al op tegen de ouderdom. Niet aantrekkelijk het is of aftakelen en verlies, of krampachtig jong blijven. Hij cre erde een derde optie Wijs worden, dat is voor iedereen weggelegd. En hij past ervoor om opzij te gaan voor de jonkies. Marie-Thérèse Roosendaal Door de jaren heen schreef Frits de Lange veel over wat het betekent om oud te worden. Of te zijn. Nu, met zijn pensionering voor de deur, keek de hoogleraar ethiek aan de Protestantse Theologische Universiteit Groningen daar met nieuwe ogen naar. Hij bedacht dat het geheim van een mooie tweede levenshelft schuilt in wijsheid. Zoom uit! Kijk over je ego heen. Ik ben een prille 65-plusser, ik noem het zelf oudere-in-opleiding. Jong en vitaal Alleen maar na-sudderen.</t>
-  </si>
-  <si>
-    <t>Manifestatie FvD afgebroken, aanhangers bekeurd voor flyeren zonder afstand; In Nijmegen is een campagnebijeenkomst van Forum voor Democratie met Thierry Baudet eerder be indigd . Dat gebeurde op last van burgemeester Bruls, meldt Omroep Gelderland. Het was op de bijeenkomst te druk, ook omdat er tegendemonstranten op afkwamen. De gemeente kwam daarop met een noodbevel. De politie heeft ook een onbekend aantal mensen bekeurd omdat zij folders uitdeelden zonder daarbij 1,5 meter afstand te houden. Flyeren mag volgens de politie alleen als de folders niet van de ene hand in de andere worden gegeven. Twee mannen zijn opgepakt wegens opruiing.</t>
-  </si>
-  <si>
-    <t>Een vraag van een slachtoffer van de toeslagenaffaire aan VVD-lijsttrekker en demissionair premier Rutte; Hoe wil Rutte het vertrouwen terugwinnen ? vraagt Kristie. U heeft mij in de steek gelaten. Rutte zegt begrip te hebben voor de situatie waar de ouders in terechtgekomen zijn. Hij noemt het een schandvlek en een debacle. Maar hij vraagt toch om vertrouwen dat hij de problemen gaat oplossen. Jullie zijn geen fraudeurs, dat wil ik hier gezegd hebben, zegt Rutte. Kristie zegt dat zij geen goede rechtshulp heeft gekregen omdat daarop is bezuinigd door het kabinet. Rutte zegt dat die zaken geen verband houden. De ouders is onrecht aangedaan, zegt hij. Jullie krijgen alle advocatenhulp die er nodig is, is zijn toezegging.</t>
-  </si>
-  <si>
-    <t>Stemwijzer; Stemwijzer Nog twee weken tot de verkiezingen en ik verheug me enorm op de komende tijd. Het lijkt me heerlijk om even in die bubbel te kruipen waar je niets anders hoort dan het kloppende hart van onze democratie, in plaats van het amechtig gehijg van een land dat na een jaar corona op apegapen ligt. Op televisie en in de weekeindebijlages van de kranten werd bijna gretig teruggeblikt op het jaar, vanaf het moment dat toenmalig minister van Volksgezondheid Bruno Bruins het briefje in zijn hand kreeg gedrukt waarmee voor ons de crisis begon, tot aan de eensluidende conclusie van iedereen die er verstand van heeft corona is een blijvertje. We zullen ermee moeten leren leven. Maar nu even niet. Doe mij voorlopig alleen verkiezingsnieuws. De komende twee weken gaat het om de poppetjes, want dat is onze verkiezingstraditie in campagnetijd zijn de poppetjes, vreemd genoeg, belangrijker dan de inhoud. Het is eigenlijk bizar dat het vooral om de beeldvorming draait. Maar toch doe mij poppetjes in plaats van corona. oud-premier dat ooit letterlijk deed door van een skateboard te vallen. ik zweef.</t>
-  </si>
-  <si>
-    <t>Oud-vluchtelingen popelen om het parlement in te gaan; Op de kandidatenlijsten voor de Tweede Kamer staan dit keer opvallend veel mensen met een vluchtelingen-achtergrond. Zeker tien van hen zijn ooit met hun ouders naar Nederland gevlucht. De meeste in de jaren 90, vooral uit het Midden-Oosten. Wat zijn hun drijfveren en ambities? Iemand die verzekerd lijkt van een Kamerzetel is Ulysse Ellian. Hij staat op plaats 22 op de lijst van de VVD. Ellian, advocaat van beroep, woont in Almere. Hij vluchtte als baby met zijn ouders uit Afghanistan. Zijn vader, rechtsgeleerde en publicist Afshin Ellian, vluchtte daar eerder al heen vanuit Iran. Ik stel mij verkiesbaar voor de VVD omdat die partij voor vrijheid en eigen verantwoordelijkheid staat, verklaart hij zijn keus. Het idee je kan er wat van maken als je echt wilt, zonder continu hulp te vragen. Je bent vrij om je eigen keuzes te maken. Dat idee leeft sterker bij de VVD dan bij andere partijen. Het beschermen van die vrijheid is zijn belangrijkste drijfveer om de landelijke politiek in te gaan. Ik zie dat dat niet meer vanzelfsprekend is.</t>
-  </si>
-  <si>
-    <t>Lijsttrekkers: alle ballen op Rutte; Lijsttrekkers alle ballen op Rutte V.l.n.r . Wopke Hoekstra CDA, Mark Rutte VVD, Geert Wilders PVV, Lilian Marijnissen SP, Jesse Klaver GL en Sigrid Kaag D66 voorafgaand aan het RTL Verkiezingsdebat. Foto ANP/HH Premier doelwit concurrenten in RTL-debat Van onze parlementaire redactie Den Haag Alle ballen op Mark Rutte. Dat lijkt in aanloop naar de verkiezingen de strategie te zijn van veel politieke partijen. Ook bij het verkiezingsdebat van RTL Nieuws kozen veel lijsttrekkers zondagavond voor die koers. Meteen al bij de eerste stelling over corona en de druk op ziekenhuizen gaan PVV, SP en D66 voor de schenen van de premier. In die vliegende tackle wordt meteen CDA meegenomen. Geert Wilders PVV verwijt het zijn twee grootste concurrenten dat zij de zorg hebben verwaarloosd, net als Lilian Marijnissen SP die eveneens treurt om de staat van de zorg. Sigrid Kaag D66 gooit het over een andere boeg en wijst er fijntjes op dat VVD en CDA ooit hebben overwogen om de politiek te laten besluiten wat er moet gebeuren als coronapati nten de ic ’s overspoelen. Zenuwen Het debat van RTL Nieuws liep niet bepaald vlekkeloos. Mark Rutte Zo vreemd.</t>
-  </si>
-  <si>
-    <t>De uitzending van 27 februari: Verkiezingsspecial: in gesprek met Thierry Baudet / Corona-uitbraak onder kleuters; In gesprek met Thierry Baudet Saai is het nooit, als het over Forum voor Democratie gaat. De partij kwam met donderend geraas het politieke bestel binnen, behaalde een historische overwinning bij de Provinciale Statenverkiezingen in 2019, maar nadien gebeurde er van alles. In onze serie interviews met de 13 belangrijkste lijsttrekkers kijken we hoe de partij ervoor staat, ruim twee weken voor de verkiezingen. Te gast vanavond Thierry Baudet. Corona-uitbraak onder kleuters Maandag beginnen de basisscholen weer in het midden en noorden van het land, met alle speciale coronaregels die daarbij horen. Maar een opvallende uitbraak op een Amsterdamse basisschool, vorige week, maakt schoolleiders en leraren toch bezorgd. We spreken de Onderwijsbond.</t>
-  </si>
-  <si>
-    <t>Kernenergie in de verkiezingsprogramma's ; Even de verkiezingsprogramma's erop nageslagen . Hier de standpunten op een rij VVD Nakomen van internationale klimaatafspraken uit het Verdrag van Parijs, voor het bereiken van deze doelen geen technieken uitsluiten en kernenergie dus ook niet. PVV Kerncentrales bouwen is een goede oplossing. Thoriumcentrales zijn een optie voor de toekomst. CDA Kernenergie na 2030 is serieuze optie. D66 Kernenergie, op voorwaarde dat het duurzaam, betrouwbaar en betaalbaar kan. GL Kernenergie is geen optie. SP Kernenergie is niet veilig en schoon. De kolencentrales worden gesloten, net als de kerncentrale bij Borssele.</t>
-  </si>
-  <si>
-    <t>Loonkloof is nog altijd niet gedicht; Stond het dichten van de loonkloof in het onderwijs bij de vorige verkiezingen nog in geen enkel partijprogramma, nu noemen zeven partijen het expliciet. Maar grote regeringspartijen als VVD en CDA doen geen beloftes. De salarissen van leraren die lesgeven op een basisschool gelijktrekken met hun collega's die op een middelbare school werken, kost geld. Veel geld. Als het eindsalaris van een leraar op de basisschool hetzelfde wordt als van een collega op de middelbare school, kost dat de overheid een half miljard euro per jaar. Maar ga je lles gelijktrekken zelfde salarisschalen, eindejaarsuitkering en vakantiegeld loopt dat op tot een kleine 1 miljard euro per jaar. D66 en GroenLinks hebben al laten weten 900 miljoen euro per jaar te willen uittrekken om de loonkloof te dichten. Startsalaris Hoewel het startsalaris fors lager ligt, verdiende een fulltime basisschoolleraar in 2020 gemiddeld 4470 euro bruto per maand exclusief eenmalige uitkeringen en een docent op een middelbare school 5330 euro, stelt het ministerie van Onderwijs. Een gat van 860 euro per maand. Als het aan de SP ligt, gebeurt dat dit jaar w l.</t>
-  </si>
-  <si>
-    <t>Kaag (D66) wil meer vrijheden toestaan met vaccinatiebewijs; Kaag deed haar uitspraken zaterdagmiddag op een D66-congres in Veldhoven.,, Laten we als Nederland een voorbeeld nemen aan Isra l, waar gevaccineerde mensen weer toegang krijgen tot het maatschappelijk leven, zei ze.,, En geef degene die het vaccin nog niet heeft gehad dezelfde vrijheid met een negatieve test in de achterzak. Kaag,, Er lijkt bijna een taboe te liggen op het woord vaccinatiebewijs. Maar toch is dat precies wat we nodig zullen hebben. Een moderne versie van, wie kent het niet, het gele boekje. Uiteraard met de garantie van tijdelijkheid, privacyvoorwaarden en het liefst op Europees niveau. Ook wil Kaag dat de overheid gratis snel- en zelftesten verstrekt. ,, We kunnen het leven veilig weer op gang brengen voor al die jongeren en volwassenen die nog niet aan de beurt zijn geweest. Met gratis snel- en zelftesten kunnen hogescholen, universiteiten, sportstadions, restaurants, caf s en winkels weer opengaan. Dit moet volgens Kaag gebeuren als het vaccinatietempo op orde is. De Europese Commissie komt in maart met voorstellen voor een vaccinatiecertificaat.</t>
-  </si>
-  <si>
-    <t>FvD'ers houden afstand in Oss, maar ondernemers voelen toch ongemak; Forum voor Democratie-leider Baudet hield vanochtend een verkiezingsbijeenkomst in Oss en haalde daar zoals vaker hard uit naar het coronabeleid van het kabinet. Waar het in Urk mis leek te gaan en Baudet en zijn aanhangers zich niet aan de coronaregels hielden, bleven de zo'n 150 aanwezigen nu op voldoende afstand van elkaar. Ook al zijn verkiezingsmanifestaties toegestaan, burgemeester Wobine Buijs-Glaudemans van Oss houdt toch een ongemakkelijk gevoel over aan de bijeenkomst. De uitbundigheid van de manifestatie voelt niet goed in relatie tot onze dagelijkse covid-werkelijkheid, zegt ze tegen Omroep Brabant. Het voelt als een dikke middelvinger naar de ondernemers, reageert Wouter Weeberg van het centrummanagement Oss. Het is gewoon een klein evenement en als dat dan op anderhalve meter met lijnen en kruizen toch mag, waarom mogen horecazaken dan niet de terrassen buiten hebben staan op voldoende afstand? Baudet trok al snel weer door. In de middag stond zijn verkiezingskaravaan in Den Bosch.</t>
-  </si>
-  <si>
-    <t>Lezersreacties; Vertaling Als schrijfster kan Marieke Lucas Rijneveld zich als geen ander inleven in een ander. Tot mijn verdriet geeft ze de opdracht terug voor de vertaling van het beroemd geworden gedicht The Hill We Climb Trouw, 27 februari. Uitgever, laat haar de vertaling afmaken, want ze is er al lang mee verbonden in haar hoofd of op papier. En zet een tweede kandidaat naast haar. Geef beide vertalingen naast elkaar uit en de lezer beslist welke gekozen wordt. Laten we nooit iemand buitensluiten om kleur, ras, etniciteit of wat dan ook. Toos Scheffer Tytsjerk Smet? Geen grote kop op de voorpagina nu de rechter in hoger beroep de regering alsnog in het gelijk stelt over de avondklok Trouw, 27 februari. En geen excuses voor eerdere artikelen waarin op basis van de uitspraak van de voorzieningenrechter die Viruswaarheid in het gelijk stelde, werd gesproken van de smet op het blazoen van Rutte. In plaats daarvan een wat weggestopt bericht over het hoger beroep. Frank Hendriks Nijmegen Kaag Dank voor het mooie interview met D66-lijsttrekker Sigrid Kaag Trouw, 27 februari.</t>
-  </si>
-  <si>
-    <t>Recht op reparatie van apparatuur komt steeds dichterbij; Philip Leenman 68 wijst naar een Senseo . Het koffiezetapparaat van Philips staat in half gedemonteerde toestand op de werkbank in zijn werkkamer in Naarden. Voor het ongeoefende oog valt er weinig te zien aan het binnenste van het apparaat, maar Leenman weet precies wat er mis is. In dit geval betreft het de boiler om het water op temperatuur te brengen. Als het verwarmingselement wordt aangezet terwijl er geen water in zit, gaat het binnen zes seconden stuk, zegt de gepensioneerde ICT-er. Een kapot huishoudelijk apparaat belandt vaak bij het afval, omdat de kosten van reparatie door een professionele reparateur niet in verhouding staan tot de prijs van een nieuwe. Zonde, stelt het al in 2009 opgerichte Repair Caf. Hier zetten dan ook duizenden vrijwilligers zich in om huis-tuin-en-keukenspullen te repareren. Onder wie Leenman. Repair Caf s Normaliter komen consumenten langs bij de Repair Caf s, waar vrijwilligers de kapotte spullen beoordelen en indien mogelijk ter plaatse repareren. Maar vanwege het coronavirus werken ook de reparateurs vanuit huis. Inmiddels zijn er in Nederland meer dan 500 Repair Caf s. Het concept is zelfs internationaal, er zijn inmiddels Repair Caf s.</t>
-  </si>
-  <si>
-    <t>Meeste partijen willen hoger minimumloon, maar leggen rekening verschillend neer; Bijna alle partijen willen het wettelijk minimumloon verhogen, maar niet in dezelfde mate en niet op dezelfde manier. Zo laten VVD en CDA de aan het minimumloon gekoppelde WW- en bijstandsuitkeringen niet meestijgen en D66 en de ChristenUnie slechts gedeeltelijk. Daardoor lopen de kosten van de maatregel sterk uiteen van € 0,3 mrd bij het CDA tot € 12,8 mrd bij de SP, zo heeft het Centraal Planbureau CPB uitgerekend. Behalve via uitkeringen is de overheid extra geld kwijt als werkgever. Ook hogere loonkosten bij zorg instellingen komen bij de overheid terecht, al zijn de extra lasten minder groot dan in het bedrijfsleven. In de collectieve sector krijgt 3% van het personeel het minimumloon. In de marktsector is dat 6%. Als het minimumloon omhooggaat, stijgen de lonen die daar vlak boven zitten ook. Uurloon Iedere volwassen werknemer heeft nu recht op een minimumloon van € 1684,80 per maand. Dit bedrag stijgt mee met de gemiddelde stijging van de cao-lonen. Het is nu niet goed terug te rekenen naar een uurloon. VVD, GroenLinks, 50PlusS en Denk blijven uitgaan van het maandloon.</t>
-  </si>
-  <si>
-    <t>Planbureau: vertrek bedrijven reëel risico bij ambitieuze klimaatplannen; De scherpere milieuregels voor de industrie waarmee politieke partijen klimaatwinst hopen te boeken, leiden tot re le risico's dat bedrijven uit Nederland vertrekken. De mondiale broeikasgasuitstoot wordt dan nauwelijks minder. Daarvoor waarschuwt het Planbureau voor de Leefomgeving PBL maandag. De kans op dit zogeheten weglekeffect is het grootst bij de klimaatvoorstellen die de SP, GroenLinks, D66 en in mindere mate de PvdA doen, zegt het PBL. Bij de ChristenUnie en het CDA speelt dit risico minder. Het PBL heeft de verkiezingsprogramma's van deze politieke partijen geanalyseerd op effecten voor klimaat en milieu. De resultaten daarvan werden maandagochtend gepresenteerd. Het PBL rekent dit door op verzoek van de partijen zelf. De grote afwezige was de VVD, die het klimaatdeel van zijn partijprogramma niet liet doorrekenen. In industrie meeste klimaatwinst Uit de analyse blijkt dat alle politieke partijen grote klimaatwinst hopen te halen in de industri le sector. De vermeden uitstoot in 2030 is daar dan ook het grootst met 16 miljoen ton CO2 in de CDA-plannen tot 32 miljoen ton CO2 in de GroenLinks-plannen.</t>
-  </si>
-  <si>
-    <t>Alle pijlen zijn gericht op Rutte in RTL-debat; Reportage verkiezingscampagne Alles op Rutte, dat is de stilzwijgende afspraak waaraan al diens opponenten zich in deze campagne tot dusver houden. Na het lijsttrekkersdebat van Radio 1 en het running mate-debat is ook het premiersdebat van RTL het eerste grote tv-debat van deze verkiezingen een meertrapsaanval op de minister-president, die graag aan zijn vierde termijn zou beginnen. De tactiek van de VVD tekent zich scherper af bouw zo min mogelijk profiel op, pareer aanvallen met verzoenende reacties en blijf dichtbij de kernboodschap gelieve de premier te koesteren die het land door de coronacrisis leidt. Een ruimte die hij pakt als het aan het eind van het debat over vaccinatiebewijzen gaat We moeten verstandig blijven. De politiek moet niet op de stoel van artsen en verpleegkundigen gaan zitten, zeggen Sigrid Kaag D66 en Jesse Klaver GroenLinks op de vraag of de gewone zorg weer voorrang moet krijgen. Zo nemen ze meteen afstand van VVD en CDA, die eerder voor code zwart waarschuwden, en daarmee voor triage. Rutte springt soepel bij hen achterop. Of je nog wel naar de icwilt, dat zijn heel tere afwegingen, zegt hij.</t>
-  </si>
-  <si>
-    <t>Jozef Deleu: ‘Iets onder woorden brengen gaat sneller in een gedicht’; Wat maakt het leven de moeite waard ? Jozef Deleu 83, dichter, gedichtenverzamelaar en verbinder van de Vlaams-Nederlandse cultuur, ziet Nederland zelfzuchtiger worden. Na discussie geef je elkaar waar je recht op hebt. Mij hindert de hooghartigheid en dat toenemende gebrek aan generositeit.”,Hij is bejaard en mag niet ontvangen, zodat wij elkaar niet van aanschijn tot aanschijn kunnen ontmoeten, zegt Jozef Deleu. Maar aan de telefoon beschrijft hij graag het uitzicht door het grote raam van zijn werkkamer, op het zuiden, richting Frankrijk de grens loopt aan het eind van het weiland. Het is modderig, de sneeuw smelt. In de verte klimt het land een beetje en de lucht erboven is grauw. Lyrisch kan ik er niet over zijn, maar het blijft hier een leuke plek om te wonen. Hier is Rekkem, een dorp in West-Vlaanderen, halverwege het Belgische Kortrijk en het Franse Lille, letterlijk op de taalgrens. Deleu 83 schrijver, dichter, bloemlezer, uitgever, cultureel bestuurder woont en werkt er al zijn hele leven. Over deze serie We leven, zo goed en zo kwaad als het gaat.</t>
-  </si>
-  <si>
-    <t>De Jonge: lijsttrekkers moeten in campagne behoedzaam zijn over corona; Minister De Jonge van Volksgezondheid vindt het logisch dat lijsttrekkers in de verkiezingscampagne spreken over wat ze graag zouden willen aan versoepelingen, maar hij vindt ook dat ze wel behoedzaam moeten zijn. Qua besmettingscijfers is de situatie nog steeds zorgelijk en er kan nu weinig, zegt De Jonge. Partijgenoot en CDA-lijsttrekker Hoekstra zei gisteren in het RTL-debat dat hij eerlijk moet zijn dat het nu niet kan, maar dat hij hoopt dat de terrassen snel open zijn. Het is logisch dat te hopen, zei De Jonge, maar zo snel als mogelijk is niet vandaag of morgen. Zo zijn er zorgen over de situatie in de kop van Noord-Holland waar erg veel pati nten zijn. In n regio code zwart ligt niet voor de hand, maar we moeten de pati nten goed tussen de regio's verdelen, zegt De Jonge. Maar we met moeten met zijn allen wel code zwart voorkomen.</t>
-  </si>
-  <si>
-    <t>Baudet: corona niet bewust wereld in geslingerd; Het coronavirus is niet bewust de wereld in geslingerd . Dat zei Forum voor Democratie-voorman Thierry Baudet in het NOS Radio 1 Journaal, waar hij als eerste lijsttrekker te gast was in de verkiezingsreeks met interviews. Uit een peiling bleek afgelopen weekend dat ruim de helft van FvD-kiezers denkt dat het coronavirus bewust is ontwikkeld om burgers wereldwijd te onderdrukken. 51 procent denkt dat corona een biologisch wapen is dat in een laboratorium is gefabriceerd. Baudet deelt die opvatting dus niet, maar vindt het wel extreem toevallig dat het virus ontstaan is in de buurt van een Chinees laboratorium waar onderzoek werd gedaan naar virussen. Verder ziet Baudet dat corona gebruikt wordt door wereldleiders om maatregelen door te voeren op weg naar een wereldstaat. Het woord complot vindt hij in dat verband niet gek. Het wordt als scheldwoord gebruikt, maar betekent letterlijk dat er onderlinge afspraken gemaakt worden die je niet naar buiten brengt. Ingestonken Online beantwoordde Baudet in een live Q&amp;A de vragen van kijkers. De FvD-leider zegt dat hij niet betoogt dat het virus niet bestaat. Hij noemt corona een stevige griep. Maar hij ontdekte dat corona niet het ebolavirus is.</t>
-  </si>
-  <si>
-    <t>Lezersbrieven; EEN JAAR CORONA | Ik hoop dat we het nu niet langer afdoen als griep Een jaar verder... AD 28-2. Terwijl de tranen lopen lees ik dit mooi geschreven, aangrijpende artikel en wens de familie veel sterkte. Ik hoop dat de heren Baudet, Engel en volgelingen, mijns inziens meelopers zonder verstand, dit lezen en deze vreselijke ziekte niet langer afdoen als een griepje. Een belediging aan de nabestaanden. Ineke Pappers-Roodenrijs, Vlaardingen. EEN JAAR CORONA II | Ik denk aan de woorden van directeur Marcel Levi Wat een indrukwekkend overzicht over n jaar corona. En wat fijn om de mening van ethicus Theo Boer te lezen over de beeldvorming over ouderen. Hij zegt terecht Er is een merkwaardige focus dat als je een bepaalde leeftijd hebt, je er goed aan doet om eruit te stappen. Ik ben met hem eens dat het alarmerend is dat dit zo vaak geventileerd wordt en moet denken aan de woorden van de Nederlandse ziekenhuisdirecteur in Londen, Marcel Levi Een beschaafde samenleving kenmerkt zich door solidariteit. Diane Thomson, Strijensas.</t>
-  </si>
-  <si>
-    <t>Digitale campagne wordt platter én dieper; Verkiezingen Campagne voeren hoeft niet zo ingewikkeld te zijn. De VVD geeft op Instagram het voorbeeld, met een nieuwe trend, overgewaaid uit het buitenland. Trek de kiezer met grappige plaatjes. Tover een lach tevoorschijn. Wat altijd werkt zijn plaatjes van dieren. Bijvoorbeeld een foto van een kip en een roofvogel. De kip heeft verrassend genoeg de roofvogel op de grond gedwongen. Bijschrift bij de kip VVD met nieuwe plannen om de misdaad aan te pakken. Bij de beteuterde roofvogel staat Zware criminelen. Het oogt als typische internethumor, en zo is het ook bedoeld. De VVD heeft ook zulke plaatjes over kernenergie, met een pitbull en een labradorpuppy in beeld. In een paar woorden geven ze het standpunt van de partij weer. Grappen maken met ogenschijnlijk amateuristisch knip- en plakwerk is geen toeval het ontwapent. Achter de VVD-campagne steken bekende marketingbureaus, gespecialiseerd in het be nvloeden van gedrag. Wat die bureaus precies adviseren en organiseren blijft geheim, zoals bijna alle partijen in verkiezingstijd niet graag in hun keuken laten kijken. Ook de SP heeft zo'n campagne vol beeldgrappen.</t>
-  </si>
-  <si>
-    <t>'Woningtekort niet opgelost met deze verkiezingsprogramma's'; De plannen voor de woningmarkt van meerdere politieke partijen verschillen maar weinig en lossen het woningtekort niet op. Dat concludeert het Planbureau voor de Leefomgeving PBL in zijn doorrekeningen van de partijprogramma's voor de komende verkiezingen. Het wijst erop dat experts vanuit allerlei hoeken erop wijzen dat er geen silver bullet is die het probleem oplost. Het PBL keek dit jaar voor het eerst naar de plannen voor de woningmarkt, een belangrijk thema deze verkiezingen. Er blijken weinig verschillen te zijn in de maatregelen die de zes onderzochte partijen voorstellen. Bovendien zal er met de voorstellen aan het einde van de komende kabinetsperiode nog altijd een woningtekort zijn, constateert het Planbureau. Volgens het PBL sluiten veel voorstellen voor de woningmarkt aan bij het huidige beleid of zijn ze al beleid. Ze vormen geen trendbreuk met het verleden. Sommige partijen willen een aparte minister die geheel verantwoordelijk is voor het woningaanbod, maar wat die minister anders moet gaan doen dan nu blijft onduidelijk Vooralsnog kan eigenlijk alles wat de partijen wensen, ook binnen de bestaande kaders worden gerealiseerd daar is geen aparte minister voor nodig.</t>
-  </si>
-  <si>
-    <t>Pittig RTL-debat over klimaat, discriminatie en corona, maar zonder 'gamechanger'; De zes partijen zijn in het RTL-verkiezingsdebat een aantal keer stevig met elkaar in botsing gekomen. D66-leider Kaag viel uit naar PVV-leider Wilders over discriminatie en Zwarte Piet. GroenLinks-leider Klaver vond dat VVD-leider Rutte niet eerlijk was over kernenergie. Ook zei CDA-leider Hoekstra dat hij Rutte echt ongeloofwaardig vond toen hij had gezegd dat ook de VVD vond dat de rijksten meer belasting moesten betalen. U heeft het hardst gevochten voor de slechtste onderwerpen, aldus Hoekstra. Rutte was het er niet mee eens. Het beleid hebben we met elkaar gedaan. Voorrang gevaccineerden Kaag kreeg in het debat geen enkele bijval met haar plan om gevaccineerden voorrang te geven bij het loslaten van de coronamaatregelen, zoals ze gisteren voorstelde. PVV-lijsttrekker Wilders en SP-lijsttrekker Marijnissen zijn tegen voordeeltjes voor gevaccineerden en dwang of drang naar burgers toe. Marijnissen zegt dat dat leidt tot een tweedeling in de samenleving, terwijl burgers niet de keus hebben om zich snel te laten vaccineren. VVD-lijsttrekker Rutte is ook tegen, omdat het nog niet duidelijk is of mensen die zijn inge nt niet toch het virus verspreiden.</t>
-  </si>
-  <si>
-    <t>Kaag: vaccinatiebewijs of negatieve test moet weer toegang bieden tot 'het leven'; E r moet een vaccinatiebewijs komen om het maatschappelijk leven opnieuw op te starten, zegt D66-leider Sigrid Kaag. Ook gratis coronatests moeten toegang gaan bieden tot de horeca, winkels, stadions en onderwijslocaties. Ik zie al het voor me opa die net gevaccineerd is, eindelijk weer uit eten met kleindochter met negatieve test, zei Kaag zaterdagmiddag op het online verkiezingscongres van D66. Kaag is daarmee de eerste partijleider die onomwonden aanstuurt op de invoering van een vaccinatiebewijs. Zo'n bewijs is omstreden sommige partijen op het Binnenhof zien het als een instrument om Nederlanders indirect tot een vaccinatie te dwingen. Ook is nog onduidelijk of gevaccineerden andere mensen kunnen besmetten. Het taboe moet eraf, zei Kaag zaterdag. Volgens haar is een vaccinatiebewijs precies wat we nodig zullen hebben in het vervolg van de coronacrisis, op voorwaarde dat de maatregel tijdelijk is en de privacy van burgers wordt beschermd. Je kunt toch niet van gevaccineerde mensen verwachten dat ze wachten met leven totdat de laatste prik is gezet? Daarvoor is de stille crisis, met alle blijvende psychische schade door het isolement te groot.</t>
-  </si>
-  <si>
-    <t>Rutte blijft doelwit voor de rest; Nu demissionair premier Mark Rutte met een straatlengte leidt in de peilingen, proberen alle andere lijsttrekkers de VVD-lijsttrekker te beschadigen. Want, verzuchtte, GroenLinks-leider Jesse Klaver tegen Rutte,, U heeft driehonderd zetels in de peilingen. Met nog zestien dagen tot de verkiezingen was het RTL-debat daarom h t toneel om nog wending te geven aan de campagne. Althans, voor de zes genodigden Wopke Hoekstra CDA, Sigrid Kaag D66, Jesse Klaver, Lilian Marijnissen SP, Mark Rutte en Geert Wilders PVV. Rutte is nu immers nog de ongenaakbare leider in de peilingen sommige opiniepeilingen dichten hem net zo veel zetels toe als de nummers twee en drie, PVV en CDA, bij elkaar. Partijen zochten daarom Ruttes bekende achilleshiel, zijn onbetrouwbaarheid en leugens. Daarbij nam ook CDA-leider Wopke Hoekstra, nu nog minister in het kabinet met VVD, zijn huidige kabinetsgenoot op de korrel. Als het gaat om het zwaarder belasten van rijke Nederlanders, wil Rutte nu ineens meer dan de laatste jaren, claimde Hoekstra. U wilde het leenstelsel behouden en niets doen aan de flexcontracten. Glashard.</t>
-  </si>
-  <si>
-    <t>Excuses van de koning voor slavernij zijn onafwendbaar; Slavernijverleden Ruttes weigering om excuses te maken voor de slavernijgeschiedenis, is nu al onhoudbaar, betoogt Tineke Bennema. Weigeren is niet alleen ahistorisch, maar ook hovaardig.,De grote Perzische koningen uit de Oudheid lieten zichzelf graag in stenen reli fs afbeelden, zittend op een eenvoudige houten troon met een scepter in de hand. Maar die simpele stoel stond hoog boven op verschillende lagen van mensen die met geheven armen de vloer onder hem stutten. Als je door je oogharen kijkt, zouden zij boeken kunnen zijn in een boekenkast bestaand uit planken. Wie niet beter weet, denkt goh, sympathieke geste, erkenning van het werk van zijn burgers. Maar de koningen keken neer op hun onderdanen en hun bestuur was absoluut, en vaak wreed. Tineke Bennema is historicus. De Amerikaanse vicepresident Kamala Harris maakte gebruik van dezelfde metafoor van mensen die dragen, opofferen en samen meer kracht doorgeven. Nederig stelde ze in haar overwinningsspeech dat zij op de schouders stond van haar moeder, grootmoeder en al die vrouwen voor haar die ertoe bijdroegen dat zij als eerste zwarte Amerikaanse vrouw het vicepresidentschap kon bekleden.</t>
-  </si>
-  <si>
-    <t>Europese Volt rekent op een  zetel in Den Haag; Tweede Kamerverkiezingen Voor het eerst doet een Pan-Europese partij mee aan de Tweede Kamerverkiezingen. Die trekt, zegt ze zelf, niet alleen jongeren. , Grensoverschrijdende problemen kan je alleen met grensoverschrijdend bestuur oplossen en Volt denkt hier als enige partij serieus over na, aldus voormalig VVD-Kamerlid Arend Jan Boekestijn tegen zijn tienduizenden volgers op Twitter. En daarom zal hij op 17 maart op Volt stemmen. Sander Schimmelpenninck, oud-hoofdredacteur van zakenblad Quote, stemde bij de Europese verkiezingen van 2019 al op de partij en vindt dat de potentie van Volt nog steeds enorm wordt onderschat. Programmamaker Arjen Lubach weigert een stemadvies te geven, maar plaatste de partij wel in de schijnwerpers vanwege de standpunten over kernenergie Volt omarmt kernenergie. En schrijver Geert Mak noemt Volt een aantrekkelijke partij, omdat deze nog niet is besmet door het verleden. Aan aandacht geen gebrek voor Volt en dat werpt zijn vruchten af. Volgens de jongste peilingen stevent de Europese partij af op n zetel in de Tweede Kamer. Maar kritiekloos op de Europese Unie is Volt niet. Dat is nu voorbehouden aan de niet-direct gekozen Europese Commissie.</t>
-  </si>
-  <si>
-    <t>CPB-doorrekening: risico op maken van uitglijer groter dan stemmenwinst; Is de invloed van het CPB, een overheidsinstelling, op het politieke proces door de doorrekeningen niet te groot geworden? Jean Dohmen Amsterdam Vandaag zijn ze er weer de doorrekeningen van de partijprogramma's door het Centraal Planbureau. Extra stemmen leveren ze niet op, wel een betrouwbaar imago, zegt onderzoeker Wimar Bolhuis. Het is, naast de grote debatten, een van de spannende momenten in de verkiezingscampagne de doorrekening van de partijprogramma's door het Centraal Planbureau CPB. Dat geeft vandaag aan de hand van berekeningen antwoord op harde economische vragen als welke partijen cre ren banen, wie verhoogt de lasten, welk programma pakt het beste uit voor de koopkracht? Het Planbureau voor de Leefomgeving doet, zij het minder lang dan het CPB, een vergelijkbare exercitie, maar dan over de impact op onder meer het klimaat. Niet alle partijen laten hun plannen doorrekenen. Het CPB vertelt ook niet vooraf wie wel en niet meedoet. Deelname is vrijwillig, benadrukt Wimar Bolhuis, universitair docent in Leiden en auteur van een proefschrift over de doorrekeningen van partijprogramma's door het CPB. Dat klopt.</t>
-  </si>
-  <si>
-    <t>Economen: hogere belastingen jagen bedrijven weg; De plannen van politieke partijen om de lasten van bedrijven te verhogen komen niet uit de lucht vallen. Maar zonder risico zijn ze niet hogere belastingen maken Nederland minder aantrekkelijk als vestigingsplaats, waarschuwen hoogleraren. Nederland stond altijd hoog in lijstjes als het ging om concurrentievermogen. Daar waren meer redenen voor, maar het fiscale klimaat speelde zeker een rol. Als je daaraan morrelt weet je dat het vestigingsklimaat verslechtert, zegt hoogleraar economie Jakob de Haan van de Rijksuniversiteit Groningen. Effect negatief De Haan Als zelfs een ondernemerspartij als de VVD voor hogere lasten voor bedrijven is, dan weet je wat een volgende coalitie gaat doen. Als je meer geld wilt uitgeven als partij, kan ik me wel voorstellen dat je hiernaar kijkt. Maar ik maak me zorgen over de mate waarin de belastingen straks stijgen. Dat het effect negatief is, staat vast. Uit de maandag gepresenteerde doorrekening blijkt dat alle partijen die hun verkiezingsplannen aan het Centraal Planbureau voorlegden, hogere lasten voor bedrijven willen. De VVD met € 3,6 mrd het minst, de PvdA met € 42 mrd het meest.</t>
-  </si>
-  <si>
-    <t>Misstanden in Qatar al jaren aan de gang; Misstanden in Qatar al jaren aan de gang Optreden tegen Greenpeace . foto anp/hh Vanaf 2016 wisten we al over de arbeidsomstandigheden in Qatar en nu, drie weken voor de verkiezingen, zijn er politici die wakker worden en ons gaan vertellen dat we de wereldkampioenschappen moeten boycotten. Hoe geloofwaardig zijn ze nog, terwijl iedere dag een groot vrachtvliegtuig uit Qatar over mijn huis vliegt? Frans Bohlander Voetbalwereld 6500 doden tijdens de bouw van voetbalstadions in Qatar, tot nu toe. En Nederland overweegt nog steeds om daar te gaan voetballen. Bespottelijk en onbestaanbaar. Ook Johan Derksen vindt dat Nederland moet afhaken. Ronald de Boer vindt dat weer overdreven en nuanceert dat door te zeggen Het zijn er iets minder. Ok, het waren er maar 5000. Ronduit schandalig. Rob de Jonge Westervoort Vergoeding Hugo de Jonge smeekt de horeca om geduld en de terrassen niet open te gooien. Tel. 27/2. Dat is makkelijk te regelen, als de horeca een eerlijke beloning krijgt ter compensatie, iets waar de horeca al tijden om smeekt! R. den Hartog, Utrecht Restaurant We worden overspoeld met berichten dat de terrassen hoe dan ook open moeten.</t>
-  </si>
-  <si>
-    <t>De Jonge: lijsttrekkers moeten in campagne behoedzaam zijn over corona ; Minister De Jonge van Volksgezondheid vindt het logisch dat lijsttrekkers in de verkiezingscampagne spreken over wat ze graag zouden willen aan versoepelingen, maar hij vindt ook dat ze wel behoedzaam moeten zijn. Qua besmettingscijfers is de situatie nog steeds zorgelijk en er kan nu weinig, zegt De Jonge. Partijgenoot en CDA-lijsttrekker Hoekstra zei gisteren in het RTL-debat dat hij eerlijk moet zijn dat het nu niet kan, maar dat hij hoopt dat de terrassen snel open zijn. Het is logisch dat te hopen, zei De Jonge, maar zo snel als mogelijk is niet vandaag of morgen. Zo zijn er zorgen over de situatie in de kop van Noord-Holland waar erg veel pati nten zijn. In n regio code zwart ligt niet voor de hand, maar we moeten de pati nten goed tussen de regio's verdelen, zegt De Jonge. Maar we met moeten met zijn allen wel code zwart voorkomen.</t>
-  </si>
-  <si>
-    <t>Makers van vaccins redden de mens, niet de belegger; Cor de Horde Wie farmaceut zegt, zegt overwinsten althans, in sommige kringen. Gewapend met een betonnen octrooiwetgeving kunnen pillendraaiers vragen wat ze willen voor levensreddende medicijnen, is de teneur van de critici. Inderdaad zijn er voorbeelden die het imago van de branche geen goed hebben gedaan. Het sappigste verhaal is van Martin Shkreli, die in 2015 zijn Turing Pharmaceuticals de productierechten liet kopen van het medicijn Daraprim. Prompt ging de prijs van $ 13,50 naar $ 750 per pil. Deze actie leverde Shkreli inmiddels gedetineerd, trouwens de bijnaam meest gehate man van Amerika op. In deze tijden van pandemie zijn de kritische volgers van deze bedrijfstak opnieuw alert. Er gaan al stemmen op om het patent op de diverse vaccins tegen het coronavirus opzij te schuiven. GroenLinks breekt een lans voor dwanglicenties, waaronder de fabrikanten verplicht zijn hun kennis te delen met concurrenten. De fabrikanten met patenten misbruiken hun positie om extra winst te boeken, is de redenering. GroenLinks is niet de enige die kritisch is. Afgelopen week werden de bazen van de grote vaccinfabrikanten stevig aan de tand gevoeld in het Europees Parlement.</t>
-  </si>
-  <si>
-    <t>Podcast De Stemming: Verkiezingscampagne maakt nog weinig los bij kiezer; VVD-lijsttrekker Mark Rutte kwam niet lekker uit het RTL-verkiezingsdebat, constateren Joost Vullings en Xander van der Wulp in de nieuwe aflevering van De stemming van Vullings en Van der Wulp. Opvallend is dat er desondanks in de peilingen weinig beweging zit. Het CDA levert deze week wel vier zetels in, vertelt Gijs Rademaker van het EenVandaag Opiniepanel in de podcast. Maar de VVD stabiliseert nu, nadat de liberalen eerder wel zetels verloren in de peiling. GroenLinks onder druk Rutte hoopt op een snelle formatie vanwege de coronacrisis, zei hij deze week. Van der Wulp en Vullings zien dat hij daar al op voorsorteert. Het is opvallend hoe hij toenadering zoekt tot de SP, zegt Vullings. Het is een onderhandelingsmanoeuvre, denkt hij. De gesprekken bij de vorige formatie met GroenLinks liepen na een week of vijf vast. Rutte wil zo nu al druk zetten op GroenLinks. Jesse Klaver weet dat hij niet zomaar wordt uitgenodigd bij een formatie. In de podcast analyseren de twee met welke strategie n de lijsttrekkers de verkiezingsdebatten in gingen.</t>
-  </si>
-  <si>
-    <t>Milieuclubs niet echt blij met doorrekeningen; Milieuorganisaties zijn teleurgesteld over de verkiezingsprogramma s. Want ze zijn niet groen genoeg, vinden ze. De op milieugebied beste coalitie die volgens peilingen een meerderheid zou hebben in beide Kamers van VVD, CDA, GroenLinks, D66 en PvdA zou niet verder komen dan 53 procent reductie van broeikasgassen in 2030, zegt Milieudefensie. Terwijl 65 procent nodig is om een eerlijke bijdrage te leveren aan het Parijsakkoord en Europa 55 procent als doel heeft. Greenpeace Nederland is evenmin te spreken over ieder verkiezingsprogramma en de nagestreefde reductie van CO2 Geen enkele partij ligt op koers om de afspraken uit het Klimaatakkoord van Parijs te halen. Deze club is echter wel blij dat D66 en GroenLinks cruciale stappen willen zetten en ziet ook dat de PvdA, ChristenUnie en SP meer doen dan de huidige klimaatwet. Maar het is volgens Greenpeace onbegrijpelijk dat het CDA achterblijft met 46 procent reductie en zelfs de klimaatwet niet nakomt. Dat de VVD geen klimaatplannen heeft laten doorrekenen is onverantwoordelijk.</t>
-  </si>
-  <si>
-    <t>De confrontatie met de kiezer valt de lijsttrekkers zwaar; Meneer Rutte, als het over een jaar nog niet is opgelost, treedt u dan wel af? Halverwege het eerste grote tv-debat bij RTL is het Kristie Rongen, een van de gedupeerde ouders uit de toeslagenaffaire, die Mark Rutte voor even stil krijgt. Ze zegt het zelfs letterlijk ik stop u hier even, als Rutte aan een van zijn vaker gebruikte antwoorden wil beginnen. Wij zaten als ratten in de val, aldus Rongen met een trilling in haar stem. De kop is er af. RTL organiseerde gisteravond de eerste in een reeks tv-debatten, onder leiding van Frits Wester en Jetske Schrijver. Met de verkiezingen nog ver genoeg weg om uitglijders weer goed te kunnen maken, en dichtbij genoeg om met een sterk optreden de campagne een wending te geven. De RTL-presentatoren krijgen ondersteuning van gewone kiezers, die zich met een filmpje presenteren en vervolgens live in de studio hun vragen stellen. Dat blijkt een gouden greep van de regie, naast het toch vrij voorspelbare verbale steekspel tussen de lijsttrekkers onderling. Een debat loopt toch altijd anders dan je denkt.</t>
-  </si>
-  <si>
-    <t>De uitzending van 1 maart: Gasvrij duurder dan verwacht / IC's vol in Hoorn / Genomineerden Libris Literatuurprijs / Doorrekening verkiezingsprogramma's; Wat kost woning aardgasvrij maken ? Het gaat er deze campagne nog nauwelijks over, maar Nederland staat aan het begin van een ongekende verbouwing. Alle negen miljoen woningen en gebouwen moeten van het gas af, voor het klimaat. In de wijken waar men er als proef al mee begonnen is, is nu voor het eerst gedetailleerd gekeken naar het kostenplaatje. Die blijken veel hoger dan verwacht en zullen de komende jaren bovendien amper dalen. Nieuwsuur spreekt met de onderzoeker van het nieuwe rapport en ging naar het Friese Garijp waar ze de hoge kosten herkennen. IC's liggen vol in Hoorn Terwijl de roep om verdere versoepelingen hard klinkt, zijn de besmettingen in de veiligheidsregio Noord-Holland Noord juist heel erg toegenomen de afgelopen dagen, met name in Hoorn. In de eerste golf werd die regio niet hard getroffen, maar er werden gisteren 133 mensen positief getest. Minister de Jonge riep vandaag lijsttrekkers dan ook op behoedzaam te zijn met uitspraken over versoepelingen. Hij verwees daarbij naar de kop van Noord-Holland. We gaan langs in het Dijklander ziekenhuis en we spreken burgemeester Jan Nieuwenburg.</t>
-  </si>
-  <si>
-    <t>Het RTL-debat zal hoogstens herinnerd worden om het ‘ik stop u even’ van Kristie Rongen ; Zap In het verkiezingsdebat van RTL gaven de lijsttrekkers vooral vooraf ingestudeerde antwoorden. Het werd pas spannend toen een slachtoffer van de Toeslagenaffaire de premier ondervroeg. , Als een verkiezingsdebat, zoals de kenners zeggen, in de analyse wordt gewonnen, was het rechtsleunende gezelschap waarmee Eva Jinek het RTL-debat nabeschouwde misschien een stemadvies. Er zaten een journalist van De Telegraaf, een goede vriend van de lijsttrekker van de VVD, een van de organisatoren van het debat en na een tijdje kwam de lijsttrekker van het CDA binnen. Jort Kelder het wordt eentonig dat programma ’s altijd bij hem uitkomen als ze een vriend van Mark Rutte aan tafel willen zei vooraf dat Rutte kwetsbaar was en alleen maar kon verliezen. Na afloop concludeerde hij dat Rutte overeind was gebleven en ook Wouter de Winther had gezien dat Rutte alle ballen uit het doel had gehouden. Ik weet niet of Kristie Rongen dat ook zo zag. Zij was een van de zes gewone burgers die door RTL waren uitgenodigd om de lijsttrekkers een vraag te stellen.</t>
-  </si>
-  <si>
-    <t>Wekdienst 1/3: Verkiezingsprogramma's doorgerekend • Mbo-studenten naar school; Goedemorgen ! De verkiezingsprogramma's zijn doorgerekend, wat komt daar uit? En mbo-studenten en middelbare scholieren mogen vanaf vandaag weer naar school. Het weer vanochtend start de dag op veel plaatsen grijs met mist en lage bewolking. In de loop van de dag breekt de zon soms door, maar het noorden houdt lang last van hardnekkige wolkenvelden. De temperatuur ligt tussen 8 graden in het noorden en 12 graden in het zuidoosten. Daarbij staat een zwakke tot matige oostelijke wind. Later op de dag en in de nacht is het vooral in het noorden weer grijs. In het zuiden kunnen mistbanken ontstaan bij temperaturen rond het vriespunt. Ga je de weg op? Hier vind je het overzicht van de werkzaamheden. Check hier de dienstregeling voor het spoor. Wat kun je vandaag verwachten? Het Centraal Planbureau en Planbureau voor de Leefomgeving presenteren hun analyse en doorrekening van de verkiezingsprogramma's wat zijn de gevolgen voor de overheidsfinanci n en voor de klimaatdoelen? Alle mbo-studenten mogen vandaag weer n dag per week naar school voor lessen. Ook middelbare scholen gaan weer fysiek lesgeven. FvD-leider Baudet is de eerste.</t>
-  </si>
-  <si>
-    <t>'Opvallend en veelzeggend dat VVD en CDA hier niet staan'; Een aantal partijen heeft op een persconferentie gereageerd op de doorrekeningen van het CPB en de PBL. En op het feit dat CDA en VVD n et op de persconferentie waren. Vooral de progressieve partijen staan hier, zei GroenLinks-leider Klaver. Opvallend en veelzeggend dat VVD en CDA hier niet staan. Hun programma's zijn sociaal slecht en brengen economische rampspoed, stelt PvdA-Kamerlid Nijboer. Dus ik snap wel dat ze hier niet staan. D66 benadrukt dat blijkt dat Nederland sterker en groener uit de crisis komt, als hun partijprogramma wordt uitgevoerd. De crux is dus dat het wel kan, veel ambities hebben en de economie een steun in de rug geven, zei Kamerlid Van Weyenberg. D66 heeft de CO2-reductie op 60 procent staan in 2030. Dat is relatief ambitieus, maar GroenLinks gaat er nog overheen. Wij komen uit op 63 procent, zei Klaver. Dat is belangrijk, want de uitvoering blijft altijd achter, daarom heb je overshoot nodig.</t>
-  </si>
-  <si>
-    <t>Esther Ouwehand had niets met de plek waar ze opgroeide; De bouw is typisch eind jaren 70, toen in heel Nederland buiten de oude woonkernen nieuwe wijken verschenen nog ver voordat in 1991 het begrip Vinex zou ontstaan. Rijtjeswoningen op vaak doodlopende woonerven aan smalle, slingerende straten waar de auto's niet te hard kunnen rijden. Huizen in verschillende stijlen, per wijk veranderend. Groene parken en perken, met een beetje geluk wat water. Een school, een winkelcentrum. En dan de straatnamen. Esther Ouwehand kwam met haar broer, zus en ouders terecht in een buurt waar de straten Mars, Pallas, Uranus en Neptunus heten. In de volgende buurt luisteren ze naar de namen Pollux, Castor en Orion. Iets meer richting zee ligt een wijk waar de mensen wonen aan Weegschaal, Boogschutter en Waterman. En bij het sportpark heten ze Krab, Kreeft en Koraal. Welkom in Rijnsoever, ofwel Katwijk-Noord, de wijk die naast Katwijk aan Zee en Katwijk aan de Rijn in de Hoornespolder vanaf die jaren 70 de derde grote woonkern van het Zuid-Hollandse dorp zou worden. Behalve in Katwijk.</t>
-  </si>
-  <si>
-    <t>Einde nadert langzaam voor omstreden investeringssubsidie Bik; Multinationals Het CDA wil zo snel mogelijk af van de Baangerelateerde Investerings Korting Bik. Volgens Tweede Kamerlid Pieter Omtzigt heeft het CDA, in de CPB-doorrekening van haar verkiezingsprogramma, afscheid van deze twee miljard euro investeringssubsidie genomen. Dat zei hij gisteren tijdens een verkiezingsdebat bij WNL op Zondag. Het lijkt erop dat de omstreden Bik een doodgeboren kindje is. Donderdag haalde een Kamermeerderheid al 200 miljoen euro uit de Bik om de bevriezing van de sociale huren komend jaar te financieren. De linkse partijen willen de resterende Bik-gelden benutten om hun wensen uit de verkiezingsprogramma's te financieren. Vandaag komt het Centraal Planbureau CPB met de doorrekeningen van de verkiezingsprogramma's. Bekend is al dat de PvdA het geld wil inzetten voor meer woningbouw. De investeringssubsidie kwam dit najaar plotseling op tafel vanuit de VVD. Uit CPB-berekeningen bleek toen dat tijdens het kabinet Rutte-3 de lasten van het bedrijfsleven alleen maar zijn verhoogd, terwijl VVD-leider Rutte de multinationals juist in 2017 had beloofd dat de dividendbelasting van 2 miljard euro werd afgeschaft. Rutte stuitte op grote politieke weerstand. De VVD speelde het dit najaar politiek hard.</t>
-  </si>
-  <si>
-    <t>In Haarlem Alle politici zijn standwerkers, maar Thierry Baudet houdt dus ineens van Nederlandstalige rap; VERSLAGGEVERSCOLUMN Thierry Baudet draagt een pet en houdt van Nederlandstalige rap sommige dingen veranderen sneller en onverwachter dan de winter in de lente. Zijn Latijn is ingeruild voor de taal van rapper Duncan, die in het voorprogramma staat van alweer een event ondanks de coronaregels houdt Forum voor Democratie tweemaal daags een verkiezingsoptreden bij u in de buurt, dat bij de betreffende autoriteiten is aangemeld als demonstratie. Duncan rapt Niemand trekt z'n bek open ik doe dit voor de mensen die opstaan en het durven te zeggen er is hier veel te veel mis maar niemand wilt 't beseffen. Thierry Baudet, de ooit over z'n vleugel gevouwen politicus die de prelude van Parsifal prefereerde en een afschuw had van het moderne, nodigde rapper Duncan uit in de Tweede Kamer en zo ontstond de single Vrijheid, doorregen met samples van Thierry Baudet en zijn nieuwe bestie, Wybren van Haga, ook geen man bij wie je een passie voor hiphop vermoedt. Ze zeggen nu dat ik een gekkie ben maar deze lockdown is niet praktisch en niet effici nt.</t>
-  </si>
-  <si>
-    <t>De doorrekening van de verkiezingsprogramma's, waar moet je op letten?; Welke partij trekt het meeste geld uit voor onderwijs ? Welk effect hebben de plannen van partijen op de overheidsfinanci n? Welke partijen halen de klimaatdoelen en wie betaalt die rekening? Ook deze verkiezingen komen het Centraal Planbureau en Planbureau voor de Leefomgeving met een doorrekening van de verkiezingsprogramma's. Die presenteren ze vandaag om 10.30 uur. De persconferentie is live te volgen op NOS.nl. Wat berekenen ze? De doorrekeningen geven inzicht in waar politieke partijen echt geld voor willen uittrekken, hoe ze hun beloftes waarmaken en wat de langetermijneffecten van hun plannen zijn. Waar partijen in verkiezingsprogramma's kiezers nog kunnen bedienen van vage termen als vergroening, duurzaamheid of een eerlijker systeem, moeten ze aan de planbureaus concreet laten weten hoe ze dat daadwerkelijk willen bereiken. Dat is een proces van maanden waarin de partijen steeds aanvullende vragen van de bureaus beantwoorden. Met de doorrekeningen in de hand kunnen kiezers de partijprogramma's beter vergelijken. De investeringen en effecten van alle plannen, die totaal verschillend kunnen zijn, worden allemaal op dezelfde manier doorgerekend. Zo valt straks te lezen waar partijen het meeste geld aan willen uitgeven.</t>
-  </si>
-  <si>
-    <t>Meeste partijen maken vliegen paar honderd miljoen euro duurder; Vliegen moet duurder worden, vinden de meeste politieke partijen die hun verkiezingsprogramma hebben laten doorrekenen door het Centraal Planbureau CPB. Een handvol partijen wil via de autobelastingen minder of groener rijden stimuleren. De plannen om vliegen duurder te maken vari ren van een verdubbeling van de vliegbelasting bij het CDA, tot een combinatie van een gedifferentieerde vliegtaks en een CO₂-heffing voor luchtvaartmaatschappijen bij D66. Alleen VVD en 50Plus laten de luchtvaartindustrie helemaal met rust. Volgens de doorrekening van het CPB draait vooral het bedrijfsleven op voor het duurdere vliegticket. Korte en lange vluchten Sinds 1 januari betalen passagiers die vertrekken vanaf een Nederlandse luchthaven een heffing van € 7,85. De verdubbeling die het CDA voorstelt leidt voor gezinnen tot een verwaarloosbare lastenverzwaring, aldus het CPB. Bedrijven zijn per jaar € 100 mln extra kwijt aan vliegen. D66 wil het tarief voor korte vluchten verhogen naar € 20 en voor lange vluchten naar € 15. Ook vinden de democraten dat overstappende passagiers niet moeten worden uitgezonderd van de vliegtaks. Bescheiden begin Zo'n gedragseffect brengt het planbureau wel in kaart voor de kilometerheffing.</t>
-  </si>
-  <si>
-    <t>Stelling 2:  minimaal 10 procent van de bewindslieden moet van kleur zijn; De offici le tekst van de stelling luidt Als mijn partij meedoet aan het volgende kabinet zal minimaal 10 procent van de bewindslieden van kleur zijn of een niet-westerse migratieachtergrond hebben. GroenLinks, SP en D66 zijn hiervoor. PVV-lijsttrekker Wilders houdt niet van zulke stellingen. De eerste persoon van kleur die ik zou willen verdedigen is Zwarte Piet. Rutte drukt op rood Ik wil niet dat iemand dan in mijn kabinet zit en denkt ik zit hier alleen omdat Rutte bij Frits Wester op groen heeft gedrukt. Hij ziet ook dat er sprake is van een trend dat het beter gaat met mensen aan de top van een niet-westerse achtergrond. Jesse Klaver begint over Ronald Koeman die trainer is van het Nederlandse elftal en dat leidt tot hilariteit op Twitter.</t>
-  </si>
-  <si>
-    <t>kruiswoordtest 5898; Horizontaal 1deze Europeanen boeken massaal mediterrane vakanties na 17 mei, meldde Trouw vorige week 7 5hoeveel spelers blijven er over als een voetbalelftal waarvan de oudste drie 27 zijn, buiten gaat sporten? 4 10voor welk horlogemerk maakt Roger Federer voor miljoenen euro's per jaar reclame? 5 11zeerovers leiders van een partij die zeggen dat ze socialer zijn dan de SP en liberaler dan de VVD 7 12godin van de wraak of, figuurlijk, de wrekende gerechtigheid 7, anagram van nee, miss 14minister aan wie Nederland de Mammoetwet dankt 4 16verbeterde of geactualiseerde versie leenwoord uit het Engels, 6 18couplet, strofe achtregelig, met rijmschema abababcc 6, anagr. Ans zat 20..... et avoir, Franse film uit 2002 over een dorpsschooltje 4 21onderzoek van 't parlement, naar 't toeslagenschandaal bijvoorbeeld 7 24begraafplaats taalkundige die op YouTube zeventiende-eeuws Hollands laat horen 7 25taal van de band Altin G n die de oprichter ervan zelf niet verstaat 5 27leesteken dat in krantenkoppen meestal ontbreekt 4 28hoe oud worden Serena Williams en Roger Federer dit jaar? 7. Connie Breukhoven 5 23(1 prik tegen 4 ziekten afk. Oplossing 5897.</t>
-  </si>
-  <si>
     <t>high</t>
   </si>
   <si>
@@ -343,694 +346,691 @@
     <t>2021-03-01 00:00:00</t>
   </si>
   <si>
+    <t>2021-02-27 17:18:07</t>
+  </si>
+  <si>
+    <t>2021-02-28 22:10:45</t>
+  </si>
+  <si>
+    <t>2021-02-28 15:42:29</t>
+  </si>
+  <si>
+    <t>2021-02-27 15:58:15</t>
+  </si>
+  <si>
+    <t>2021-02-28 21:37:06</t>
+  </si>
+  <si>
+    <t>2021-02-27 17:37:46</t>
+  </si>
+  <si>
+    <t>2021-02-27 22:36:38</t>
+  </si>
+  <si>
     <t>2021-02-28 09:25:32</t>
   </si>
   <si>
+    <t>2021-02-27 15:20:11</t>
+  </si>
+  <si>
+    <t>2021-02-28 10:01:22</t>
+  </si>
+  <si>
+    <t>2021-02-28 00:00:00</t>
+  </si>
+  <si>
+    <t>2021-02-28 13:27:28</t>
+  </si>
+  <si>
+    <t>2021-02-27 16:40:42</t>
+  </si>
+  <si>
+    <t>2021-02-27 15:06:47</t>
+  </si>
+  <si>
+    <t>2021-02-28 13:43:06</t>
+  </si>
+  <si>
+    <t>2021-02-27 15:38:32</t>
+  </si>
+  <si>
+    <t>2021-02-28 22:22:56</t>
+  </si>
+  <si>
     <t>2021-02-27 20:34:14</t>
   </si>
   <si>
+    <t>2021-02-28 22:15:58</t>
+  </si>
+  <si>
+    <t>2021-02-28 23:10:04</t>
+  </si>
+  <si>
+    <t>2021-02-28 22:23:54</t>
+  </si>
+  <si>
+    <t>2021-02-28 22:48:57</t>
+  </si>
+  <si>
     <t>2021-02-28 21:37:41</t>
   </si>
   <si>
-    <t>2021-02-28 00:00:00</t>
+    <t>2021-02-28 18:10:52</t>
+  </si>
+  <si>
+    <t>2021-02-28 22:43:49</t>
+  </si>
+  <si>
+    <t>2021-03-01 07:00:58</t>
   </si>
   <si>
     <t>2021-03-01 10:30:10</t>
   </si>
   <si>
-    <t>2021-02-27 15:20:11</t>
-  </si>
-  <si>
-    <t>2021-02-28 13:27:28</t>
-  </si>
-  <si>
-    <t>2021-02-28 22:30:43</t>
-  </si>
-  <si>
-    <t>2021-02-27 20:30:26</t>
-  </si>
-  <si>
-    <t>2021-02-28 15:42:29</t>
-  </si>
-  <si>
-    <t>2021-02-28 21:37:06</t>
-  </si>
-  <si>
-    <t>2021-02-28 10:01:22</t>
-  </si>
-  <si>
-    <t>2021-02-28 06:52:07</t>
-  </si>
-  <si>
-    <t>2021-02-27 21:52:54</t>
-  </si>
-  <si>
-    <t>2021-02-27 16:47:06</t>
-  </si>
-  <si>
-    <t>2021-02-28 22:10:45</t>
-  </si>
-  <si>
-    <t>2021-02-27 17:37:46</t>
-  </si>
-  <si>
-    <t>2021-02-28 18:10:52</t>
-  </si>
-  <si>
-    <t>2021-02-28 22:43:49</t>
-  </si>
-  <si>
-    <t>2021-02-28 23:10:04</t>
-  </si>
-  <si>
-    <t>2021-02-27 15:38:32</t>
-  </si>
-  <si>
-    <t>2021-02-27 22:36:38</t>
-  </si>
-  <si>
-    <t>2021-02-27 22:39:37</t>
-  </si>
-  <si>
-    <t>2021-02-27 21:15:58</t>
-  </si>
-  <si>
-    <t>2021-02-28 13:43:06</t>
-  </si>
-  <si>
-    <t>2021-02-28 22:15:58</t>
-  </si>
-  <si>
-    <t>2021-02-27 18:49:28</t>
-  </si>
-  <si>
-    <t>2021-02-27 15:06:47</t>
-  </si>
-  <si>
-    <t>2021-02-28 22:23:54</t>
-  </si>
-  <si>
-    <t>2021-02-27 15:58:15</t>
-  </si>
-  <si>
-    <t>2021-03-01 12:59:00</t>
-  </si>
-  <si>
-    <t>2021-03-01 10:34:06</t>
-  </si>
-  <si>
-    <t>2021-03-01 10:59:13</t>
-  </si>
-  <si>
     <t>2021-03-01 01:19:49</t>
   </si>
   <si>
-    <t>2021-03-01 13:29:48</t>
+    <t>2021-03-01 07:12:10</t>
+  </si>
+  <si>
+    <t>2021-03-01 12:06:47</t>
+  </si>
+  <si>
+    <t>2021-03-01 13:15:24</t>
+  </si>
+  <si>
+    <t>2021-02-28 22:03:24</t>
   </si>
   <si>
     <t>2021-03-01 12:57:21</t>
   </si>
   <si>
-    <t>2021-03-01 12:06:47</t>
-  </si>
-  <si>
-    <t>2021-03-01 07:00:58</t>
-  </si>
-  <si>
-    <t>2021-03-01 13:15:24</t>
-  </si>
-  <si>
-    <t>2021-03-01 07:12:10</t>
-  </si>
-  <si>
-    <t>2021-02-28 22:03:24</t>
+    <t>2021-02-28 21:41:40</t>
+  </si>
+  <si>
+    <t>2021-03-01 14:33:22</t>
+  </si>
+  <si>
+    <t>2021-02-28 23:18:22</t>
+  </si>
+  <si>
+    <t>Algemeen Dagblad</t>
+  </si>
+  <si>
+    <t>De Volkskrant</t>
+  </si>
+  <si>
+    <t>Het Financieele Dagblad</t>
+  </si>
+  <si>
+    <t>NRC Handelsblad</t>
+  </si>
+  <si>
+    <t>NOS liveblog</t>
+  </si>
+  <si>
+    <t>NOS nieuws</t>
+  </si>
+  <si>
+    <t>De Telegraaf</t>
+  </si>
+  <si>
+    <t>NU.nl</t>
+  </si>
+  <si>
+    <t>Nieuwsuur</t>
   </si>
   <si>
     <t>Trouw</t>
   </si>
   <si>
-    <t>NU.nl</t>
-  </si>
-  <si>
-    <t>NOS liveblog</t>
-  </si>
-  <si>
-    <t>Het Financieele Dagblad</t>
-  </si>
-  <si>
-    <t>NRC Handelsblad</t>
-  </si>
-  <si>
-    <t>NOS nieuws</t>
-  </si>
-  <si>
-    <t>Algemeen Dagblad</t>
-  </si>
-  <si>
-    <t>Nieuwsuur</t>
-  </si>
-  <si>
-    <t>De Telegraaf</t>
-  </si>
-  <si>
-    <t>De Volkskrant</t>
+    <t>Mark Rutte, Centraal Planbureau CPB, Planbureau voor de Leefomgeving PBL, Joost Sneller</t>
+  </si>
+  <si>
+    <t>Baudet, VERSLAGGEVERSCOLUMN, Baudet, Forum voor Democratie, Baudet, Parsifal, Thierry Baudet, Wybren van Haga</t>
+  </si>
+  <si>
+    <t>Tweede Kamer, Tweede Kamer, Romke</t>
+  </si>
+  <si>
+    <t>Gemeentefinanci n Slechts, Johan Hamster, Financi</t>
+  </si>
+  <si>
+    <t>Wilders, Zwarte Piet!, Zwarte Piet, Zwarte Piet, Wilders, Kamervoorzitter Arib</t>
+  </si>
+  <si>
+    <t>zaak-Graus, Tweede Kamer, Dion Graus, Jesse Klaver, GroenLinks</t>
+  </si>
+  <si>
+    <t>Forum voor Democratie, Kelfkensbos</t>
+  </si>
+  <si>
+    <t>Jesse Klaver, Tweede Kamer, Dion Graus, Kathalijne Buitenweg, NRC, Tweede Kamer, Klaver</t>
+  </si>
+  <si>
+    <t>Opstand, Ter Apel, FNV, Sander Dekker, PI, Ter Apel, Koen Nederlof TER, APEL, Ter Apel, Telegraaf, Roy, IBT, Roy</t>
+  </si>
+  <si>
+    <t>Makers van vaccins redden de mens, Cor de Horde, Martin Shkreli, GroenLinks, GroenLinks, Europees Parlement</t>
+  </si>
+  <si>
+    <t>Baudet, Baudet, Wobine Buijs-Glaudemans van Oss, Wouter Weeberg, Baudet</t>
+  </si>
+  <si>
+    <t>God</t>
+  </si>
+  <si>
+    <t>Planbureau, Planbureau voor de Leefomgeving, PBL, SP, GroenLinks, D66, PvdA, PBL, ChristenUnie, CDA, PBL, PBL, VVD</t>
+  </si>
+  <si>
+    <t>CPB, Martijn Grimmius</t>
+  </si>
+  <si>
+    <t>Ed Nijpels, VVD, Klimaatberaad Ed Nijpels, PBL, PBL, PBL, PBL, VVD, Mark Rutte, RTL Nieuws, VVD</t>
+  </si>
+  <si>
+    <t>Bruno Bruins, Medische Zorg, Chinese communistische partij, RIVM, GGD</t>
+  </si>
+  <si>
+    <t>Forum voor Democratie, Baudet, CDA, VVD, Pascal Spelier, Groen in Zicht, Forum voor Democratie</t>
+  </si>
+  <si>
+    <t>Mark Rutte, Peter Vermeulen, Gerard Pelt</t>
   </si>
   <si>
     <t>Stevo Akkerman Zonder, ChristenUnie, GPV, Albertus Zijlstra, S. Akkerman, C. Smits</t>
   </si>
   <si>
+    <t>Slavernijverleden Ruttes, Tineke Bennema</t>
+  </si>
+  <si>
     <t>Forum voor Democratie-kiezers, Ipsos</t>
   </si>
   <si>
+    <t>Stemwijzer, Stemwijzer</t>
+  </si>
+  <si>
+    <t>Bedrijven, Centraal Planbureau CPB, PvdA, D66, CDA</t>
+  </si>
+  <si>
+    <t>Wopke Hoekstra, CDA, Mark Rutte, VVD, Geert Wilders, PVV, Lilian Marijnissen, SP, Jesse Klaver, Sigrid, RTL, Foto ANP/HH, Mark Rutte, Ook, RTL Nieuws, PVV, SP, D66 voor de schenen van de premier, CDA, Geert Wilders, PVV, Lilian Marijnissen, SP, Sigrid Kaag, VVD, CDA, RTL Nieuws, Mark Rutte</t>
+  </si>
+  <si>
+    <t>Loonkloof, VVD, CDA, D66, GroenLinks, euro, SP</t>
+  </si>
+  <si>
+    <t>PVV, D66, VVD</t>
+  </si>
+  <si>
+    <t>Romke de Jong, D66, Marijn Fidder voor het Financieele Dagblad</t>
+  </si>
+  <si>
+    <t>IC, RIVM</t>
+  </si>
+  <si>
+    <t>PvdA, VVD, Centraal Planbureau CPB, VVD, SGP, SP</t>
+  </si>
+  <si>
+    <t>Lezersbrieven, AD, Baudet, Ineke Pappers-Roodenrijs, Marcel Levi, Theo Boer, Marcel Levi, Thomson, Strijensas</t>
+  </si>
+  <si>
+    <t>Sigrid Kaag, Wopke Hoekstra, Mark Rutte</t>
+  </si>
+  <si>
+    <t>WNL, Rick Nieman, Sigrid Kaag, Nieman, Brinkman, CDA, WNL, VVD, Van Ark, PVV, Agema, CDA Pieter Omtzigt, D66, SP, Henk Nijboer</t>
+  </si>
+  <si>
+    <t>D66, Sigrid Kaag, Isra, Wel</t>
+  </si>
+  <si>
+    <t>Greenpeace, anp/hh, Qatar, Frans Bohlander, Johan Derksen, Ronald de Boer, Rob, Utrecht Restaurant</t>
+  </si>
+  <si>
+    <t>Thierry Baudet, Thierry, Forum voor Democratie, Provinciale Statenverkiezingen, Thierry Baudet</t>
+  </si>
+  <si>
+    <t>Forum voor Democratie, Thierry Baudet</t>
+  </si>
+  <si>
+    <t>Tweede Kamer, Tweede Kamer, Romke de Jong</t>
+  </si>
+  <si>
+    <t>Mark Rutte, RTL, Mark Rutte, Mark Rutte, Geert Wilders, PVV, Wopke Hoekstra, CDA, Sigrid, Lilian Marijnissen, SP, Jesse, GroenLinks, Kristie Rongen</t>
+  </si>
+  <si>
+    <t>Makers van vaccins redden de mens, Martin Shkreli, GroenLinks, GroenLinks, GroenLinks, Europees Parlement, AstraZeneca minus</t>
+  </si>
+  <si>
+    <t>CNV, Kleuters, CNV, AOb, Algemene Vereniging Schoolleiders AVS</t>
+  </si>
+  <si>
+    <t>miljoen euro duurder, Centraal Planbureau CPB, CDA, D66, CPB, Korte, CDA, CPB, D66</t>
+  </si>
+  <si>
+    <t>VVD, Poetin</t>
+  </si>
+  <si>
+    <t>REPAIR, CAF S Jeroen Groot, Philips, Leenman, Caf, Leenman, Repair Caf s, Caf s</t>
+  </si>
+  <si>
     <t>Mark Rutte, Tweede Kamer</t>
   </si>
   <si>
+    <t>Esther Ouwehand, Vinex, Esther Ouwehand, Uranus, Neptunus, Castor, Waterman</t>
+  </si>
+  <si>
+    <t>Kristie, Jullie, Kristie, Jullie</t>
+  </si>
+  <si>
+    <t>Kristie Rongen, RTL, Eva Jinek, VVD, CDA, Mark Rutte, Winther, Kristie Rongen, RTL</t>
+  </si>
+  <si>
+    <t>SP, Marijnissen</t>
+  </si>
+  <si>
+    <t>D66'er, CDA, Jaco Geurts, Planbureau voor de Leefomgeving PBL, Centraal Planbureau CPB, PBL, CPB, PBL</t>
+  </si>
+  <si>
+    <t>Nakomen van internationale klimaatafspraken, PVV, SP</t>
+  </si>
+  <si>
+    <t>Marijnissen, CDA, VVD</t>
+  </si>
+  <si>
+    <t>RIVM, RIVM, Pati, RIVM, RIVM, RIVM mede bepaald</t>
+  </si>
+  <si>
     <t>Hoekstra CDA, SP, juist</t>
   </si>
   <si>
-    <t>RIVM, RIVM, Pati, RIVM, RIVM, RIVM mede bepaald</t>
+    <t>Trump, Verkiezingsdebat, Trump, Trump, America First-mondkapjes, Politieke Actie, CPAC, VVD, PVV, CDA, D66, SP, GroenLinks, Nynke de Zoeten</t>
+  </si>
+  <si>
+    <t>Europese Commissie, Ursula von der Leyen, Eurocommissaris Nicolas Schmit</t>
+  </si>
+  <si>
+    <t>Wilders, Nadia, Wilders, Wilders bestrijdt, Nadia, Nadia Bent</t>
+  </si>
+  <si>
+    <t>Forum voor Democratie, Ipsos, Baudet, Urk</t>
+  </si>
+  <si>
+    <t>Roger Federer voor miljoenen, SP, VVD, 18couplet, Altin G, Serena Williams, Roger Federer, Connie Breukhoven</t>
+  </si>
+  <si>
+    <t>Jozef Deleu, Jozef Deleu, Nederland zelfzuchtiger, Jozef Deleu, Lyrisch</t>
+  </si>
+  <si>
+    <t>Planbureau, Baudet</t>
+  </si>
+  <si>
+    <t>CPB, SGP, CPB, VVD, CDA, D66, GroenLinks, SP, PvdA, ChristenUnie, SGP, PVV, Partij voor de Dieren, Forum voor Democratie, SGP, SP</t>
+  </si>
+  <si>
+    <t>RTL, Hans Anker, Erik van Bruggen</t>
+  </si>
+  <si>
+    <t>Wilders, Zwarte Piet, VVD, Wilders, Marijnissen, Marijnissen</t>
+  </si>
+  <si>
+    <t>71ste, Isra, Mohammad Rasoulof</t>
+  </si>
+  <si>
+    <t>Planbureau</t>
+  </si>
+  <si>
+    <t>CDA, Planbureau voor de Leefomgeving, PBL, Mark, VVD, PBL, PBL, VVD, VVD, Europese Commissie</t>
+  </si>
+  <si>
+    <t>Friese Garijp, Noord-Holland Noord, Jan Nieuwenburg</t>
+  </si>
+  <si>
+    <t>CDA, CPB, PBL, CDA, CDA, Kamerlid Van Weyenberg, ambitieus, GroenLinks</t>
+  </si>
+  <si>
+    <t>GroenLinks, SP, D66, Wilders, Zwarte Piet, Frits Wester, Jesse Klaver, Ronald Koeman</t>
+  </si>
+  <si>
+    <t>D66, Laten, Isra, Europese Commissie</t>
   </si>
   <si>
     <t>Forum voor Democratie, Forum voor Democratie, Ministerie kijkt, Urk, Baudet, Baudet, Baudet, Baudet</t>
   </si>
   <si>
-    <t>REPAIR, CAF S Jeroen Groot, Philips, Leenman, Caf, Leenman, Repair Caf s, Caf s</t>
-  </si>
-  <si>
-    <t>Gert-Jan Segers, Mark Rutte, Forum voor Democratie, Hubert Bruls, Baudet</t>
-  </si>
-  <si>
-    <t>CPB, SGP, CPB, VVD, CDA, D66, GroenLinks, SP, PvdA, ChristenUnie, SGP, PVV, Partij voor de Dieren, Forum voor Democratie, SGP, SP</t>
+    <t>Gemeentefinanci n, NRC, Negentien, Financi n, VVD</t>
+  </si>
+  <si>
+    <t>Tino Hoogendijk Sport, J</t>
+  </si>
+  <si>
+    <t>CPB, Doorrekening Zorg, Centraal Planbureau CPB, PVV, Partij voor de Dieren, Forum voor Democratie, CPB, Planbureau voor de Leefomgeving, PBL, CPB</t>
+  </si>
+  <si>
+    <t>PBL, CDA, D66, GroenLinks, SP, PvdA, ChristenUnie, Planbureau voor de Leefomgeving, PBL, VVD, PBL, CO₂., PBL, CDA</t>
+  </si>
+  <si>
+    <t>Milieuclubs, Kamers, CDA, GroenLinks, D66, PvdA, Greenpeace, D66, GroenLinks, PvdA, ChristenUnie, SP, Greenpeace, CDA</t>
+  </si>
+  <si>
+    <t>D66</t>
+  </si>
+  <si>
+    <t>WNL, CDA'er Pieter Omtzigt, Tamara van Ark, Jerry Seinfeld, Desondanks, VVD, PVV, CDA, D66, PvdA, SP, Rick Nieman, Renske</t>
+  </si>
+  <si>
+    <t>Forum voor Democratie</t>
+  </si>
+  <si>
+    <t>Is de invloed, CPB, Jean Dohmen, Centraal Planbureau, Wimar Bolhuis, Centraal Planbureau CPB, CPB, CPB, Wimar Bolhuis, CPB</t>
+  </si>
+  <si>
+    <t>Lucas Rijneveld, Scheffer Tytsjerk Smet, Frank Hendriks, Sigrid Kaag Trouw</t>
+  </si>
+  <si>
+    <t>Economen, Jakob de Haan, VVD, Centraal Planbureau voorlegden, VVD</t>
+  </si>
+  <si>
+    <t>Jonge van Volksgezondheid</t>
+  </si>
+  <si>
+    <t>Wilders, Marijnissen, Marijnissen, Klaver van GroenLinks</t>
+  </si>
+  <si>
+    <t>Meneer Rutte, RTL, Kristie Rongen, Mark Rutte, RTL, Frits Wester, Jetske Schrijver</t>
+  </si>
+  <si>
+    <t>VVD, SP</t>
+  </si>
+  <si>
+    <t>Commentaar, Hans van zon Beetje, Angela Merkel, Mark Rutte, D66, Sigrid Kaag, Isra l</t>
   </si>
   <si>
     <t>D66, CDA, Sigrid Kaag, Wopke Hoekstra</t>
   </si>
   <si>
-    <t>Makers van vaccins redden de mens, Martin Shkreli, GroenLinks, GroenLinks, GroenLinks, Europees Parlement, AstraZeneca minus</t>
-  </si>
-  <si>
-    <t>IC, RIVM</t>
-  </si>
-  <si>
-    <t>Forum voor Democratie, Ipsos</t>
-  </si>
-  <si>
-    <t>Bedrijven, Centraal Planbureau CPB, PvdA, D66, CDA</t>
-  </si>
-  <si>
-    <t>WNL, Rick Nieman, Sigrid Kaag, Nieman, Brinkman, CDA, WNL, VVD, Van Ark, PVV, Agema, CDA Pieter Omtzigt, D66, SP, Henk Nijboer</t>
-  </si>
-  <si>
-    <t>PBL, CDA, D66, GroenLinks, SP, PvdA, ChristenUnie, Planbureau voor de Leefomgeving, PBL, VVD, PBL, CO₂., PBL, CDA</t>
-  </si>
-  <si>
-    <t>Ed Nijpels, VVD, Klimaatberaad Ed Nijpels, PBL, PBL, PBL, PBL, VVD, Mark Rutte, RTL Nieuws, VVD</t>
-  </si>
-  <si>
-    <t>zaak-Graus, Tweede Kamer, Dion Graus, Jesse Klaver, GroenLinks</t>
-  </si>
-  <si>
-    <t>Planbureau voor de Leefomgeving</t>
-  </si>
-  <si>
-    <t>Geweld, Dublin, Leo Varadkar</t>
-  </si>
-  <si>
-    <t>Romke de Jong, D66, Marijn Fidder voor het Financieele Dagblad</t>
-  </si>
-  <si>
-    <t>Jesse Klaver, Tweede Kamer, Dion Graus, Kathalijne Buitenweg, NRC, Tweede Kamer, Klaver</t>
-  </si>
-  <si>
-    <t>CPB, Martijn Grimmius</t>
-  </si>
-  <si>
-    <t>Forum voor Democratie, Kelfkensbos</t>
-  </si>
-  <si>
-    <t>Al, VVD, SP</t>
-  </si>
-  <si>
-    <t>God</t>
-  </si>
-  <si>
-    <t>FvD-kiezers, Forum voor Democratie, Ipsos, FvD-kiezers, Thierry Baudet</t>
-  </si>
-  <si>
-    <t>D66'er, CDA, Jaco Geurts, Planbureau voor de Leefomgeving PBL, Centraal Planbureau CPB, PBL, CPB, PBL</t>
-  </si>
-  <si>
-    <t>Gemeentefinanci n Slechts, Johan Hamster, Financi</t>
-  </si>
-  <si>
-    <t>Wilders, Mark Rutte, Sigrid Kaag D66, Wilders, Zwarte Piet, Jesse Klaver, Ronald Koeman, Oranje</t>
+    <t>Profiel Herna, Anna Dolanska, Tempo Team, Anna Dolanska</t>
+  </si>
+  <si>
+    <t>Lokin-Sassen CDA, Andr Bosman, VVD, Tweede Kamer, Raad van State, Bart Jan van Ettekoven, Herman Tjeenk Willink, Raad van State</t>
   </si>
   <si>
     <t>Sigrid Kaag, voetbalstadions, D66, D66</t>
   </si>
   <si>
-    <t>CPB, Doorrekening Zorg, Centraal Planbureau CPB, PVV, Partij voor de Dieren, Forum voor Democratie, CPB, Planbureau voor de Leefomgeving, PBL, CPB</t>
-  </si>
-  <si>
-    <t>ElBeik, Libi, Republiek Cyprus, ElBeik, Karim Allah</t>
-  </si>
-  <si>
-    <t>Wilders, Zwarte Piet!, Zwarte Piet, Zwarte Piet, Wilders, Kamervoorzitter Arib</t>
-  </si>
-  <si>
-    <t>WNL, CDA'er Pieter Omtzigt, Tamara van Ark, Jerry Seinfeld, Desondanks, VVD, PVV, CDA, D66, PvdA, SP, Rick Nieman, Renske</t>
-  </si>
-  <si>
-    <t>Europese Commissie, Ursula von der Leyen, Eurocommissaris Nicolas Schmit</t>
-  </si>
-  <si>
-    <t>Bruno Bruins, Medische Zorg, Chinese communistische partij, RIVM, GGD</t>
-  </si>
-  <si>
-    <t>Trump, Verkiezingsdebat, Trump, Trump, America First-mondkapjes, Politieke Actie, CPAC, VVD, PVV, CDA, D66, SP, GroenLinks, Nynke de Zoeten</t>
-  </si>
-  <si>
-    <t>Wilders, Nadia, Wilders, Wilders bestrijdt, Nadia, Nadia Bent</t>
-  </si>
-  <si>
-    <t>SP, Marijnissen</t>
-  </si>
-  <si>
-    <t>Forum voor Democratie, Baudet, CDA, VVD, Pascal Spelier, Groen in Zicht, Forum voor Democratie</t>
-  </si>
-  <si>
-    <t>Oekra, Twintig, Oekra</t>
-  </si>
-  <si>
-    <t>Sigrid Kaag, Wopke Hoekstra, Mark Rutte</t>
-  </si>
-  <si>
-    <t>Park Breda</t>
-  </si>
-  <si>
-    <t>Tino Hoogendijk Sport, J</t>
-  </si>
-  <si>
-    <t>Frits de, Jos Schuurman, Frits de Lange, Marie-Thérèse Roosendaal, Frits de Lange, Jong</t>
-  </si>
-  <si>
-    <t>Forum voor Democratie, Thierry Baudet</t>
-  </si>
-  <si>
-    <t>Kristie, Jullie, Kristie, Jullie</t>
-  </si>
-  <si>
-    <t>Stemwijzer, Stemwijzer</t>
-  </si>
-  <si>
-    <t>Tweede Kamer, Ellian, VVD, Ellian, advocaat van beroep, Afghanistan, Afshin Ellian, VVD</t>
-  </si>
-  <si>
-    <t>Wopke Hoekstra, CDA, Mark Rutte, VVD, Geert Wilders, PVV, Lilian Marijnissen, SP, Jesse Klaver, Sigrid, RTL, Foto ANP/HH, Mark Rutte, Ook, RTL Nieuws, PVV, SP, D66 voor de schenen van de premier, CDA, Geert Wilders, PVV, Lilian Marijnissen, SP, Sigrid Kaag, VVD, CDA, RTL Nieuws, Mark Rutte</t>
-  </si>
-  <si>
-    <t>Thierry Baudet, Thierry, Forum voor Democratie, Provinciale Statenverkiezingen, Thierry Baudet</t>
-  </si>
-  <si>
-    <t>Nakomen van internationale klimaatafspraken, PVV, SP</t>
-  </si>
-  <si>
-    <t>Loonkloof, VVD, CDA, D66, GroenLinks, euro, SP</t>
-  </si>
-  <si>
-    <t>D66, Laten, Isra, Europese Commissie</t>
-  </si>
-  <si>
-    <t>Baudet, Baudet, Wobine Buijs-Glaudemans van Oss, Wouter Weeberg, Baudet</t>
-  </si>
-  <si>
-    <t>Lucas Rijneveld, Scheffer Tytsjerk Smet, Frank Hendriks, Sigrid Kaag Trouw</t>
-  </si>
-  <si>
-    <t>Philip Leenman, Philips, Leenman, Caf, Leenman, Caf s Normaliter, Repair Caf s</t>
-  </si>
-  <si>
-    <t>VVD, CDA, D66, ChristenUnie, CDA, SP, VVD, GroenLinks</t>
-  </si>
-  <si>
-    <t>Planbureau, Planbureau voor de Leefomgeving, PBL, SP, GroenLinks, D66, PvdA, PBL, ChristenUnie, CDA, PBL, PBL, VVD</t>
-  </si>
-  <si>
-    <t>Radio 1, RTL, VVD, kernboodschap gelieve, Sigrid, D66, Jesse Klaver, GroenLinks, VVD, CDA</t>
-  </si>
-  <si>
-    <t>Jozef Deleu, Jozef Deleu, Nederland zelfzuchtiger, Jozef Deleu, Lyrisch</t>
-  </si>
-  <si>
-    <t>Jonge van Volksgezondheid</t>
-  </si>
-  <si>
-    <t>Baudet, Forum voor Democratie-voorman Thierry Baudet, NOS, Radio 1 Journaal, FvD-kiezers, Baudet, Baudet, Baudet</t>
-  </si>
-  <si>
-    <t>Lezersbrieven, AD, Baudet, Ineke Pappers-Roodenrijs, Marcel Levi, Theo Boer, Marcel Levi, Thomson, Strijensas</t>
-  </si>
-  <si>
-    <t>VVD, SP</t>
-  </si>
-  <si>
-    <t>Planbureau voor de Leefomgeving, PBL, PBL, Planbureau, PBL, Vooralsnog</t>
-  </si>
-  <si>
-    <t>Wilders, Zwarte Piet, VVD, Wilders, Marijnissen, Marijnissen</t>
-  </si>
-  <si>
-    <t>E r, Sigrid Kaag, stadions, D66, Kaag zaterdag</t>
-  </si>
-  <si>
-    <t>Mark Rutte, Jesse Klaver, Althans, Wopke Hoekstra, CDA, Sigrid, Jesse Klaver, Lilian Marijnissen, SP, Mark Rutte, Geert Wilders, PVV, PVV, CDA, Ruttes, Wopke Hoekstra</t>
-  </si>
-  <si>
-    <t>Slavernijverleden Ruttes, Tineke Bennema</t>
-  </si>
-  <si>
-    <t>Europese Volt, Volt, Jan Boekestijn, Sander Schimmelpenninck, Volt, Volt, Geert Mak, Tweede Kamer, Europese Commissie</t>
-  </si>
-  <si>
-    <t>Is de invloed, CPB, Jean Dohmen, Centraal Planbureau, Wimar Bolhuis, Centraal Planbureau CPB, CPB, CPB, Wimar Bolhuis, CPB</t>
-  </si>
-  <si>
-    <t>Economen, Jakob de Haan, VVD, Centraal Planbureau voorlegden, VVD</t>
-  </si>
-  <si>
-    <t>Greenpeace, anp/hh, Qatar, Frans Bohlander, Johan Derksen, Ronald de Boer, Rob, Utrecht Restaurant</t>
-  </si>
-  <si>
-    <t>Makers van vaccins redden de mens, Cor de Horde, Martin Shkreli, GroenLinks, GroenLinks, Europees Parlement</t>
-  </si>
-  <si>
-    <t>Verkiezingscampagne, Mark Rutte, Joost Vullings, Van der Wulp, CDA, Gijs Rademaker, GroenLinks, Van der Wulp, SP, GroenLinks, GroenLinks, Jesse Klaver</t>
-  </si>
-  <si>
-    <t>Milieuclubs, Kamers, CDA, GroenLinks, D66, PvdA, Greenpeace, D66, GroenLinks, PvdA, ChristenUnie, SP, Greenpeace, CDA</t>
-  </si>
-  <si>
-    <t>Meneer Rutte, RTL, Kristie Rongen, Mark Rutte, RTL, Frits Wester, Jetske Schrijver</t>
-  </si>
-  <si>
-    <t>Friese Garijp, Noord-Holland Noord, Jan Nieuwenburg</t>
-  </si>
-  <si>
-    <t>Kristie Rongen, RTL, Eva Jinek, VVD, CDA, Mark Rutte, Winther, Kristie Rongen, RTL</t>
-  </si>
-  <si>
-    <t>Planbureau, Baudet</t>
-  </si>
-  <si>
-    <t>CDA, CPB, PBL, CDA, CDA, Kamerlid Van Weyenberg, ambitieus, GroenLinks</t>
-  </si>
-  <si>
-    <t>Esther Ouwehand, Vinex, Esther Ouwehand, Uranus, Neptunus, Castor, Waterman</t>
-  </si>
-  <si>
-    <t>CDA, Pieter, CDA, euro, WNL, Centraal Planbureau CPB, VVD, euro</t>
-  </si>
-  <si>
-    <t>Baudet, VERSLAGGEVERSCOLUMN, Baudet, Forum voor Democratie, Baudet, Parsifal, Thierry Baudet, Wybren van Haga</t>
-  </si>
-  <si>
-    <t>Planbureau</t>
-  </si>
-  <si>
-    <t>miljoen euro duurder, Centraal Planbureau CPB, CDA, D66, CPB, Korte, CDA, CPB, D66</t>
-  </si>
-  <si>
-    <t>GroenLinks, SP, D66, Wilders, Zwarte Piet, Frits Wester, Jesse Klaver, Ronald Koeman</t>
-  </si>
-  <si>
-    <t>Roger Federer voor miljoenen, SP, VVD, 18couplet, Altin G, Serena Williams, Roger Federer, Connie Breukhoven</t>
+    <t>['rekenmodellen', 'leefomgeving', 'verkiezingsprogramma', 'klimaatplannen', 'gesteggel']</t>
+  </si>
+  <si>
+    <t>['parsifal', 'lockdown', 'ingeruild', 'verslaggeverscolumn', 'thierry']</t>
+  </si>
+  <si>
+    <t>['ijsmaker', 'romke', 'volksvertegenwoordiger', 'die', 'het']</t>
+  </si>
+  <si>
+    <t>['welzijnswerk', 'bezuinigt', '2024', 'zit', 'verhult']</t>
+  </si>
+  <si>
+    <t>['meldt', 'vondelpark', 'amsterdam', 'tilburg', 'toestroom']</t>
+  </si>
+  <si>
+    <t>['marokkaanse', 'kamervoorzitter', 'rutte', 'ergert', 'wilders']</t>
+  </si>
+  <si>
+    <t>['kieslijst', 'beschuldigingen', 'beveiligers', 'groenlinks', 'pvv']</t>
+  </si>
+  <si>
+    <t>['opruiing', 'tegendemonstranten', 'anderhalvemeterregel', 'bekeuring', 'amsterdam']</t>
+  </si>
+  <si>
+    <t>['seksueel', 'facebook', 'kathalijne', 'presidium', 'rijksrecherche']</t>
+  </si>
+  <si>
+    <t>['indigd', 'coronavirus', 'sander', 'bajes', 'anp']</t>
+  </si>
+  <si>
+    <t>['farmaceut', 'dwanglicenties', 'pharmaceuticals', 'vaccinfabrikanten', 'gedetineerd']</t>
+  </si>
+  <si>
+    <t>['verkiezingsmanifestaties', 'verkiezingskaravaan', 'verkiezingsbijeenkomst', 'glaudemans', 'baudet']</t>
+  </si>
+  <si>
+    <t>['sennema', 'hilde', 'humanistische', 'wennen', 'televisiekijken']</t>
+  </si>
+  <si>
+    <t>['broeikasgasuitstoot', 'klimaatwinst', 'leefomgeving', 'milieuregels', 'zogeheten']</t>
+  </si>
+  <si>
+    <t>['studiefinanciering', 'grimmius', 'eerstejaarsstudenten', 'xa9n', 'studentenleven']</t>
+  </si>
+  <si>
+    <t>['coryfee', 'klimaatparagraaf', 'klimaatberaad', 'klimaatakkoord', 'verkiezingsprogramma']</t>
+  </si>
+  <si>
+    <t>['meldt', 'chinese', 'bruno', 'coronavirus', 'losbarstte']</t>
+  </si>
+  <si>
+    <t>['verkiezingsretoriek', 'partijkartelbestrijder', 'kiezersbedrog', 'windturbines', 'brabantse']</t>
+  </si>
+  <si>
+    <t>['nazaten', 'vaderlandsliefde', 'alsnog', 'verzetsgroep', 'gerard']</t>
   </si>
   <si>
     <t>['verkiezingsaffiche', 'albertus', 'heilloze', 'ewout', 'zijlstra']</t>
   </si>
   <si>
+    <t>['onafwendbaar', 'ruttes', 'opofferen', 'slavernijverleden', 'amerikaanse']</t>
+  </si>
+  <si>
     <t>['ipsos', 'coronavirus', 'nieuwsuur', 'nederlanders', 'opvattingen']</t>
   </si>
   <si>
+    <t>['weekeindebijlages', 'blijvertje', 'apegapen', 'verkiezingsnieuws', 'amechtig']</t>
+  </si>
+  <si>
+    <t>['lastenverzwaringen', 'lastenverzwaring', 'doorrekeningen', 'bedrijfslasten', 'schrikbarend']</t>
+  </si>
+  <si>
+    <t>['coronapati', 'marijnissen', 'rtl', 'verkiezingsdebat', 'schenen']</t>
+  </si>
+  <si>
+    <t>['loonkloof', 'eindsalaris', 'salarissen', 'startsalaris', 'salarisschalen']</t>
+  </si>
+  <si>
+    <t>['bikkelharde', 'mondkapjes', 'europese', 'oprapen', 'beschermingsmiddelen']</t>
+  </si>
+  <si>
+    <t>['klimaatneutraal', 'klimaatnegatief', 'energiezuinige', 'sellingpoint', 'circulair']</t>
+  </si>
+  <si>
+    <t>['4605', 'besmettingen', 'ziekenhuisbezetting', 'coronapati', '525']</t>
+  </si>
+  <si>
+    <t>['bekaaid', 'loonsverhogingen', 'overheidsuitgaven', 'mrd', 'zorguitgaven']</t>
+  </si>
+  <si>
+    <t>['strijensas', 'roodenrijs', 'vlaardingen', 'thomson', 'lezersbrieven']</t>
+  </si>
+  <si>
+    <t>['melkveehouder', 'toeslagenaffaire', 'coronarestricties', 'traditioneel', 'verkiezingsdebat']</t>
+  </si>
+  <si>
+    <t>['leiderschapscrisis', 'omtzigt', 'verkiezingsdebat', 'lubbers', 'ruud']</t>
+  </si>
+  <si>
+    <t>['gevaccineerd', 'gevaccineerde', 'vaccinatiepaspoort', 'vaccinatiebewijs', 'coronatestuitslag']</t>
+  </si>
+  <si>
+    <t>['greenpeace', 'ronald', 'derksen', 'nuanceert', 'westervoort']</t>
+  </si>
+  <si>
+    <t>['amsterdamse', 'schoolleiders', 'baudet', 'thierry', 'verkiezingsspecial']</t>
+  </si>
+  <si>
+    <t>['meldt', 'tegendemonstranten', 'opruiing', 'bekeurd', 'flyeren']</t>
+  </si>
+  <si>
+    <t>['sellingpoint', 'circulair', 'romke', 'ijsmaker', 'gorredijk']</t>
+  </si>
+  <si>
+    <t>['koningsdag', 'limburgse', 'alsnog', 'oranjefeest', 'feest']</t>
+  </si>
+  <si>
+    <t>['lijsttrekkersdebat', 'toeslagenaffaire', 'ontregelde', 'cijns', 'marijnissen']</t>
+  </si>
+  <si>
+    <t>['sneltesten', 'sneltests', 'amsterdamse', 'schoolleiders', 'snottebellen']</t>
+  </si>
+  <si>
+    <t>['lastenverzwaring', 'autobelastingen', 'kilometerheffing', 'vliegbelasting', 'gedifferentieerde']</t>
+  </si>
+  <si>
+    <t>['klimaatdoelen', 'kerncentrales', 'rusland', 'waait', 'rutte']</t>
+  </si>
+  <si>
+    <t>['verwarmingselement', 'reparateurs', 'koffiezetapparaat', 'reparateur', 'boiler']</t>
+  </si>
+  <si>
     <t>['brabantse', 'sneltreinvaart', 'coronabesmetting', 'ziekenhuismedewerkers', 'coronapati']</t>
   </si>
   <si>
+    <t>['hoornespolder', 'neptunus', 'rijtjeswoningen', 'woonerven', 'woonkernen']</t>
+  </si>
+  <si>
+    <t>['toeslagenaffaire', 'schandvlek', 'kristie', 'fraudeurs', 'rechtshulp']</t>
+  </si>
+  <si>
+    <t>['nabeschouwde', 'ingestudeerde', 'toeslagenaffaire', 'jinek', 'kristie']</t>
+  </si>
+  <si>
+    <t>['marijnissen', 'zzp', 'ers', 'pakketjes', 'koeriers']</t>
+  </si>
+  <si>
+    <t>['doorrekeningen', 'geurts', 'leefomgeving', 'snoeiharde', 'innovaties']</t>
+  </si>
+  <si>
+    <t>['kolencentrales', 'thoriumcentrales', 'kerncentrales', 'klimaatafspraken', 'verkiezingsprogramma']</t>
+  </si>
+  <si>
+    <t>['inkomensongelijkheid', 'marijnissen', 'belastingstelsel', 'verkiezingsprogramma', 'geprofiteerd']</t>
+  </si>
+  <si>
+    <t>['meldt', '4605', 'coronabesmettingen', 'besmettingen', 'coronabesmetting']</t>
+  </si>
+  <si>
     <t>['obesitas', 'marijnissen', 'vraagstuk', 'debatteren', 'regeringspartijen']</t>
   </si>
   <si>
-    <t>['meldt', '4605', 'coronabesmettingen', 'besmettingen', 'coronabesmetting']</t>
+    <t>['leerachterstanden', 'nynke', 'mondkapjes', '2024', 'verkiezingsdebat']</t>
+  </si>
+  <si>
+    <t>['brexitreferendum', 'baanzekerheid', 'schiffers', 'europese', 'wereldtoneel']</t>
+  </si>
+  <si>
+    <t>['onwenselijk', 'couscousbar', 'couscous', 'nederlanders', 'theoloog']</t>
+  </si>
+  <si>
+    <t>['ipsos', 'forumstemmers', 'kiesgerechtigden', 'coronapandemie', 'coronavirus']</t>
+  </si>
+  <si>
+    <t>['europeanen', 'geactualiseerde', 'anagr', 'williams', '11zeerovers']</t>
+  </si>
+  <si>
+    <t>['vlaams', 'zelfzuchtiger', 'bejaard', 'rekkem', 'jozef']</t>
+  </si>
+  <si>
+    <t>['wolkenvelden', 'klimaatdoelen', 'vriespunt', 'verkiezingsprogramma', 'leefomgeving']</t>
+  </si>
+  <si>
+    <t>['lastenverzwaring', 'doorrekeningen', 'verkiezingsprogramma', 'overheidsuitgaven', '50plus']</t>
+  </si>
+  <si>
+    <t>['oneliner', 'strateeg', 'opiniepeiler', 'campagnestrateeg', 'gamechanger']</t>
+  </si>
+  <si>
+    <t>['gevaccineerden', 'gamechanger', 'coronamaatregelen', 'verkiezingsdebat', 'marijnissen']</t>
+  </si>
+  <si>
+    <t>['filmprofessionals', 'juryleden', 'berlinale', 'mohammad', 'volente']</t>
+  </si>
+  <si>
+    <t>['klimaatdoelen', 'doorrekeningen', 'verkiezingsprogramma', 'leefomgeving', 'waarmaken']</t>
+  </si>
+  <si>
+    <t>['vervuilend', 'doorrekeningen', 'klimaatparagraaf', 'klimaatakkoord', 'klimaatdoel']</t>
+  </si>
+  <si>
+    <t>['nieuwenburg', 'gasvrij', 'besmettingen', 'aardgasvrij', 'versoepelingen']</t>
+  </si>
+  <si>
+    <t>['rampspoed', 'doorrekeningen', 'reductie', 'overshoot', 'groener']</t>
+  </si>
+  <si>
+    <t>['ronald', 'hilariteit', 'zit', 'westerse', 'migratieachtergrond']</t>
+  </si>
+  <si>
+    <t>['gevaccineerde', 'vaccinatiebewijs', 'zelftesten', 'sportstadions', 'vaccinatiecertificaat']</t>
   </si>
   <si>
     <t>['besmettingskansen', 'volmachtsstemmen', 'schielijk', 'volmachten', 'baudets']</t>
   </si>
   <si>
-    <t>['verwarmingselement', 'reparateurs', 'koffiezetapparaat', 'reparateur', 'boiler']</t>
-  </si>
-  <si>
-    <t>['livesessies', 'vrijheidskaravaan', 'flyerende', 'facebook', 'windjacks']</t>
-  </si>
-  <si>
-    <t>['lastenverzwaring', 'doorrekeningen', 'verkiezingsprogramma', 'overheidsuitgaven', '50plus']</t>
+    <t>['begrotingsjaar', 'beleidskeuzes', 'meegeteld', '2024', 'gemeentefinanci']</t>
+  </si>
+  <si>
+    <t>['instructeur', 'hometrainers', 'housebeat', 'zit', 'galmt']</t>
+  </si>
+  <si>
+    <t>['begrotingsbeleid', 'verslechtering', 'verkiezingsprogramma', 'kamerfracties', 'leefomgeving']</t>
+  </si>
+  <si>
+    <t>['broeikasgasuitstoot', 'broeikasuitstoot', 'broeikasgas', 'reductie', 'veehouderij']</t>
+  </si>
+  <si>
+    <t>['greenpeace', 'nagestreefde', 'doorrekeningen', 'milieuclubs', 'klimaatakkoord']</t>
+  </si>
+  <si>
+    <t>['stikstofreductie', 'veestapel', 'langsgaan', 'versus', 'valt']</t>
+  </si>
+  <si>
+    <t>['oneliners', 'ludieke', 'omtzigt', 'pitbull', 'snedige']</t>
+  </si>
+  <si>
+    <t>['bekeurd', 'uitdeelden', 'fvd', 'ers', 'nijmegen']</t>
+  </si>
+  <si>
+    <t>['doorrekeningen', 'uitglijer', 'berekeningen', 'amsterdam', 'leefomgeving']</t>
+  </si>
+  <si>
+    <t>['tytsjerk', 'scheffer', 'lezersreacties', 'alsnog', 'viruswaarheid']</t>
+  </si>
+  <si>
+    <t>['verslechtert', 'vestigingsklimaat', 'verkiezingsplannen', 'mrd', 'jakob']</t>
+  </si>
+  <si>
+    <t>['besmettingscijfers', 'rtl', 'holland', 'versoepelingen', 'pati']</t>
+  </si>
+  <si>
+    <t>['sneltesten', 'gevaccineerden', 'gevaccineerde', 'sneltests', 'vaccineren']</t>
+  </si>
+  <si>
+    <t>['toeslagenaffaire', 'uitglijders', 'jetske', 'treedt', 'kristie']</t>
+  </si>
+  <si>
+    <t>['labradorpuppy', 'internethumor', 'beeldgrappen', 'ontwapent', 'tevoorschijn']</t>
+  </si>
+  <si>
+    <t>['vaccinatiepaspoort', 'gevaccineerde', 'herwonnen', 'europese', 'rutte']</t>
   </si>
   <si>
     <t>['belastingverhogingen', 'gevaccineerden', 'lijsttrekkersdebatten', 'gevaccineerde', 'vaccinatiebewijs']</t>
   </si>
   <si>
-    <t>['farmaceut', 'dwanglicenties', 'pharmaceuticals', 'vaccinfabrikanten', 'gedetineerd']</t>
-  </si>
-  <si>
-    <t>['4605', 'besmettingen', 'ziekenhuisbezetting', 'coronapati', '525']</t>
-  </si>
-  <si>
-    <t>['ipsos', 'coronavirus', 'gefabriceerd', 'complottheori', 'nieuwsuur']</t>
-  </si>
-  <si>
-    <t>['lastenverzwaringen', 'lastenverzwaring', 'doorrekeningen', 'bedrijfslasten', 'schrikbarend']</t>
-  </si>
-  <si>
-    <t>['leiderschapscrisis', 'omtzigt', 'verkiezingsdebat', 'lubbers', 'ruud']</t>
-  </si>
-  <si>
-    <t>['broeikasgasuitstoot', 'broeikasuitstoot', 'broeikasgas', 'reductie', 'veehouderij']</t>
-  </si>
-  <si>
-    <t>['coryfee', 'klimaatparagraaf', 'klimaatberaad', 'klimaatakkoord', 'verkiezingsprogramma']</t>
-  </si>
-  <si>
-    <t>['kieslijst', 'beschuldigingen', 'beveiligers', 'groenlinks', 'pvv']</t>
-  </si>
-  <si>
-    <t>['klimaatdoelen', 'verkleint', 'klimaatwensen', 'leefomgeving', 'amsterdam']</t>
-  </si>
-  <si>
-    <t>['ongeregeldheden', 'antilockdowndemo', 'wapenstokken', 'stephen', 'demonstranten']</t>
-  </si>
-  <si>
-    <t>['klimaatneutraal', 'klimaatnegatief', 'energiezuinige', 'sellingpoint', 'circulair']</t>
-  </si>
-  <si>
-    <t>['seksueel', 'facebook', 'kathalijne', 'presidium', 'rijksrecherche']</t>
-  </si>
-  <si>
-    <t>['studiefinanciering', 'grimmius', 'eerstejaarsstudenten', 'xa9n', 'studentenleven']</t>
-  </si>
-  <si>
-    <t>['opruiing', 'tegendemonstranten', 'anderhalvemeterregel', 'bekeuring', 'amsterdam']</t>
-  </si>
-  <si>
-    <t>['testwattenstaafjes', 'strubbelingen', 'mondkapjes', 'testvloeistof', 'kamerdebatten']</t>
-  </si>
-  <si>
-    <t>['sennema', 'hilde', 'humanistische', 'wennen', 'televisiekijken']</t>
-  </si>
-  <si>
-    <t>['ipsos', 'complotdenkers', 'coronavirus', 'thierry', 'urk']</t>
-  </si>
-  <si>
-    <t>['doorrekeningen', 'geurts', 'leefomgeving', 'snoeiharde', 'innovaties']</t>
-  </si>
-  <si>
-    <t>['welzijnswerk', 'bezuinigt', '2024', 'zit', 'verhult']</t>
-  </si>
-  <si>
-    <t>['diversiteitsquota', 'ronald', 'rtl', 'zit', 'wilders']</t>
+    <t>['pakkettenbedrijf', 'valentijnsdag', 'flexwerkers', 'coronabonus', 'liefdesbrief']</t>
+  </si>
+  <si>
+    <t>['overheidsinstantie', 'kinderopvangtoeslagen', 'ettekoven', 'medewetgever', 'tjeenk']</t>
   </si>
   <si>
     <t>['gevaccineerd', 'gevaccineerde', 'sneltesten', 'vaccinatiebewijs', 'vaccineren']</t>
-  </si>
-  <si>
-    <t>['begrotingsbeleid', 'verslechtering', 'verkiezingsprogramma', 'kamerfracties', 'leefomgeving']</t>
-  </si>
-  <si>
-    <t>['blauwtongvirus', 'dierenrechtenorganisaties', 'turkije', 'famagusta', 'karim']</t>
-  </si>
-  <si>
-    <t>['marokkaanse', 'kamervoorzitter', 'rutte', 'ergert', 'wilders']</t>
-  </si>
-  <si>
-    <t>['oneliners', 'ludieke', 'omtzigt', 'pitbull', 'snedige']</t>
-  </si>
-  <si>
-    <t>['brexitreferendum', 'baanzekerheid', 'europese', 'wereldtoneel', 'brussel']</t>
-  </si>
-  <si>
-    <t>['meldt', 'chinese', 'bruno', 'coronavirus', 'losbarstte']</t>
-  </si>
-  <si>
-    <t>['leerachterstanden', 'nynke', 'mondkapjes', '2024', 'verkiezingsdebat']</t>
-  </si>
-  <si>
-    <t>['onwenselijk', 'couscousbar', 'couscous', 'nederlanders', 'theoloog']</t>
-  </si>
-  <si>
-    <t>['marijnissen', 'zzp', 'ers', 'pakketjes', 'koeriers']</t>
-  </si>
-  <si>
-    <t>['koningsdag', 'limburgse', 'alsnog', 'oranjefeest', 'feest']</t>
-  </si>
-  <si>
-    <t>['verkiezingsretoriek', 'partijkartelbestrijder', 'kiezersbedrog', 'windturbines', 'brabantse']</t>
-  </si>
-  <si>
-    <t>['tsjernivtsi', 'zaporizja', 'zuurstofexplosie', 'oekraïne', 'zuurstofleiding']</t>
-  </si>
-  <si>
-    <t>['melkveehouder', 'toeslagenaffaire', 'coronarestricties', 'traditioneel', 'verkiezingsdebat']</t>
-  </si>
-  <si>
-    <t>['nageleefd', 'vondelpark', 'amsterdamse', 'gelderland', 'kaarsjes']</t>
-  </si>
-  <si>
-    <t>['instructeur', 'hometrainers', 'housebeat', 'zit', 'galmt']</t>
-  </si>
-  <si>
-    <t>['ethiek', 'tonnekreek', 'aftakelen', 'roosendaal', 'plusser']</t>
-  </si>
-  <si>
-    <t>['meldt', 'tegendemonstranten', 'opruiing', 'bekeurd', 'flyeren']</t>
-  </si>
-  <si>
-    <t>['toeslagenaffaire', 'schandvlek', 'kristie', 'fraudeurs', 'rechtshulp']</t>
-  </si>
-  <si>
-    <t>['weekeindebijlages', 'blijvertje', 'apegapen', 'verkiezingsnieuws', 'amechtig']</t>
-  </si>
-  <si>
-    <t>['afghanistan', 'rechtsgeleerde', 'verantwoordelijkheid', 'popelen', 'ellian']</t>
-  </si>
-  <si>
-    <t>['coronapati', 'marijnissen', 'rtl', 'verkiezingsdebat', 'schenen']</t>
-  </si>
-  <si>
-    <t>['amsterdamse', 'schoolleiders', 'baudet', 'thierry', 'verkiezingsspecial']</t>
-  </si>
-  <si>
-    <t>['kolencentrales', 'thoriumcentrales', 'kerncentrales', 'klimaatafspraken', 'verkiezingsprogramma']</t>
-  </si>
-  <si>
-    <t>['loonkloof', 'eindsalaris', 'salarissen', 'startsalaris', 'salarisschalen']</t>
-  </si>
-  <si>
-    <t>['gevaccineerde', 'vaccinatiebewijs', 'zelftesten', 'sportstadions', 'vaccinatiecertificaat']</t>
-  </si>
-  <si>
-    <t>['verkiezingsmanifestaties', 'verkiezingskaravaan', 'verkiezingsbijeenkomst', 'glaudemans', 'baudet']</t>
-  </si>
-  <si>
-    <t>['tytsjerk', 'scheffer', 'lezersreacties', 'alsnog', 'viruswaarheid']</t>
-  </si>
-  <si>
-    <t>['bijstandsuitkeringen', '50pluss', 'maandloon', 'uurloon', 'mrd']</t>
-  </si>
-  <si>
-    <t>['broeikasgasuitstoot', 'klimaatwinst', 'leefomgeving', 'milieuregels', 'zogeheten']</t>
-  </si>
-  <si>
-    <t>['lijsttrekkersdebat', 'premiersdebat', 'pareer', 'icwilt', 'meertrapsaanval']</t>
-  </si>
-  <si>
-    <t>['vlaams', 'zelfzuchtiger', 'bejaard', 'rekkem', 'jozef']</t>
-  </si>
-  <si>
-    <t>['besmettingscijfers', 'rtl', 'holland', 'versoepelingen', 'pati']</t>
-  </si>
-  <si>
-    <t>['virussen', 'chinees', 'ebolavirus', 'ingestonken', 'coronavirus']</t>
-  </si>
-  <si>
-    <t>['strijensas', 'roodenrijs', 'vlaardingen', 'thomson', 'lezersbrieven']</t>
-  </si>
-  <si>
-    <t>['labradorpuppy', 'internethumor', 'beeldgrappen', 'ontwapent', 'tevoorschijn']</t>
-  </si>
-  <si>
-    <t>['doorrekeningen', 'woningaanbod', 'verkiezingsprogramma', 'leefomgeving', 'woningtekort']</t>
-  </si>
-  <si>
-    <t>['gevaccineerden', 'gamechanger', 'coronamaatregelen', 'verkiezingsdebat', 'marijnissen']</t>
-  </si>
-  <si>
-    <t>['gevaccineerd', 'gevaccineerden', 'gevaccineerde', 'vaccinatiebewijs', 'coronatests']</t>
-  </si>
-  <si>
-    <t>['ruttes', 'kabinetsgenoot', 'flexcontracten', 'ongenaakbare', 'achilleshiel']</t>
-  </si>
-  <si>
-    <t>['onafwendbaar', 'ruttes', 'opofferen', 'slavernijverleden', 'amerikaanse']</t>
-  </si>
-  <si>
-    <t>['grensoverschrijdende', 'schimmelpenninck', 'europese', 'grensoverschrijdend', 'kritiekloos']</t>
-  </si>
-  <si>
-    <t>['doorrekeningen', 'uitglijer', 'berekeningen', 'amsterdam', 'leefomgeving']</t>
-  </si>
-  <si>
-    <t>['verslechtert', 'vestigingsklimaat', 'verkiezingsplannen', 'mrd', 'jakob']</t>
-  </si>
-  <si>
-    <t>['greenpeace', 'ronald', 'derksen', 'nuanceert', 'westervoort']</t>
-  </si>
-  <si>
-    <t>['onderhandelingsmanoeuvre', 'verkiezingsdebatten', 'desondanks', 'rtl', 'opiniepanel']</t>
-  </si>
-  <si>
-    <t>['greenpeace', 'nagestreefde', 'doorrekeningen', 'milieuclubs', 'klimaatakkoord']</t>
-  </si>
-  <si>
-    <t>['toeslagenaffaire', 'uitglijders', 'jetske', 'treedt', 'kristie']</t>
-  </si>
-  <si>
-    <t>['nieuwenburg', 'gasvrij', 'besmettingen', 'aardgasvrij', 'versoepelingen']</t>
-  </si>
-  <si>
-    <t>['nabeschouwde', 'ingestudeerde', 'toeslagenaffaire', 'jinek', 'kristie']</t>
-  </si>
-  <si>
-    <t>['wolkenvelden', 'klimaatdoelen', 'vriespunt', 'verkiezingsprogramma', 'leefomgeving']</t>
-  </si>
-  <si>
-    <t>['rampspoed', 'doorrekeningen', 'reductie', 'overshoot', 'groener']</t>
-  </si>
-  <si>
-    <t>['hoornespolder', 'neptunus', 'rijtjeswoningen', 'woonerven', 'woonkernen']</t>
-  </si>
-  <si>
-    <t>['doorrekeningen', 'bevriezing', 'dividendbelasting', 'verkiezingsprogramma', 'omtzigt']</t>
-  </si>
-  <si>
-    <t>['parsifal', 'lockdown', 'ingeruild', 'verslaggeverscolumn', 'thierry']</t>
-  </si>
-  <si>
-    <t>['klimaatdoelen', 'doorrekeningen', 'verkiezingsprogramma', 'leefomgeving', 'waarmaken']</t>
-  </si>
-  <si>
-    <t>['lastenverzwaring', 'autobelastingen', 'kilometerheffing', 'vliegbelasting', 'gedifferentieerde']</t>
-  </si>
-  <si>
-    <t>['ronald', 'hilariteit', 'zit', 'westerse', 'migratieachtergrond']</t>
-  </si>
-  <si>
-    <t>['europeanen', 'geactualiseerde', 'anagr', 'williams', '11zeerovers']</t>
   </si>
 </sst>
 </file>
@@ -1388,7 +1388,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N100"/>
+  <dimension ref="A1:N90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1440,937 +1440,934 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2">
-        <v>0.74202025</v>
+        <v>0.786428</v>
       </c>
       <c r="B2" t="s">
         <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>72</v>
       </c>
       <c r="D2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="G2" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="H2" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="I2">
-        <v>3285316</v>
+        <v>3286174</v>
       </c>
       <c r="J2">
-        <v>6290557</v>
+        <v>3285229</v>
       </c>
       <c r="K2" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="L2" t="s">
-        <v>168</v>
+        <v>212</v>
       </c>
       <c r="M2" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="N2" t="s">
-        <v>258</v>
+        <v>304</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3">
-        <v>0.77158016</v>
+        <v>0.71972203</v>
       </c>
       <c r="B3" t="s">
         <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="D3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E3" t="s">
         <v>109</v>
       </c>
       <c r="F3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G3" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="H3" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="I3">
-        <v>3288497</v>
+        <v>3285233</v>
       </c>
       <c r="J3">
-        <v>3286364</v>
+        <v>3285386</v>
       </c>
       <c r="K3" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="L3" t="s">
-        <v>189</v>
+        <v>213</v>
       </c>
       <c r="M3" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="N3" t="s">
-        <v>279</v>
+        <v>305</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4">
-        <v>0.78667533</v>
+        <v>0.6824603</v>
       </c>
       <c r="B4" t="s">
         <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D4" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F4" t="s">
-        <v>139</v>
+        <v>109</v>
       </c>
       <c r="G4" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="H4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="I4">
-        <v>3288518</v>
+        <v>3290668</v>
       </c>
       <c r="J4">
-        <v>6290523</v>
+        <v>3285657</v>
       </c>
       <c r="K4" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="L4" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="M4" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="N4" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5">
-        <v>0.7508146999999999</v>
+        <v>0.635099</v>
       </c>
       <c r="B5" t="s">
         <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D5" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F5" t="s">
-        <v>140</v>
+        <v>109</v>
       </c>
       <c r="G5" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H5" t="s">
         <v>155</v>
       </c>
       <c r="I5">
-        <v>3287480</v>
+        <v>3285637</v>
       </c>
       <c r="J5">
-        <v>6290556</v>
+        <v>3285386</v>
       </c>
       <c r="K5" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="L5" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="M5" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="N5" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6">
-        <v>0.60565317</v>
+        <v>0.7086933</v>
       </c>
       <c r="B6" t="s">
         <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D6" t="s">
         <v>107</v>
       </c>
       <c r="E6" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F6" t="s">
-        <v>108</v>
+        <v>135</v>
       </c>
       <c r="G6" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="H6" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="I6">
-        <v>3290679</v>
+        <v>3287534</v>
       </c>
       <c r="J6">
-        <v>3286194</v>
-      </c>
-      <c r="K6" t="s">
-        <v>164</v>
+        <v>3287459</v>
       </c>
       <c r="L6" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="M6" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="N6" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7">
-        <v>0.8246308999999999</v>
+        <v>0.81155324</v>
       </c>
       <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
         <v>15</v>
       </c>
-      <c r="C7" t="s">
-        <v>80</v>
-      </c>
       <c r="D7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="I7">
-        <v>3288497</v>
+        <v>3287476</v>
       </c>
       <c r="J7">
-        <v>3285375</v>
+        <v>3285233</v>
       </c>
       <c r="K7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L7" t="s">
-        <v>225</v>
+        <v>157</v>
       </c>
       <c r="M7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="N7" t="s">
-        <v>315</v>
+        <v>248</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8">
-        <v>0.7890794</v>
+        <v>0.6964352</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D8" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F8" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="G8" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="H8" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="I8">
-        <v>3285636</v>
+        <v>3286168</v>
       </c>
       <c r="J8">
-        <v>6290555</v>
+        <v>6290557</v>
       </c>
       <c r="K8" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="L8" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="M8" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="N8" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9">
-        <v>0.7886816</v>
+        <v>0.69690436</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="D9" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E9" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F9" t="s">
-        <v>142</v>
+        <v>109</v>
       </c>
       <c r="G9" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="H9" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="I9">
-        <v>3290567</v>
+        <v>3290632</v>
       </c>
       <c r="J9">
-        <v>3287465</v>
+        <v>3286186</v>
       </c>
       <c r="K9" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="L9" t="s">
-        <v>227</v>
+        <v>200</v>
       </c>
       <c r="M9" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="N9" t="s">
-        <v>317</v>
+        <v>292</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10">
-        <v>0.8302801</v>
+        <v>0.68566144</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D10" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E10" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="F10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G10" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H10" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="I10">
-        <v>3285326</v>
+        <v>3287512</v>
       </c>
       <c r="J10">
-        <v>3285227</v>
+        <v>3285217</v>
       </c>
       <c r="K10" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="L10" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="M10" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="N10" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11">
-        <v>0.84029365</v>
+        <v>0.83246404</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="D11" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E11" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F11" t="s">
-        <v>140</v>
+        <v>109</v>
       </c>
       <c r="G11" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="H11" t="s">
         <v>155</v>
       </c>
       <c r="I11">
-        <v>6290557</v>
+        <v>3286378</v>
       </c>
       <c r="J11">
-        <v>3287447</v>
+        <v>3285335</v>
       </c>
       <c r="K11" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="L11" t="s">
-        <v>223</v>
+        <v>195</v>
       </c>
       <c r="M11" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="N11" t="s">
-        <v>313</v>
+        <v>287</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12">
-        <v>0.76583564</v>
+        <v>0.79408604</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>84</v>
+        <v>17</v>
       </c>
       <c r="D12" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E12" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F12" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G12" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="H12" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="I12">
-        <v>3290605</v>
+        <v>3290618</v>
       </c>
       <c r="J12">
-        <v>3286175</v>
+        <v>3285637</v>
       </c>
       <c r="K12" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="L12" t="s">
-        <v>229</v>
+        <v>159</v>
       </c>
       <c r="M12" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="N12" t="s">
-        <v>319</v>
+        <v>250</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13">
-        <v>0.73928654</v>
+        <v>0.86504114</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="D13" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E13" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F13" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="G13" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="H13" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="I13">
-        <v>3290697</v>
+        <v>3287536</v>
       </c>
       <c r="J13">
-        <v>3290679</v>
+        <v>3287535</v>
       </c>
       <c r="K13" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="L13" t="s">
-        <v>164</v>
+        <v>188</v>
       </c>
       <c r="M13" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="N13" t="s">
-        <v>254</v>
+        <v>280</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14">
-        <v>0.7174430000000001</v>
+        <v>0.730341</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="D14" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E14" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="F14" t="s">
-        <v>108</v>
+        <v>137</v>
       </c>
       <c r="G14" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="H14" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="I14">
-        <v>3287538</v>
+        <v>3290640</v>
       </c>
       <c r="J14">
-        <v>3285332</v>
+        <v>3287465</v>
       </c>
       <c r="K14" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="L14" t="s">
-        <v>204</v>
+        <v>218</v>
       </c>
       <c r="M14" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="N14" t="s">
-        <v>295</v>
+        <v>310</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15">
-        <v>0.81092435</v>
+        <v>0.7836885</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C15" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D15" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E15" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F15" t="s">
-        <v>142</v>
+        <v>109</v>
       </c>
       <c r="G15" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H15" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="I15">
-        <v>3285337</v>
+        <v>3290604</v>
       </c>
       <c r="J15">
-        <v>6290574</v>
+        <v>3285254</v>
       </c>
       <c r="K15" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="L15" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="M15" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="N15" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16">
-        <v>0.83790636</v>
+        <v>0.85894483</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="C16" t="s">
         <v>80</v>
       </c>
       <c r="D16" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E16" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="F16" t="s">
-        <v>108</v>
+        <v>138</v>
       </c>
       <c r="G16" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H16" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="I16">
-        <v>3285634</v>
+        <v>3288419</v>
       </c>
       <c r="J16">
-        <v>3285375</v>
+        <v>6290567</v>
       </c>
       <c r="K16" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="L16" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="M16" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="N16" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="17" spans="1:14">
       <c r="A17">
-        <v>0.8517929</v>
+        <v>0.8297132</v>
       </c>
       <c r="B17" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>81</v>
       </c>
       <c r="D17" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E17" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F17" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G17" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="H17" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="I17">
-        <v>3290621</v>
+        <v>3290593</v>
       </c>
       <c r="J17">
-        <v>3285337</v>
+        <v>3285328</v>
       </c>
       <c r="K17" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="L17" t="s">
-        <v>172</v>
+        <v>221</v>
       </c>
       <c r="M17" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="N17" t="s">
-        <v>262</v>
+        <v>313</v>
       </c>
     </row>
     <row r="18" spans="1:14">
       <c r="A18">
-        <v>0.74843025</v>
+        <v>0.78674185</v>
       </c>
       <c r="B18" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C18" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="D18" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E18" t="s">
         <v>115</v>
       </c>
       <c r="F18" t="s">
-        <v>108</v>
+        <v>131</v>
       </c>
       <c r="G18" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="H18" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="I18">
-        <v>3287516</v>
+        <v>3288528</v>
       </c>
       <c r="J18">
-        <v>3285647</v>
+        <v>3287470</v>
       </c>
       <c r="K18" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="L18" t="s">
-        <v>230</v>
+        <v>206</v>
       </c>
       <c r="M18" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="N18" t="s">
-        <v>320</v>
+        <v>298</v>
       </c>
     </row>
     <row r="19" spans="1:14">
       <c r="A19">
-        <v>0.78386235</v>
+        <v>0.7932699</v>
       </c>
       <c r="B19" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C19" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="D19" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E19" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="F19" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G19" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H19" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="I19">
-        <v>3290596</v>
+        <v>3287577</v>
       </c>
       <c r="J19">
-        <v>3285633</v>
+        <v>3285254</v>
       </c>
       <c r="K19" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="L19" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="M19" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="N19" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
     </row>
     <row r="20" spans="1:14">
       <c r="A20">
-        <v>0.75481224</v>
+        <v>0.8010541</v>
       </c>
       <c r="B20" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C20" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D20" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E20" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F20" t="s">
-        <v>108</v>
+        <v>139</v>
       </c>
       <c r="G20" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="H20" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="I20">
-        <v>3290593</v>
+        <v>3285240</v>
       </c>
       <c r="J20">
-        <v>3290566</v>
+        <v>6290579</v>
       </c>
       <c r="K20" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="L20" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="M20" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="N20" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
     </row>
     <row r="21" spans="1:14">
       <c r="A21">
-        <v>0.65929</v>
+        <v>0.79369247</v>
       </c>
       <c r="B21" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C21" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="D21" t="s">
         <v>107</v>
       </c>
       <c r="E21" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F21" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G21" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H21" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="I21">
-        <v>3286168</v>
+        <v>3285316</v>
       </c>
       <c r="J21">
-        <v>3285370</v>
+        <v>3285335</v>
       </c>
       <c r="K21" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="L21" t="s">
-        <v>216</v>
+        <v>195</v>
       </c>
       <c r="M21" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="N21" t="s">
-        <v>307</v>
+        <v>287</v>
       </c>
     </row>
     <row r="22" spans="1:14">
       <c r="A22">
-        <v>0.6883018</v>
+        <v>0.7389829</v>
       </c>
       <c r="B22" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C22" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="D22" t="s">
         <v>107</v>
       </c>
       <c r="E22" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="F22" t="s">
-        <v>108</v>
+        <v>139</v>
       </c>
       <c r="G22" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H22" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="I22">
-        <v>3287472</v>
+        <v>3285647</v>
       </c>
       <c r="J22">
-        <v>3286375</v>
+        <v>6290579</v>
       </c>
       <c r="K22" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="L22" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="M22" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="N22" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
     </row>
     <row r="23" spans="1:14">
       <c r="A23">
-        <v>0.6816601</v>
+        <v>0.81855553</v>
       </c>
       <c r="B23" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C23" t="s">
-        <v>47</v>
+        <v>80</v>
       </c>
       <c r="D23" t="s">
         <v>107</v>
@@ -2379,1972 +2376,1972 @@
         <v>117</v>
       </c>
       <c r="F23" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="G23" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H23" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I23">
-        <v>3287531</v>
+        <v>3288497</v>
       </c>
       <c r="J23">
-        <v>3287476</v>
+        <v>3287458</v>
       </c>
       <c r="K23" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="L23" t="s">
-        <v>193</v>
+        <v>220</v>
       </c>
       <c r="M23" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="N23" t="s">
-        <v>283</v>
+        <v>312</v>
       </c>
     </row>
     <row r="24" spans="1:14">
       <c r="A24">
-        <v>0.7478722</v>
+        <v>0.7749176</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C24" t="s">
-        <v>76</v>
+        <v>15</v>
       </c>
       <c r="D24" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E24" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="F24" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G24" t="s">
         <v>153</v>
       </c>
       <c r="H24" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="I24">
-        <v>3290643</v>
+        <v>3288497</v>
       </c>
       <c r="J24">
-        <v>3285657</v>
+        <v>3285233</v>
       </c>
       <c r="K24" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="L24" t="s">
-        <v>221</v>
+        <v>157</v>
       </c>
       <c r="M24" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="N24" t="s">
-        <v>311</v>
+        <v>248</v>
       </c>
     </row>
     <row r="25" spans="1:14">
       <c r="A25">
-        <v>0.78204226</v>
+        <v>0.68738484</v>
       </c>
       <c r="B25" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C25" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D25" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E25" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="F25" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="G25" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="H25" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="I25">
-        <v>3287512</v>
+        <v>3286375</v>
       </c>
       <c r="J25">
-        <v>3287448</v>
+        <v>3290618</v>
       </c>
       <c r="K25" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="L25" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="M25" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="N25" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="26" spans="1:14">
       <c r="A26">
-        <v>0.8125943</v>
+        <v>0.7147797299999999</v>
       </c>
       <c r="B26" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="C26" t="s">
-        <v>27</v>
+        <v>62</v>
       </c>
       <c r="D26" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E26" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="F26" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G26" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="H26" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="I26">
-        <v>3288419</v>
+        <v>3290632</v>
       </c>
       <c r="J26">
-        <v>3290621</v>
+        <v>3285661</v>
       </c>
       <c r="K26" t="s">
-        <v>182</v>
+        <v>162</v>
       </c>
       <c r="L26" t="s">
-        <v>173</v>
+        <v>202</v>
       </c>
       <c r="M26" t="s">
-        <v>272</v>
+        <v>254</v>
       </c>
       <c r="N26" t="s">
-        <v>263</v>
+        <v>294</v>
       </c>
     </row>
     <row r="27" spans="1:14">
       <c r="A27">
-        <v>0.76439774</v>
+        <v>0.8978096</v>
       </c>
       <c r="B27" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="C27" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D27" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E27" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="F27" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G27" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="H27" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="I27">
-        <v>3288493</v>
+        <v>3290621</v>
       </c>
       <c r="J27">
-        <v>3290580</v>
+        <v>3286188</v>
       </c>
       <c r="K27" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
       <c r="L27" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="M27" t="s">
-        <v>251</v>
+        <v>270</v>
       </c>
       <c r="N27" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
     </row>
     <row r="28" spans="1:14">
       <c r="A28">
-        <v>0.79884696</v>
+        <v>0.8380609999999999</v>
       </c>
       <c r="B28" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C28" t="s">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="D28" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E28" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F28" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G28" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H28" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="I28">
-        <v>3290632</v>
+        <v>3286373</v>
       </c>
       <c r="J28">
-        <v>3290606</v>
+        <v>3290580</v>
       </c>
       <c r="K28" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="L28" t="s">
-        <v>233</v>
+        <v>204</v>
       </c>
       <c r="M28" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="N28" t="s">
-        <v>323</v>
+        <v>296</v>
       </c>
     </row>
     <row r="29" spans="1:14">
       <c r="A29">
-        <v>0.72014004</v>
+        <v>0.8455217</v>
       </c>
       <c r="B29" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C29" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D29" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E29" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="F29" t="s">
-        <v>108</v>
+        <v>140</v>
       </c>
       <c r="G29" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="H29" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="I29">
-        <v>3287522</v>
+        <v>3286188</v>
       </c>
       <c r="J29">
-        <v>3286377</v>
+        <v>6290506</v>
       </c>
       <c r="K29" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="L29" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="M29" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="N29" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
     </row>
     <row r="30" spans="1:14">
       <c r="A30">
-        <v>0.7251513000000001</v>
+        <v>0.72150725</v>
       </c>
       <c r="B30" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C30" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="D30" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E30" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F30" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G30" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="H30" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I30">
-        <v>3290640</v>
+        <v>3285325</v>
       </c>
       <c r="J30">
-        <v>3285326</v>
+        <v>3285647</v>
       </c>
       <c r="K30" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="L30" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="M30" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="N30" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
     </row>
     <row r="31" spans="1:14">
       <c r="A31">
-        <v>0.88374424</v>
+        <v>0.83189654</v>
       </c>
       <c r="B31" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C31" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="D31" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E31" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="F31" t="s">
-        <v>108</v>
+        <v>139</v>
       </c>
       <c r="G31" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="H31" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="I31">
-        <v>3287578</v>
+        <v>3290643</v>
       </c>
       <c r="J31">
-        <v>3286373</v>
+        <v>6290579</v>
       </c>
       <c r="K31" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="L31" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="M31" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="N31" t="s">
-        <v>301</v>
+        <v>314</v>
       </c>
     </row>
     <row r="32" spans="1:14">
       <c r="A32">
-        <v>0.8096656</v>
+        <v>0.63500416</v>
       </c>
       <c r="B32" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C32" t="s">
-        <v>22</v>
+        <v>84</v>
       </c>
       <c r="D32" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E32" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="F32" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="G32" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="H32" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="I32">
-        <v>3290580</v>
+        <v>3287538</v>
       </c>
       <c r="J32">
-        <v>3287448</v>
+        <v>3287477</v>
       </c>
       <c r="K32" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="L32" t="s">
-        <v>168</v>
+        <v>224</v>
       </c>
       <c r="M32" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="N32" t="s">
-        <v>258</v>
+        <v>316</v>
       </c>
     </row>
     <row r="33" spans="1:14">
       <c r="A33">
-        <v>0.78788936</v>
+        <v>0.65243703</v>
       </c>
       <c r="B33" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C33" t="s">
-        <v>90</v>
+        <v>34</v>
       </c>
       <c r="D33" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E33" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F33" t="s">
-        <v>139</v>
+        <v>109</v>
       </c>
       <c r="G33" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="H33" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="I33">
-        <v>3285637</v>
+        <v>3290620</v>
       </c>
       <c r="J33">
-        <v>3287414</v>
+        <v>3285647</v>
       </c>
       <c r="K33" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="L33" t="s">
-        <v>222</v>
+        <v>175</v>
       </c>
       <c r="M33" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="N33" t="s">
-        <v>312</v>
+        <v>267</v>
       </c>
     </row>
     <row r="34" spans="1:14">
       <c r="A34">
-        <v>0.7917568699999999</v>
+        <v>0.68331075</v>
       </c>
       <c r="B34" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C34" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D34" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E34" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F34" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G34" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="H34" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="I34">
-        <v>3286364</v>
+        <v>3286194</v>
       </c>
       <c r="J34">
-        <v>3290618</v>
+        <v>3286178</v>
       </c>
       <c r="K34" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="L34" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="M34" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="N34" t="s">
-        <v>260</v>
+        <v>317</v>
       </c>
     </row>
     <row r="35" spans="1:14">
       <c r="A35">
-        <v>0.8021635</v>
+        <v>0.7646898</v>
       </c>
       <c r="B35" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="C35" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="D35" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E35" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="F35" t="s">
-        <v>143</v>
+        <v>109</v>
       </c>
       <c r="G35" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="H35" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="I35">
-        <v>3285327</v>
+        <v>3288493</v>
       </c>
       <c r="J35">
-        <v>6290581</v>
+        <v>3285636</v>
       </c>
       <c r="K35" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="L35" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="M35" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="N35" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
     </row>
     <row r="36" spans="1:14">
       <c r="A36">
-        <v>0.82730436</v>
+        <v>0.7831048</v>
       </c>
       <c r="B36" t="s">
         <v>45</v>
       </c>
       <c r="C36" t="s">
-        <v>93</v>
+        <v>51</v>
       </c>
       <c r="D36" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E36" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="F36" t="s">
-        <v>144</v>
+        <v>109</v>
       </c>
       <c r="G36" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="H36" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="I36">
-        <v>3285625</v>
+        <v>3290705</v>
       </c>
       <c r="J36">
-        <v>3287399</v>
+        <v>3290570</v>
       </c>
       <c r="K36" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="L36" t="s">
-        <v>237</v>
+        <v>192</v>
       </c>
       <c r="M36" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="N36" t="s">
-        <v>326</v>
+        <v>284</v>
       </c>
     </row>
     <row r="37" spans="1:14">
       <c r="A37">
-        <v>0.6894419000000001</v>
+        <v>0.867754</v>
       </c>
       <c r="B37" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="C37" t="s">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="D37" t="s">
         <v>107</v>
       </c>
       <c r="E37" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="F37" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G37" t="s">
+        <v>151</v>
+      </c>
+      <c r="H37" t="s">
         <v>152</v>
       </c>
-      <c r="H37" t="s">
-        <v>159</v>
-      </c>
       <c r="I37">
-        <v>3287538</v>
+        <v>3287516</v>
       </c>
       <c r="J37">
-        <v>3285226</v>
+        <v>3286373</v>
       </c>
       <c r="K37" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
       <c r="L37" t="s">
-        <v>220</v>
+        <v>179</v>
       </c>
       <c r="M37" t="s">
-        <v>261</v>
+        <v>279</v>
       </c>
       <c r="N37" t="s">
-        <v>310</v>
+        <v>271</v>
       </c>
     </row>
     <row r="38" spans="1:14">
       <c r="A38">
-        <v>0.7521683</v>
+        <v>0.81870955</v>
       </c>
       <c r="B38" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="C38" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="D38" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E38" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="F38" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G38" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H38" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I38">
-        <v>3288534</v>
+        <v>3287536</v>
       </c>
       <c r="J38">
-        <v>3285322</v>
+        <v>3285615</v>
       </c>
       <c r="K38" t="s">
-        <v>192</v>
+        <v>166</v>
       </c>
       <c r="L38" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="M38" t="s">
-        <v>282</v>
+        <v>258</v>
       </c>
       <c r="N38" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
     </row>
     <row r="39" spans="1:14">
       <c r="A39">
-        <v>0.76474684</v>
+        <v>0.7815106000000001</v>
       </c>
       <c r="B39" t="s">
         <v>47</v>
       </c>
       <c r="C39" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="D39" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E39" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F39" t="s">
-        <v>108</v>
+        <v>128</v>
       </c>
       <c r="G39" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="H39" t="s">
         <v>150</v>
       </c>
       <c r="I39">
-        <v>3287476</v>
+        <v>3287535</v>
       </c>
       <c r="J39">
-        <v>3285375</v>
+        <v>3287475</v>
       </c>
       <c r="K39" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="L39" t="s">
-        <v>225</v>
+        <v>201</v>
       </c>
       <c r="M39" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="N39" t="s">
-        <v>315</v>
+        <v>293</v>
       </c>
     </row>
     <row r="40" spans="1:14">
       <c r="A40">
-        <v>0.776448</v>
+        <v>0.7778931</v>
       </c>
       <c r="B40" t="s">
         <v>48</v>
       </c>
       <c r="C40" t="s">
-        <v>93</v>
+        <v>17</v>
       </c>
       <c r="D40" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E40" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F40" t="s">
-        <v>144</v>
+        <v>109</v>
       </c>
       <c r="G40" t="s">
+        <v>152</v>
+      </c>
+      <c r="H40" t="s">
+        <v>149</v>
+      </c>
+      <c r="I40">
+        <v>3286377</v>
+      </c>
+      <c r="J40">
+        <v>3285637</v>
+      </c>
+      <c r="K40" t="s">
+        <v>189</v>
+      </c>
+      <c r="L40" t="s">
         <v>159</v>
       </c>
-      <c r="H40" t="s">
-        <v>152</v>
-      </c>
-      <c r="I40">
-        <v>3285230</v>
-      </c>
-      <c r="J40">
-        <v>3287399</v>
-      </c>
-      <c r="K40" t="s">
-        <v>194</v>
-      </c>
-      <c r="L40" t="s">
-        <v>237</v>
-      </c>
       <c r="M40" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="N40" t="s">
-        <v>326</v>
+        <v>250</v>
       </c>
     </row>
     <row r="41" spans="1:14">
       <c r="A41">
-        <v>0.7620107</v>
+        <v>0.67451394</v>
       </c>
       <c r="B41" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="C41" t="s">
-        <v>86</v>
+        <v>36</v>
       </c>
       <c r="D41" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E41" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="F41" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G41" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H41" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="I41">
-        <v>3290697</v>
+        <v>3287580</v>
       </c>
       <c r="J41">
-        <v>3285633</v>
+        <v>3286375</v>
       </c>
       <c r="K41" t="s">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="L41" t="s">
-        <v>231</v>
+        <v>177</v>
       </c>
       <c r="M41" t="s">
-        <v>260</v>
+        <v>282</v>
       </c>
       <c r="N41" t="s">
-        <v>321</v>
+        <v>269</v>
       </c>
     </row>
     <row r="42" spans="1:14">
       <c r="A42">
-        <v>0.82423955</v>
+        <v>0.76559657</v>
       </c>
       <c r="B42" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="C42" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="D42" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E42" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F42" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G42" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="H42" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="I42">
-        <v>3285316</v>
+        <v>3285325</v>
       </c>
       <c r="J42">
-        <v>3285370</v>
+        <v>3285332</v>
       </c>
       <c r="K42" t="s">
-        <v>160</v>
+        <v>181</v>
       </c>
       <c r="L42" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="M42" t="s">
-        <v>250</v>
+        <v>273</v>
       </c>
       <c r="N42" t="s">
-        <v>307</v>
+        <v>320</v>
       </c>
     </row>
     <row r="43" spans="1:14">
       <c r="A43">
-        <v>0.7779468</v>
+        <v>0.80354905</v>
       </c>
       <c r="B43" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="C43" t="s">
-        <v>14</v>
+        <v>89</v>
       </c>
       <c r="D43" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E43" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F43" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G43" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H43" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I43">
-        <v>3290688</v>
+        <v>3286373</v>
       </c>
       <c r="J43">
-        <v>3285316</v>
+        <v>3285625</v>
       </c>
       <c r="K43" t="s">
-        <v>195</v>
+        <v>179</v>
       </c>
       <c r="L43" t="s">
-        <v>160</v>
+        <v>229</v>
       </c>
       <c r="M43" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="N43" t="s">
-        <v>250</v>
+        <v>321</v>
       </c>
     </row>
     <row r="44" spans="1:14">
       <c r="A44">
-        <v>0.77434814</v>
+        <v>0.6827179</v>
       </c>
       <c r="B44" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="C44" t="s">
-        <v>44</v>
+        <v>90</v>
       </c>
       <c r="D44" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E44" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="F44" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G44" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H44" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="I44">
-        <v>3288528</v>
+        <v>3287476</v>
       </c>
       <c r="J44">
-        <v>3285327</v>
+        <v>3290596</v>
       </c>
       <c r="K44" t="s">
-        <v>196</v>
+        <v>160</v>
       </c>
       <c r="L44" t="s">
-        <v>190</v>
+        <v>230</v>
       </c>
       <c r="M44" t="s">
-        <v>286</v>
+        <v>252</v>
       </c>
       <c r="N44" t="s">
-        <v>280</v>
+        <v>322</v>
       </c>
     </row>
     <row r="45" spans="1:14">
       <c r="A45">
-        <v>0.8572247</v>
+        <v>0.76043016</v>
       </c>
       <c r="B45" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="C45" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="D45" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E45" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="F45" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="G45" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="H45" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="I45">
-        <v>3287527</v>
+        <v>3288497</v>
       </c>
       <c r="J45">
-        <v>3287485</v>
+        <v>6290579</v>
       </c>
       <c r="K45" t="s">
-        <v>197</v>
+        <v>176</v>
       </c>
       <c r="L45" t="s">
-        <v>239</v>
+        <v>222</v>
       </c>
       <c r="M45" t="s">
-        <v>287</v>
+        <v>268</v>
       </c>
       <c r="N45" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
     </row>
     <row r="46" spans="1:14">
       <c r="A46">
-        <v>0.81853235</v>
+        <v>0.72641563</v>
       </c>
       <c r="B46" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C46" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D46" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E46" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F46" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G46" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H46" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="I46">
-        <v>3287471</v>
+        <v>3287580</v>
       </c>
       <c r="J46">
-        <v>3285375</v>
+        <v>3285328</v>
       </c>
       <c r="K46" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="L46" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="M46" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="N46" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="47" spans="1:14">
       <c r="A47">
-        <v>0.9093815</v>
+        <v>0.7972147000000001</v>
       </c>
       <c r="B47" t="s">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="C47" t="s">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="D47" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E47" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="F47" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G47" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="H47" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="I47">
-        <v>3290605</v>
+        <v>3287500</v>
       </c>
       <c r="J47">
-        <v>3285227</v>
+        <v>3285335</v>
       </c>
       <c r="K47" t="s">
-        <v>169</v>
+        <v>191</v>
       </c>
       <c r="L47" t="s">
-        <v>228</v>
+        <v>195</v>
       </c>
       <c r="M47" t="s">
-        <v>259</v>
+        <v>283</v>
       </c>
       <c r="N47" t="s">
-        <v>318</v>
+        <v>287</v>
       </c>
     </row>
     <row r="48" spans="1:14">
       <c r="A48">
-        <v>0.71285105</v>
+        <v>0.7656515</v>
       </c>
       <c r="B48" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C48" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D48" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E48" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="F48" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G48" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="H48" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="I48">
-        <v>3287468</v>
+        <v>3290570</v>
       </c>
       <c r="J48">
-        <v>3290632</v>
+        <v>3285240</v>
       </c>
       <c r="K48" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="L48" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="M48" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="N48" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
     </row>
     <row r="49" spans="1:14">
       <c r="A49">
-        <v>0.8499652</v>
+        <v>0.7538038500000001</v>
       </c>
       <c r="B49" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="C49" t="s">
-        <v>96</v>
+        <v>61</v>
       </c>
       <c r="D49" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E49" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="F49" t="s">
-        <v>108</v>
+        <v>128</v>
       </c>
       <c r="G49" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="H49" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="I49">
-        <v>3287471</v>
+        <v>3287536</v>
       </c>
       <c r="J49">
-        <v>3285661</v>
+        <v>3287475</v>
       </c>
       <c r="K49" t="s">
-        <v>198</v>
+        <v>166</v>
       </c>
       <c r="L49" t="s">
-        <v>240</v>
+        <v>201</v>
       </c>
       <c r="M49" t="s">
-        <v>288</v>
+        <v>258</v>
       </c>
       <c r="N49" t="s">
-        <v>329</v>
+        <v>293</v>
       </c>
     </row>
     <row r="50" spans="1:14">
       <c r="A50">
-        <v>0.8160761600000001</v>
+        <v>0.81724346</v>
       </c>
       <c r="B50" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C50" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="D50" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E50" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F50" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G50" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="H50" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="I50">
         <v>3287537</v>
       </c>
       <c r="J50">
-        <v>3290567</v>
+        <v>3285240</v>
       </c>
       <c r="L50" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="M50" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="N50" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
     </row>
     <row r="51" spans="1:14">
       <c r="A51">
-        <v>0.85305357</v>
+        <v>0.8338813</v>
       </c>
       <c r="B51" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="C51" t="s">
-        <v>20</v>
+        <v>86</v>
       </c>
       <c r="D51" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E51" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="F51" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G51" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="H51" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="I51">
-        <v>3287577</v>
+        <v>3290621</v>
       </c>
       <c r="J51">
-        <v>3290567</v>
+        <v>3285634</v>
       </c>
       <c r="K51" t="s">
-        <v>200</v>
+        <v>178</v>
       </c>
       <c r="L51" t="s">
-        <v>166</v>
+        <v>226</v>
       </c>
       <c r="M51" t="s">
-        <v>291</v>
+        <v>270</v>
       </c>
       <c r="N51" t="s">
-        <v>256</v>
+        <v>318</v>
       </c>
     </row>
     <row r="52" spans="1:14">
       <c r="A52">
-        <v>0.6645833</v>
+        <v>0.8077983</v>
       </c>
       <c r="B52" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="C52" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="D52" t="s">
         <v>107</v>
       </c>
       <c r="E52" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="F52" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G52" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="H52" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="I52">
-        <v>3287529</v>
+        <v>3290643</v>
       </c>
       <c r="J52">
-        <v>3285337</v>
+        <v>3290621</v>
       </c>
       <c r="K52" t="s">
-        <v>201</v>
+        <v>182</v>
       </c>
       <c r="L52" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="M52" t="s">
-        <v>292</v>
+        <v>274</v>
       </c>
       <c r="N52" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
     </row>
     <row r="53" spans="1:14">
       <c r="A53">
-        <v>0.8805195</v>
+        <v>0.81088847</v>
       </c>
       <c r="B53" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="C53" t="s">
-        <v>88</v>
+        <v>39</v>
       </c>
       <c r="D53" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E53" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F53" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G53" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="H53" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="I53">
-        <v>3290705</v>
+        <v>3290593</v>
       </c>
       <c r="J53">
-        <v>3290606</v>
+        <v>3286188</v>
       </c>
       <c r="K53" t="s">
-        <v>202</v>
+        <v>170</v>
       </c>
       <c r="L53" t="s">
-        <v>233</v>
+        <v>180</v>
       </c>
       <c r="M53" t="s">
-        <v>293</v>
+        <v>262</v>
       </c>
       <c r="N53" t="s">
-        <v>323</v>
+        <v>272</v>
       </c>
     </row>
     <row r="54" spans="1:14">
       <c r="A54">
-        <v>0.68998826</v>
+        <v>0.7837516</v>
       </c>
       <c r="B54" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C54" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="D54" t="s">
         <v>107</v>
       </c>
       <c r="E54" t="s">
-        <v>132</v>
+        <v>109</v>
       </c>
       <c r="F54" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="G54" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H54" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="I54">
-        <v>3287530</v>
+        <v>3285627</v>
       </c>
       <c r="J54">
-        <v>3287471</v>
+        <v>3287399</v>
       </c>
       <c r="K54" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="L54" t="s">
-        <v>198</v>
+        <v>231</v>
       </c>
       <c r="M54" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="N54" t="s">
-        <v>288</v>
+        <v>323</v>
       </c>
     </row>
     <row r="55" spans="1:14">
       <c r="A55">
-        <v>0.63686097</v>
+        <v>0.7212634999999999</v>
       </c>
       <c r="B55" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C55" t="s">
-        <v>31</v>
+        <v>92</v>
       </c>
       <c r="D55" t="s">
         <v>107</v>
       </c>
       <c r="E55" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="F55" t="s">
-        <v>108</v>
+        <v>143</v>
       </c>
       <c r="G55" t="s">
+        <v>148</v>
+      </c>
+      <c r="H55" t="s">
         <v>150</v>
       </c>
-      <c r="H55" t="s">
-        <v>156</v>
-      </c>
       <c r="I55">
-        <v>3285332</v>
+        <v>3290697</v>
       </c>
       <c r="J55">
-        <v>3286168</v>
+        <v>3287479</v>
       </c>
       <c r="K55" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="L55" t="s">
-        <v>177</v>
+        <v>232</v>
       </c>
       <c r="M55" t="s">
-        <v>295</v>
+        <v>257</v>
       </c>
       <c r="N55" t="s">
-        <v>267</v>
+        <v>324</v>
       </c>
     </row>
     <row r="56" spans="1:14">
       <c r="A56">
-        <v>0.7806369</v>
+        <v>0.7974415</v>
       </c>
       <c r="B56" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C56" t="s">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="D56" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E56" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F56" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="G56" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="H56" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="I56">
-        <v>3286379</v>
+        <v>3285335</v>
       </c>
       <c r="J56">
         <v>6290568</v>
       </c>
       <c r="K56" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="L56" t="s">
-        <v>241</v>
+        <v>215</v>
       </c>
       <c r="M56" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="N56" t="s">
-        <v>330</v>
+        <v>307</v>
       </c>
     </row>
     <row r="57" spans="1:14">
       <c r="A57">
-        <v>0.59680325</v>
+        <v>0.7622384</v>
       </c>
       <c r="B57" t="s">
         <v>56</v>
       </c>
       <c r="C57" t="s">
-        <v>17</v>
+        <v>93</v>
       </c>
       <c r="D57" t="s">
         <v>107</v>
       </c>
       <c r="E57" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="F57" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G57" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="H57" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="I57">
-        <v>3287529</v>
+        <v>3290589</v>
       </c>
       <c r="J57">
-        <v>3287480</v>
+        <v>3285230</v>
       </c>
       <c r="K57" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="L57" t="s">
-        <v>163</v>
+        <v>233</v>
       </c>
       <c r="M57" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="N57" t="s">
-        <v>253</v>
+        <v>325</v>
       </c>
     </row>
     <row r="58" spans="1:14">
       <c r="A58">
-        <v>0.7710005</v>
+        <v>0.6449106</v>
       </c>
       <c r="B58" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C58" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D58" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E58" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="F58" t="s">
-        <v>147</v>
+        <v>109</v>
       </c>
       <c r="G58" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="H58" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="I58">
-        <v>3287500</v>
+        <v>3287474</v>
       </c>
       <c r="J58">
-        <v>3287398</v>
+        <v>3286171</v>
       </c>
       <c r="K58" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="L58" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="M58" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="N58" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
     </row>
     <row r="59" spans="1:14">
       <c r="A59">
-        <v>0.70476866</v>
+        <v>0.7632853000000001</v>
       </c>
       <c r="B59" t="s">
+        <v>16</v>
+      </c>
+      <c r="C59" t="s">
         <v>62</v>
       </c>
-      <c r="C59" t="s">
-        <v>79</v>
-      </c>
       <c r="D59" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E59" t="s">
-        <v>134</v>
+        <v>109</v>
       </c>
       <c r="F59" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G59" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="H59" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="I59">
-        <v>3287475</v>
+        <v>3290668</v>
       </c>
       <c r="J59">
-        <v>3286194</v>
+        <v>3285661</v>
       </c>
       <c r="K59" t="s">
-        <v>207</v>
+        <v>158</v>
       </c>
       <c r="L59" t="s">
-        <v>224</v>
+        <v>202</v>
       </c>
       <c r="M59" t="s">
-        <v>298</v>
+        <v>249</v>
       </c>
       <c r="N59" t="s">
-        <v>314</v>
+        <v>294</v>
       </c>
     </row>
     <row r="60" spans="1:14">
       <c r="A60">
-        <v>0.7783589400000001</v>
+        <v>0.7684009000000001</v>
       </c>
       <c r="B60" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="C60" t="s">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="D60" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E60" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="F60" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G60" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="H60" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="I60">
-        <v>3287527</v>
+        <v>3290567</v>
       </c>
       <c r="J60">
-        <v>3285326</v>
+        <v>3286186</v>
       </c>
       <c r="K60" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L60" t="s">
-        <v>167</v>
+        <v>200</v>
       </c>
       <c r="M60" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="N60" t="s">
-        <v>257</v>
+        <v>292</v>
       </c>
     </row>
     <row r="61" spans="1:14">
       <c r="A61">
-        <v>0.6864576</v>
+        <v>0.7402843</v>
       </c>
       <c r="B61" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C61" t="s">
-        <v>41</v>
+        <v>95</v>
       </c>
       <c r="D61" t="s">
         <v>107</v>
       </c>
       <c r="E61" t="s">
-        <v>108</v>
+        <v>127</v>
       </c>
       <c r="F61" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G61" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="H61" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="I61">
-        <v>3286375</v>
+        <v>3288518</v>
       </c>
       <c r="J61">
-        <v>3290580</v>
+        <v>3290566</v>
       </c>
       <c r="K61" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="L61" t="s">
-        <v>187</v>
+        <v>235</v>
       </c>
       <c r="M61" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="N61" t="s">
-        <v>277</v>
+        <v>327</v>
       </c>
     </row>
     <row r="62" spans="1:14">
       <c r="A62">
-        <v>0.7576467</v>
+        <v>0.7920667</v>
       </c>
       <c r="B62" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C62" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="D62" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E62" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F62" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G62" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H62" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="I62">
-        <v>3290643</v>
+        <v>3286375</v>
       </c>
       <c r="J62">
-        <v>3285625</v>
+        <v>3285335</v>
       </c>
       <c r="K62" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="L62" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="M62" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="N62" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
     </row>
     <row r="63" spans="1:14">
       <c r="A63">
-        <v>0.80861723</v>
+        <v>0.7210620599999999</v>
       </c>
       <c r="B63" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="C63" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="D63" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E63" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="F63" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G63" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="H63" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="I63">
-        <v>3287468</v>
+        <v>3286186</v>
       </c>
       <c r="J63">
-        <v>3285227</v>
+        <v>3285370</v>
       </c>
       <c r="K63" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L63" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="M63" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="N63" t="s">
-        <v>318</v>
+        <v>328</v>
       </c>
     </row>
     <row r="64" spans="1:14">
       <c r="A64">
-        <v>0.81393814</v>
+        <v>0.8119556</v>
       </c>
       <c r="B64" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="C64" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="D64" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E64" t="s">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="F64" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G64" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="H64" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="I64">
-        <v>3290688</v>
+        <v>3287475</v>
       </c>
       <c r="J64">
-        <v>3285636</v>
+        <v>3290606</v>
       </c>
       <c r="K64" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="L64" t="s">
-        <v>165</v>
+        <v>237</v>
       </c>
       <c r="M64" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="N64" t="s">
-        <v>255</v>
+        <v>329</v>
       </c>
     </row>
     <row r="65" spans="1:14">
       <c r="A65">
-        <v>0.63147986</v>
+        <v>0.7506189</v>
       </c>
       <c r="B65" t="s">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="C65" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D65" t="s">
         <v>107</v>
       </c>
       <c r="E65" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="F65" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G65" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H65" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="I65">
-        <v>3287538</v>
+        <v>3285661</v>
       </c>
       <c r="J65">
-        <v>3286186</v>
+        <v>3290566</v>
       </c>
       <c r="K65" t="s">
-        <v>171</v>
+        <v>202</v>
       </c>
       <c r="L65" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="M65" t="s">
-        <v>261</v>
+        <v>294</v>
       </c>
       <c r="N65" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
     </row>
     <row r="66" spans="1:14">
       <c r="A66">
-        <v>0.81937397</v>
+        <v>0.8098434</v>
       </c>
       <c r="B66" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C66" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D66" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E66" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="F66" t="s">
-        <v>108</v>
+        <v>144</v>
       </c>
       <c r="G66" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="H66" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="I66">
-        <v>3287550</v>
+        <v>3287468</v>
       </c>
       <c r="J66">
-        <v>3285661</v>
+        <v>6290505</v>
       </c>
       <c r="K66" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="L66" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="M66" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="N66" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="67" spans="1:14">
       <c r="A67">
-        <v>0.81019175</v>
+        <v>0.83306944</v>
       </c>
       <c r="B67" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="C67" t="s">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="D67" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E67" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="F67" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="G67" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="H67" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="I67">
-        <v>3286373</v>
+        <v>3290705</v>
       </c>
       <c r="J67">
-        <v>6290523</v>
+        <v>3287467</v>
       </c>
       <c r="K67" t="s">
-        <v>210</v>
+        <v>186</v>
       </c>
       <c r="L67" t="s">
-        <v>222</v>
+        <v>239</v>
       </c>
       <c r="M67" t="s">
-        <v>301</v>
+        <v>278</v>
       </c>
       <c r="N67" t="s">
-        <v>312</v>
+        <v>331</v>
       </c>
     </row>
     <row r="68" spans="1:14">
       <c r="A68">
-        <v>0.6943192500000001</v>
+        <v>0.81061983</v>
       </c>
       <c r="B68" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="C68" t="s">
         <v>100</v>
@@ -4353,1439 +4350,996 @@
         <v>107</v>
       </c>
       <c r="E68" t="s">
-        <v>136</v>
+        <v>109</v>
       </c>
       <c r="F68" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G68" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="H68" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="I68">
-        <v>3287580</v>
+        <v>3285325</v>
       </c>
       <c r="J68">
-        <v>3285323</v>
+        <v>3285322</v>
       </c>
       <c r="K68" t="s">
-        <v>211</v>
+        <v>181</v>
       </c>
       <c r="L68" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="M68" t="s">
-        <v>302</v>
+        <v>273</v>
       </c>
       <c r="N68" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="69" spans="1:14">
       <c r="A69">
-        <v>0.7721962999999999</v>
+        <v>0.7868202</v>
       </c>
       <c r="B69" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="C69" t="s">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="D69" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E69" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F69" t="s">
-        <v>141</v>
+        <v>109</v>
       </c>
       <c r="G69" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H69" t="s">
         <v>155</v>
       </c>
       <c r="I69">
-        <v>3285332</v>
+        <v>3290620</v>
       </c>
       <c r="J69">
-        <v>3287446</v>
+        <v>3285375</v>
       </c>
       <c r="K69" t="s">
-        <v>204</v>
+        <v>184</v>
       </c>
       <c r="L69" t="s">
-        <v>226</v>
+        <v>241</v>
       </c>
       <c r="M69" t="s">
-        <v>295</v>
+        <v>276</v>
       </c>
       <c r="N69" t="s">
-        <v>316</v>
+        <v>333</v>
       </c>
     </row>
     <row r="70" spans="1:14">
       <c r="A70">
-        <v>0.8006909</v>
+        <v>0.792494</v>
       </c>
       <c r="B70" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C70" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D70" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E70" t="s">
-        <v>137</v>
+        <v>109</v>
       </c>
       <c r="F70" t="s">
-        <v>108</v>
+        <v>135</v>
       </c>
       <c r="G70" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="H70" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="I70">
-        <v>3287473</v>
+        <v>3290580</v>
       </c>
       <c r="J70">
-        <v>3290604</v>
+        <v>6290568</v>
       </c>
       <c r="K70" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="L70" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="M70" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="N70" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="71" spans="1:14">
       <c r="A71">
-        <v>0.802225</v>
+        <v>0.778736</v>
       </c>
       <c r="B71" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C71" t="s">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="D71" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E71" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F71" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G71" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H71" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="I71">
-        <v>3290567</v>
+        <v>3286378</v>
       </c>
       <c r="J71">
-        <v>3285635</v>
+        <v>3285332</v>
       </c>
       <c r="K71" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="L71" t="s">
-        <v>165</v>
+        <v>228</v>
       </c>
       <c r="M71" t="s">
         <v>256</v>
       </c>
       <c r="N71" t="s">
-        <v>255</v>
+        <v>320</v>
       </c>
     </row>
     <row r="72" spans="1:14">
       <c r="A72">
-        <v>0.7785797</v>
+        <v>0.7396151</v>
       </c>
       <c r="B72" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C72" t="s">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="D72" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E72" t="s">
-        <v>108</v>
+        <v>130</v>
       </c>
       <c r="F72" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G72" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="H72" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="I72">
-        <v>3286188</v>
+        <v>3287473</v>
       </c>
       <c r="J72">
-        <v>3285316</v>
+        <v>3290567</v>
       </c>
       <c r="K72" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="L72" t="s">
-        <v>160</v>
+        <v>198</v>
       </c>
       <c r="M72" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="N72" t="s">
-        <v>250</v>
+        <v>290</v>
       </c>
     </row>
     <row r="73" spans="1:14">
       <c r="A73">
-        <v>0.81872</v>
+        <v>0.6393073</v>
       </c>
       <c r="B73" t="s">
-        <v>66</v>
+        <v>18</v>
       </c>
       <c r="C73" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D73" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E73" t="s">
-        <v>136</v>
+        <v>110</v>
       </c>
       <c r="F73" t="s">
-        <v>146</v>
+        <v>109</v>
       </c>
       <c r="G73" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="H73" t="s">
         <v>155</v>
       </c>
       <c r="I73">
-        <v>3287580</v>
+        <v>3287534</v>
       </c>
       <c r="J73">
-        <v>6290568</v>
-      </c>
-      <c r="K73" t="s">
-        <v>211</v>
+        <v>3285370</v>
       </c>
       <c r="L73" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="M73" t="s">
-        <v>302</v>
+        <v>251</v>
       </c>
       <c r="N73" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="74" spans="1:14">
       <c r="A74">
-        <v>0.74893105</v>
+        <v>0.8264743</v>
       </c>
       <c r="B74" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C74" t="s">
-        <v>101</v>
+        <v>38</v>
       </c>
       <c r="D74" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E74" t="s">
-        <v>108</v>
+        <v>131</v>
       </c>
       <c r="F74" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G74" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="H74" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="I74">
-        <v>3286178</v>
+        <v>3287470</v>
       </c>
       <c r="J74">
-        <v>3285233</v>
+        <v>3286373</v>
       </c>
       <c r="K74" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="L74" t="s">
-        <v>245</v>
+        <v>179</v>
       </c>
       <c r="M74" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="N74" t="s">
-        <v>334</v>
+        <v>271</v>
       </c>
     </row>
     <row r="75" spans="1:14">
       <c r="A75">
-        <v>0.8507344999999999</v>
+        <v>0.67813647</v>
       </c>
       <c r="B75" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C75" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="D75" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E75" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="F75" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G75" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="H75" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="I75">
-        <v>3286373</v>
+        <v>3290679</v>
       </c>
       <c r="J75">
-        <v>3285633</v>
+        <v>3286195</v>
       </c>
       <c r="K75" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="L75" t="s">
-        <v>231</v>
+        <v>242</v>
       </c>
       <c r="M75" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="N75" t="s">
-        <v>321</v>
+        <v>334</v>
       </c>
     </row>
     <row r="76" spans="1:14">
       <c r="A76">
-        <v>0.82037354</v>
+        <v>0.78132117</v>
       </c>
       <c r="B76" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="C76" t="s">
-        <v>47</v>
+        <v>103</v>
       </c>
       <c r="D76" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E76" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F76" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="G76" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="H76" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="I76">
-        <v>3287577</v>
+        <v>3287480</v>
       </c>
       <c r="J76">
-        <v>3287476</v>
+        <v>3290605</v>
       </c>
       <c r="K76" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="L76" t="s">
-        <v>193</v>
+        <v>243</v>
       </c>
       <c r="M76" t="s">
-        <v>291</v>
+        <v>300</v>
       </c>
       <c r="N76" t="s">
-        <v>283</v>
+        <v>335</v>
       </c>
     </row>
     <row r="77" spans="1:14">
       <c r="A77">
-        <v>0.8078444</v>
+        <v>0.8680577</v>
       </c>
       <c r="B77" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="C77" t="s">
-        <v>45</v>
+        <v>86</v>
       </c>
       <c r="D77" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E77" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F77" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G77" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="H77" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="I77">
-        <v>3288493</v>
+        <v>3287577</v>
       </c>
       <c r="J77">
-        <v>3285625</v>
+        <v>3285635</v>
       </c>
       <c r="K77" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="L77" t="s">
-        <v>191</v>
+        <v>226</v>
       </c>
       <c r="M77" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="N77" t="s">
-        <v>281</v>
+        <v>318</v>
       </c>
     </row>
     <row r="78" spans="1:14">
       <c r="A78">
-        <v>0.77828</v>
+        <v>0.7336279</v>
       </c>
       <c r="B78" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C78" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
       <c r="D78" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E78" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="F78" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="G78" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H78" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="I78">
-        <v>3287536</v>
+        <v>3287527</v>
       </c>
       <c r="J78">
-        <v>3288493</v>
+        <v>3285252</v>
       </c>
       <c r="K78" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="L78" t="s">
-        <v>161</v>
+        <v>244</v>
       </c>
       <c r="M78" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="N78" t="s">
-        <v>251</v>
+        <v>336</v>
       </c>
     </row>
     <row r="79" spans="1:14">
       <c r="A79">
-        <v>0.8753347</v>
+        <v>0.6857748</v>
       </c>
       <c r="B79" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C79" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="D79" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E79" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="F79" t="s">
-        <v>141</v>
+        <v>109</v>
       </c>
       <c r="G79" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="H79" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="I79">
-        <v>3286188</v>
+        <v>3290679</v>
       </c>
       <c r="J79">
-        <v>3287446</v>
+        <v>3286186</v>
       </c>
       <c r="K79" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="L79" t="s">
-        <v>226</v>
+        <v>200</v>
       </c>
       <c r="M79" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="N79" t="s">
-        <v>316</v>
+        <v>292</v>
       </c>
     </row>
     <row r="80" spans="1:14">
       <c r="A80">
-        <v>0.715497</v>
+        <v>0.7700262</v>
       </c>
       <c r="B80" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="C80" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="D80" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E80" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F80" t="s">
+        <v>109</v>
+      </c>
+      <c r="G80" t="s">
         <v>148</v>
       </c>
-      <c r="G80" t="s">
-        <v>150</v>
-      </c>
       <c r="H80" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="I80">
-        <v>3285370</v>
+        <v>3290620</v>
       </c>
       <c r="J80">
-        <v>3287458</v>
+        <v>3290566</v>
       </c>
       <c r="K80" t="s">
-        <v>216</v>
+        <v>184</v>
       </c>
       <c r="L80" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="M80" t="s">
-        <v>307</v>
+        <v>276</v>
       </c>
       <c r="N80" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
     </row>
     <row r="81" spans="1:14">
       <c r="A81">
-        <v>0.6398322</v>
+        <v>0.70062876</v>
       </c>
       <c r="B81" t="s">
-        <v>66</v>
+        <v>18</v>
       </c>
       <c r="C81" t="s">
-        <v>69</v>
+        <v>105</v>
       </c>
       <c r="D81" t="s">
         <v>107</v>
       </c>
       <c r="E81" t="s">
-        <v>136</v>
+        <v>110</v>
       </c>
       <c r="F81" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G81" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="H81" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="I81">
-        <v>3287580</v>
+        <v>3287534</v>
       </c>
       <c r="J81">
-        <v>3286178</v>
-      </c>
-      <c r="K81" t="s">
-        <v>211</v>
+        <v>3290608</v>
       </c>
       <c r="L81" t="s">
-        <v>214</v>
+        <v>245</v>
       </c>
       <c r="M81" t="s">
-        <v>302</v>
+        <v>251</v>
       </c>
       <c r="N81" t="s">
-        <v>305</v>
+        <v>337</v>
       </c>
     </row>
     <row r="82" spans="1:14">
       <c r="A82">
-        <v>0.7173015</v>
+        <v>0.8628220599999999</v>
       </c>
       <c r="B82" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="C82" t="s">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="D82" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E82" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F82" t="s">
-        <v>108</v>
+        <v>138</v>
       </c>
       <c r="G82" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="H82" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="I82">
-        <v>3286379</v>
+        <v>3290621</v>
       </c>
       <c r="J82">
-        <v>3290589</v>
+        <v>6290567</v>
       </c>
       <c r="K82" t="s">
-        <v>205</v>
+        <v>178</v>
       </c>
       <c r="L82" t="s">
-        <v>247</v>
+        <v>220</v>
       </c>
       <c r="M82" t="s">
-        <v>296</v>
+        <v>270</v>
       </c>
       <c r="N82" t="s">
-        <v>336</v>
+        <v>312</v>
       </c>
     </row>
     <row r="83" spans="1:14">
       <c r="A83">
-        <v>0.84501296</v>
+        <v>0.80018824</v>
       </c>
       <c r="B83" t="s">
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="C83" t="s">
-        <v>81</v>
+        <v>33</v>
       </c>
       <c r="D83" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E83" t="s">
         <v>109</v>
       </c>
       <c r="F83" t="s">
-        <v>141</v>
+        <v>109</v>
       </c>
       <c r="G83" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="H83" t="s">
         <v>155</v>
       </c>
       <c r="I83">
-        <v>3288497</v>
+        <v>3290586</v>
       </c>
       <c r="J83">
-        <v>3287446</v>
+        <v>3285316</v>
       </c>
       <c r="K83" t="s">
-        <v>161</v>
+        <v>210</v>
       </c>
       <c r="L83" t="s">
-        <v>226</v>
+        <v>174</v>
       </c>
       <c r="M83" t="s">
-        <v>251</v>
+        <v>302</v>
       </c>
       <c r="N83" t="s">
-        <v>316</v>
+        <v>266</v>
       </c>
     </row>
     <row r="84" spans="1:14">
       <c r="A84">
-        <v>0.6880752999999999</v>
+        <v>0.6088684</v>
       </c>
       <c r="B84" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C84" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="D84" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E84" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="F84" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G84" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="H84" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="I84">
-        <v>3290681</v>
+        <v>3290679</v>
       </c>
       <c r="J84">
-        <v>3285370</v>
+        <v>3290570</v>
       </c>
       <c r="K84" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="L84" t="s">
-        <v>216</v>
+        <v>192</v>
       </c>
       <c r="M84" t="s">
-        <v>256</v>
+        <v>299</v>
       </c>
       <c r="N84" t="s">
-        <v>307</v>
+        <v>284</v>
       </c>
     </row>
     <row r="85" spans="1:14">
       <c r="A85">
-        <v>0.7647214</v>
+        <v>0.71005434</v>
       </c>
       <c r="B85" t="s">
-        <v>73</v>
+        <v>36</v>
       </c>
       <c r="C85" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="D85" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E85" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F85" t="s">
-        <v>146</v>
+        <v>109</v>
       </c>
       <c r="G85" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H85" t="s">
         <v>155</v>
       </c>
       <c r="I85">
-        <v>3290622</v>
+        <v>3286375</v>
       </c>
       <c r="J85">
-        <v>6290568</v>
+        <v>3285327</v>
       </c>
       <c r="K85" t="s">
-        <v>218</v>
+        <v>177</v>
       </c>
       <c r="L85" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="M85" t="s">
-        <v>308</v>
+        <v>269</v>
       </c>
       <c r="N85" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
     </row>
     <row r="86" spans="1:14">
       <c r="A86">
-        <v>0.84934074</v>
+        <v>0.86641514</v>
       </c>
       <c r="B86" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C86" t="s">
-        <v>19</v>
+        <v>101</v>
       </c>
       <c r="D86" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E86" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F86" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G86" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="H86" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="I86">
-        <v>3290604</v>
+        <v>3290586</v>
       </c>
       <c r="J86">
-        <v>3285634</v>
+        <v>3285375</v>
       </c>
       <c r="K86" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="L86" t="s">
-        <v>165</v>
+        <v>241</v>
       </c>
       <c r="M86" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="N86" t="s">
-        <v>255</v>
+        <v>333</v>
       </c>
     </row>
     <row r="87" spans="1:14">
       <c r="A87">
-        <v>0.82705295</v>
+        <v>0.77362776</v>
       </c>
       <c r="B87" t="s">
+        <v>71</v>
+      </c>
+      <c r="C87" t="s">
         <v>70</v>
       </c>
-      <c r="C87" t="s">
-        <v>102</v>
-      </c>
       <c r="D87" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E87" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="F87" t="s">
+        <v>109</v>
+      </c>
+      <c r="G87" t="s">
+        <v>150</v>
+      </c>
+      <c r="H87" t="s">
         <v>148</v>
       </c>
-      <c r="G87" t="s">
-        <v>152</v>
-      </c>
-      <c r="H87" t="s">
-        <v>155</v>
-      </c>
       <c r="I87">
-        <v>3287536</v>
+        <v>3287471</v>
       </c>
       <c r="J87">
-        <v>3287458</v>
+        <v>3290586</v>
       </c>
       <c r="K87" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="L87" t="s">
-        <v>246</v>
+        <v>210</v>
       </c>
       <c r="M87" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="N87" t="s">
-        <v>335</v>
+        <v>302</v>
       </c>
     </row>
     <row r="88" spans="1:14">
       <c r="A88">
-        <v>0.83461595</v>
+        <v>0.6945119</v>
       </c>
       <c r="B88" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="C88" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="D88" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E88" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="F88" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="G88" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="H88" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="I88">
-        <v>3290593</v>
+        <v>3287538</v>
       </c>
       <c r="J88">
-        <v>6290574</v>
+        <v>6290568</v>
       </c>
       <c r="K88" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="L88" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="M88" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="N88" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
     </row>
     <row r="89" spans="1:14">
       <c r="A89">
-        <v>0.86724216</v>
+        <v>0.8419264</v>
       </c>
       <c r="B89" t="s">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="C89" t="s">
-        <v>95</v>
+        <v>64</v>
       </c>
       <c r="D89" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E89" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="F89" t="s">
-        <v>145</v>
+        <v>109</v>
       </c>
       <c r="G89" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="H89" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="I89">
-        <v>3285226</v>
+        <v>3287536</v>
       </c>
       <c r="J89">
-        <v>6290579</v>
+        <v>3290580</v>
       </c>
       <c r="K89" t="s">
-        <v>220</v>
+        <v>166</v>
       </c>
       <c r="L89" t="s">
-        <v>239</v>
+        <v>204</v>
       </c>
       <c r="M89" t="s">
-        <v>310</v>
+        <v>258</v>
       </c>
       <c r="N89" t="s">
-        <v>328</v>
+        <v>296</v>
       </c>
     </row>
     <row r="90" spans="1:14">
       <c r="A90">
-        <v>0.62938285</v>
+        <v>0.7232992</v>
       </c>
       <c r="B90" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="C90" t="s">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="D90" t="s">
         <v>107</v>
       </c>
       <c r="E90" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="F90" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="G90" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="H90" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="I90">
-        <v>3285657</v>
+        <v>3290679</v>
       </c>
       <c r="J90">
-        <v>3287414</v>
+        <v>3287473</v>
       </c>
       <c r="K90" t="s">
-        <v>221</v>
+        <v>207</v>
       </c>
       <c r="L90" t="s">
-        <v>222</v>
+        <v>205</v>
       </c>
       <c r="M90" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="N90" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="91" spans="1:14">
-      <c r="A91">
-        <v>0.7581439</v>
-      </c>
-      <c r="B91" t="s">
-        <v>27</v>
-      </c>
-      <c r="C91" t="s">
-        <v>92</v>
-      </c>
-      <c r="D91" t="s">
-        <v>106</v>
-      </c>
-      <c r="E91" t="s">
-        <v>108</v>
-      </c>
-      <c r="F91" t="s">
-        <v>143</v>
-      </c>
-      <c r="G91" t="s">
-        <v>153</v>
-      </c>
-      <c r="H91" t="s">
-        <v>155</v>
-      </c>
-      <c r="I91">
-        <v>3290621</v>
-      </c>
-      <c r="J91">
-        <v>6290581</v>
-      </c>
-      <c r="K91" t="s">
-        <v>173</v>
-      </c>
-      <c r="L91" t="s">
-        <v>236</v>
-      </c>
-      <c r="M91" t="s">
-        <v>263</v>
-      </c>
-      <c r="N91" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="92" spans="1:14">
-      <c r="A92">
-        <v>0.8173082</v>
-      </c>
-      <c r="B92" t="s">
-        <v>64</v>
-      </c>
-      <c r="C92" t="s">
-        <v>98</v>
-      </c>
-      <c r="D92" t="s">
-        <v>106</v>
-      </c>
-      <c r="E92" t="s">
-        <v>135</v>
-      </c>
-      <c r="F92" t="s">
-        <v>147</v>
-      </c>
-      <c r="G92" t="s">
-        <v>155</v>
-      </c>
-      <c r="H92" t="s">
-        <v>152</v>
-      </c>
-      <c r="I92">
-        <v>3287550</v>
-      </c>
-      <c r="J92">
-        <v>3287398</v>
-      </c>
-      <c r="K92" t="s">
-        <v>209</v>
-      </c>
-      <c r="L92" t="s">
-        <v>242</v>
-      </c>
-      <c r="M92" t="s">
-        <v>300</v>
-      </c>
-      <c r="N92" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="93" spans="1:14">
-      <c r="A93">
-        <v>0.75022566</v>
-      </c>
-      <c r="B93" t="s">
-        <v>14</v>
-      </c>
-      <c r="C93" t="s">
-        <v>97</v>
-      </c>
-      <c r="D93" t="s">
-        <v>106</v>
-      </c>
-      <c r="E93" t="s">
-        <v>108</v>
-      </c>
-      <c r="F93" t="s">
-        <v>146</v>
-      </c>
-      <c r="G93" t="s">
-        <v>150</v>
-      </c>
-      <c r="H93" t="s">
-        <v>155</v>
-      </c>
-      <c r="I93">
-        <v>3285316</v>
-      </c>
-      <c r="J93">
-        <v>6290568</v>
-      </c>
-      <c r="K93" t="s">
-        <v>160</v>
-      </c>
-      <c r="L93" t="s">
-        <v>241</v>
-      </c>
-      <c r="M93" t="s">
-        <v>250</v>
-      </c>
-      <c r="N93" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="94" spans="1:14">
-      <c r="A94">
-        <v>0.82611704</v>
-      </c>
-      <c r="B94" t="s">
-        <v>28</v>
-      </c>
-      <c r="C94" t="s">
-        <v>104</v>
-      </c>
-      <c r="D94" t="s">
-        <v>106</v>
-      </c>
-      <c r="E94" t="s">
-        <v>115</v>
-      </c>
-      <c r="F94" t="s">
-        <v>149</v>
-      </c>
-      <c r="G94" t="s">
-        <v>155</v>
-      </c>
-      <c r="H94" t="s">
-        <v>152</v>
-      </c>
-      <c r="I94">
-        <v>3287516</v>
-      </c>
-      <c r="J94">
-        <v>3287477</v>
-      </c>
-      <c r="K94" t="s">
-        <v>174</v>
-      </c>
-      <c r="L94" t="s">
-        <v>248</v>
-      </c>
-      <c r="M94" t="s">
-        <v>264</v>
-      </c>
-      <c r="N94" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="95" spans="1:14">
-      <c r="A95">
-        <v>0.6977774</v>
-      </c>
-      <c r="B95" t="s">
-        <v>38</v>
-      </c>
-      <c r="C95" t="s">
-        <v>35</v>
-      </c>
-      <c r="D95" t="s">
-        <v>107</v>
-      </c>
-      <c r="E95" t="s">
-        <v>121</v>
-      </c>
-      <c r="F95" t="s">
-        <v>118</v>
-      </c>
-      <c r="G95" t="s">
-        <v>155</v>
-      </c>
-      <c r="H95" t="s">
-        <v>155</v>
-      </c>
-      <c r="I95">
-        <v>3287522</v>
-      </c>
-      <c r="J95">
-        <v>3287512</v>
-      </c>
-      <c r="K95" t="s">
-        <v>184</v>
-      </c>
-      <c r="L95" t="s">
-        <v>181</v>
-      </c>
-      <c r="M95" t="s">
-        <v>274</v>
-      </c>
-      <c r="N95" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="96" spans="1:14">
-      <c r="A96">
-        <v>0.80084276</v>
-      </c>
-      <c r="B96" t="s">
-        <v>46</v>
-      </c>
-      <c r="C96" t="s">
-        <v>44</v>
-      </c>
-      <c r="D96" t="s">
-        <v>106</v>
-      </c>
-      <c r="E96" t="s">
-        <v>123</v>
-      </c>
-      <c r="F96" t="s">
-        <v>108</v>
-      </c>
-      <c r="G96" t="s">
-        <v>151</v>
-      </c>
-      <c r="H96" t="s">
-        <v>150</v>
-      </c>
-      <c r="I96">
-        <v>3288534</v>
-      </c>
-      <c r="J96">
-        <v>3285327</v>
-      </c>
-      <c r="K96" t="s">
-        <v>192</v>
-      </c>
-      <c r="L96" t="s">
-        <v>190</v>
-      </c>
-      <c r="M96" t="s">
-        <v>282</v>
-      </c>
-      <c r="N96" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="97" spans="1:14">
-      <c r="A97">
-        <v>0.71855855</v>
-      </c>
-      <c r="B97" t="s">
-        <v>54</v>
-      </c>
-      <c r="C97" t="s">
-        <v>47</v>
-      </c>
-      <c r="D97" t="s">
-        <v>106</v>
-      </c>
-      <c r="E97" t="s">
-        <v>129</v>
-      </c>
-      <c r="F97" t="s">
-        <v>124</v>
-      </c>
-      <c r="G97" t="s">
-        <v>152</v>
-      </c>
-      <c r="H97" t="s">
-        <v>152</v>
-      </c>
-      <c r="I97">
-        <v>3287537</v>
-      </c>
-      <c r="J97">
-        <v>3287476</v>
-      </c>
-      <c r="L97" t="s">
-        <v>193</v>
-      </c>
-      <c r="M97" t="s">
-        <v>290</v>
-      </c>
-      <c r="N97" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="98" spans="1:14">
-      <c r="A98">
-        <v>0.8167005000000001</v>
-      </c>
-      <c r="B98" t="s">
-        <v>55</v>
-      </c>
-      <c r="C98" t="s">
-        <v>96</v>
-      </c>
-      <c r="D98" t="s">
-        <v>106</v>
-      </c>
-      <c r="E98" t="s">
-        <v>130</v>
-      </c>
-      <c r="F98" t="s">
-        <v>108</v>
-      </c>
-      <c r="G98" t="s">
-        <v>157</v>
-      </c>
-      <c r="H98" t="s">
-        <v>154</v>
-      </c>
-      <c r="I98">
-        <v>3287577</v>
-      </c>
-      <c r="J98">
-        <v>3285661</v>
-      </c>
-      <c r="K98" t="s">
-        <v>200</v>
-      </c>
-      <c r="L98" t="s">
-        <v>240</v>
-      </c>
-      <c r="M98" t="s">
-        <v>291</v>
-      </c>
-      <c r="N98" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="99" spans="1:14">
-      <c r="A99">
-        <v>0.6448091</v>
-      </c>
-      <c r="B99" t="s">
-        <v>66</v>
-      </c>
-      <c r="C99" t="s">
-        <v>105</v>
-      </c>
-      <c r="D99" t="s">
-        <v>107</v>
-      </c>
-      <c r="E99" t="s">
-        <v>136</v>
-      </c>
-      <c r="F99" t="s">
-        <v>108</v>
-      </c>
-      <c r="G99" t="s">
-        <v>157</v>
-      </c>
-      <c r="H99" t="s">
-        <v>150</v>
-      </c>
-      <c r="I99">
-        <v>3287580</v>
-      </c>
-      <c r="J99">
-        <v>3285386</v>
-      </c>
-      <c r="K99" t="s">
-        <v>211</v>
-      </c>
-      <c r="L99" t="s">
-        <v>249</v>
-      </c>
-      <c r="M99" t="s">
-        <v>302</v>
-      </c>
-      <c r="N99" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="100" spans="1:14">
-      <c r="A100">
-        <v>0.73621744</v>
-      </c>
-      <c r="B100" t="s">
-        <v>46</v>
-      </c>
-      <c r="C100" t="s">
-        <v>52</v>
-      </c>
-      <c r="D100" t="s">
-        <v>106</v>
-      </c>
-      <c r="E100" t="s">
-        <v>123</v>
-      </c>
-      <c r="F100" t="s">
-        <v>127</v>
-      </c>
-      <c r="G100" t="s">
-        <v>151</v>
-      </c>
-      <c r="H100" t="s">
-        <v>152</v>
-      </c>
-      <c r="I100">
-        <v>3288534</v>
-      </c>
-      <c r="J100">
-        <v>3287471</v>
-      </c>
-      <c r="K100" t="s">
-        <v>192</v>
-      </c>
-      <c r="L100" t="s">
-        <v>198</v>
-      </c>
-      <c r="M100" t="s">
-        <v>282</v>
-      </c>
-      <c r="N100" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
     </row>
   </sheetData>
